--- a/Datasets/menu_data.xlsx
+++ b/Datasets/menu_data.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>탄탄면</t>
+          <t>찐꽈배기</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>아구찜(소)</t>
+          <t>후라이드</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>콩나물국밥</t>
+          <t>매화(치킨, 연어구이)</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,8 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>소고기 공심채 덮밥</t>
+          <t>추천
+믹스카츠</t>
         </is>
       </c>
     </row>
@@ -538,7 +539,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼겹살 (200g)</t>
+          <t>봉스쭈꾸미 (1인분) (저녁메뉴)</t>
         </is>
       </c>
     </row>
@@ -548,7 +549,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>우리보쌈(소)</t>
+          <t>코만도바베큐</t>
         </is>
       </c>
     </row>
@@ -558,7 +559,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>매화(치킨, 연어구이)</t>
+          <t>단호박죽</t>
         </is>
       </c>
     </row>
@@ -568,7 +569,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>보쌈정식</t>
+          <t>오돌뼈</t>
         </is>
       </c>
     </row>
@@ -578,7 +579,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>두마리 같은 한마리 후라이드 치킨</t>
+          <t>A SET</t>
         </is>
       </c>
     </row>
@@ -588,7 +589,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>통닭발</t>
+          <t>양아들치킨</t>
         </is>
       </c>
     </row>
@@ -598,7 +599,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>족발 (중)</t>
+          <t>김치전</t>
         </is>
       </c>
     </row>
@@ -608,8 +609,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>추천
-남도정식</t>
+          <t>얼씨구</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>조선의 육개장</t>
+          <t>샐러드돈카츠</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>보쌈</t>
+          <t>바지락 수제비</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>닭다리살 스테이크</t>
+          <t>아이스아메리카노</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>쌀떡볶이</t>
+          <t>보쌈</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>광어초밥 (10ps)</t>
+          <t>닭떡볶이</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>후라이드 치킨</t>
+          <t>얼큰모듬짬뽕</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>마녀김밥</t>
+          <t>치르르블랙라벨치킨 8조각</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>찹쌀탕수육</t>
+          <t>크림라떼</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>차돌숙주라멘</t>
+          <t>크림양송이 스파게티</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>앞다리살한마리(2~3인이상)</t>
+          <t>2시간</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>딸기 리코타치즈 샌드</t>
+          <t>안심육즙탕수육 (S)</t>
         </is>
       </c>
     </row>
@@ -729,8 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>추천
-이가초밥</t>
+          <t>만조 크림 리조또</t>
         </is>
       </c>
     </row>
@@ -740,7 +739,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>고기국수</t>
+          <t>냉면</t>
         </is>
       </c>
     </row>
@@ -750,8 +749,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>추천
-아몬드크림 라떼</t>
+          <t>돈코츠라멘</t>
         </is>
       </c>
     </row>
@@ -761,7 +759,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>경성꽈배기(3개)</t>
+          <t>소고기쌀국수</t>
         </is>
       </c>
     </row>
@@ -771,7 +769,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>광어숙성회(중)</t>
+          <t>특설렁탕</t>
         </is>
       </c>
     </row>
@@ -781,7 +779,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>닭모래집</t>
+          <t>나눔]킹쉬L+리얼순살+양념</t>
         </is>
       </c>
     </row>
@@ -791,7 +789,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>내장탕</t>
+          <t>앞다리살한마리(2~3인이상)</t>
         </is>
       </c>
     </row>
@@ -801,7 +799,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>참치마요꽁지</t>
+          <t>2인 세트</t>
         </is>
       </c>
     </row>
@@ -811,7 +809,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>크리스피 치킨</t>
+          <t>육회모듬</t>
         </is>
       </c>
     </row>
@@ -821,7 +819,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>치르르블랙라벨치킨 8조각</t>
+          <t>순대 곱창 전골 (중)</t>
         </is>
       </c>
     </row>
@@ -831,7 +829,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2시간</t>
+          <t>잠봉뵈르</t>
         </is>
       </c>
     </row>
@@ -841,7 +839,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>육회(중)</t>
+          <t>닭곰탕국수</t>
         </is>
       </c>
     </row>
@@ -851,7 +849,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>아귀포(2마리)</t>
+          <t>돈코츠 라멘</t>
         </is>
       </c>
     </row>
@@ -861,7 +859,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>타이페이 누들킹</t>
+          <t>클럽샌드위치</t>
         </is>
       </c>
     </row>
@@ -871,7 +869,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>건강한방삼계탕</t>
+          <t>유린기</t>
         </is>
       </c>
     </row>
@@ -881,7 +879,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>퀸즈팩</t>
+          <t>평일런치 (오후 5시 이전)</t>
         </is>
       </c>
     </row>
@@ -891,7 +889,8 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>양아들치킨</t>
+          <t>추천
+미플레이스 라떼</t>
         </is>
       </c>
     </row>
@@ -901,7 +900,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>특선활어회초밥(12pcs)</t>
+          <t>수제본함박 스테이크</t>
         </is>
       </c>
     </row>
@@ -911,7 +910,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>쩡떡볶이</t>
+          <t>생감자튀김</t>
         </is>
       </c>
     </row>
@@ -921,7 +920,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>아귀포</t>
+          <t>파스타+치킨</t>
         </is>
       </c>
     </row>
@@ -931,7 +930,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>교촌허니순살[R]</t>
+          <t>치즈피자</t>
         </is>
       </c>
     </row>
@@ -941,7 +940,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>격식을 갖춘 한끼</t>
+          <t>마그마 오믈렛</t>
         </is>
       </c>
     </row>
@@ -951,7 +950,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>한사바리해장국+떡갈비</t>
+          <t>왕족방 (소)</t>
         </is>
       </c>
     </row>
@@ -961,7 +960,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>모듬초밥 (10P)</t>
+          <t>광어초밥 (10ps)</t>
         </is>
       </c>
     </row>
@@ -971,7 +970,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>살몬그라브릭스</t>
+          <t>돈파스</t>
         </is>
       </c>
     </row>
@@ -981,7 +980,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>소갈비살(200g)</t>
+          <t>네버슬립스 (R)</t>
         </is>
       </c>
     </row>
@@ -991,7 +990,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>일미 김밥</t>
+          <t>까페라떼</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1000,8 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>장어소금구이 (1kg)</t>
+          <t>추천
+골목한상</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>백순대곱창 볶음 2인</t>
+          <t>급냉 삼겹살(170g)</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>삼겹살 (150g)</t>
+          <t>연남물갈비(1인분)</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>차돌박이 김치떡볶이</t>
+          <t>볶음밥</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>쥐포튀김</t>
+          <t>버팔로칩</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>광어초밥(12p)</t>
+          <t>모듬(600g)</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>깻잎찜닭(2인)</t>
+          <t>생연어</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>볼 샐러드</t>
+          <t>고르곤졸라피자</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>HOT 크리스피 베이크</t>
+          <t>산낙지철판</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>반반감족</t>
+          <t>서울양념통닭</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>왕십리야채곱창 (200g)</t>
+          <t>곱창전골</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>나이스 세트 A</t>
+          <t>네코스시</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>모듬</t>
+          <t>정가스페셜 (3일전 예약)</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>생제주오겹살(300g)</t>
+          <t>무모한 메가초밥세트A(32P)</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>볏짚산꼼장어 (1인분)</t>
+          <t>생과일 샐러드</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>우렁쌈장정식</t>
+          <t>한우곱창떡볶이 (S)</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>코다리 조림 (소)</t>
+          <t>마라탕 (100g)</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>가득오뎅탕</t>
+          <t>봉천동 나시고랭</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>호타루 모듬세트</t>
+          <t>가정식백반</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,8 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>너트 티라노 블렌딩</t>
+          <t>추천
+파인돈까스</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1202,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>삼겹살(1인분)</t>
+          <t>소곱창(180g)</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1212,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>바나나쥬스 (M)</t>
+          <t>돼지막창</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1222,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>치즈 플레이트</t>
+          <t>대새피자</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1232,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>무한리필(1인)</t>
+          <t>감자튀김 (S)</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1242,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>연인세트A</t>
+          <t>통통 삼겹 (150g)</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1252,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>얼씨구</t>
+          <t>햄볶음밥</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1262,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>매직버터치킨세트(보퉁맛)</t>
+          <t>오인자 모듬한상세트 (3~4인)</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1272,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>회전초밥</t>
+          <t>과일</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1282,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>꾸덕 로제떡볶이</t>
+          <t>안심스테이크</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1292,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>얼쑤절쑤 불고기 크림파스타</t>
+          <t>어메이징 크리스피 후라이드 치킨</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1302,8 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>마담떡볶이</t>
+          <t>추천
+꾸에이띠어우 느아</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1313,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>통뼈닭발 (소)</t>
+          <t>아구찜 (대)</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1323,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>모다카레+프리미엄소시지</t>
+          <t>본래순대국</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1333,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>소세지 플래터</t>
+          <t>족발 (중)</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1343,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>햄치즈</t>
+          <t>얼쑤절쑤 불고기 크림파스타</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1353,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>피자</t>
+          <t>소세지 플래터</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1363,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>들깨칼국수</t>
+          <t>양념치킨</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1373,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2시간/1인 (기본)</t>
+          <t>동해 해물파전</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1383,8 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>얼큰뼈감자탕 (대)</t>
+          <t>추천
+닭도리탕</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1394,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>돈파스</t>
+          <t>보달라</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1404,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>안심육즙탕수육 (S)</t>
+          <t>고르곤졸라꿀피자</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1414,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>큐브스테이크덮밥</t>
+          <t>미트볼토마토파스타</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1424,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>하루 (옛날돈가스)</t>
+          <t>흑돼지타코</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1434,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>마제소바</t>
+          <t>황칠 해신탕 (2인)</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1444,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>치킨가라아게</t>
+          <t>통갈매기살(200g)</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1454,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>코코 후라이드(중)</t>
+          <t>한마리반 크리스피치킨</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1464,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>한마리반 크리스피치킨</t>
+          <t>주꾸미</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1474,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>소갈비살 (170g)</t>
+          <t>시저샐러드</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1484,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>조개찜 (소)</t>
+          <t>알리오 올리오 스파게티</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1494,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>치킨샐러드</t>
+          <t>고르곤졸라 피자 (10인치)</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1504,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>스윗에그</t>
+          <t>마른안주(소),쥐포,노가리</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1514,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>에비죠텐동</t>
+          <t>해물파전</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1524,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>숯불 소금막창(1인분)</t>
+          <t>짜장</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1534,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>직화불고기혼밥</t>
+          <t>차돌배기</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1544,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>야채곱창</t>
+          <t>소고기 (100g)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1554,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>마왕통구이</t>
+          <t>새우튀김</t>
         </is>
       </c>
     </row>
@@ -1561,8 +1564,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>추천
-마차이짬뽕</t>
+          <t>한돈목살(150g)</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1574,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>런치 오마카세</t>
+          <t>닭껍질튀김</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1584,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>불고기</t>
+          <t>경성꽈배기(3개)</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1594,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>쭈꾸미 (1인분)</t>
+          <t>뚝배기 닭볶음탕</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1604,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>소고기국밥</t>
+          <t>김치생오겹살(200g)</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1614,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>한우 (150g)</t>
+          <t>점심특선(장어탕)</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1624,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>오리지널 함박스테이크</t>
+          <t>튀김 (1인분)</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1634,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>순대곱창버섯전골(중)</t>
+          <t>생제주오겹살(300g)</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1644,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>동궁황금찜닭 (R)</t>
+          <t>쿠바 샌드위치 오리지널</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1654,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>햄볶음밥</t>
+          <t>오리장작바베큐</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1664,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>탕수육 (소)</t>
+          <t>삼겹살 (170g)</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1674,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>차돌배기</t>
+          <t>비빔국수</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1684,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>트윈 세트</t>
+          <t>한식뷔페</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1694,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>흑염소탕 (100g)</t>
+          <t>비빔냉면</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1704,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>대구뽈조림(소)</t>
+          <t>찹쌀경성꽈배기(3개)</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1714,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>춘천닭갈비 (1인분)</t>
+          <t>막창소금(2인)</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1724,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>가래떡떡볶이</t>
+          <t>유기농 순두부찌개</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1734,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>김치부대찌개 (3인분)</t>
+          <t>혼네 규카츠</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1744,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>닭떡볶이</t>
+          <t>생연어 사시미</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1754,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>짜장</t>
+          <t>쩡떡볶이</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1764,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>광어대파회</t>
+          <t>아로니아찐빵 (5개)</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1774,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>베이컨머쉬룸 파스타</t>
+          <t>미친피자 시그니처(M)</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1784,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>닭껍질튀김</t>
+          <t>우삼겹살 쌈밥(180g)</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1794,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>통갈매기살(200g)</t>
+          <t>굴비백반</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1804,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>생양꼬치</t>
+          <t>얼큰 짬뽕탕</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1814,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>훈제족발</t>
+          <t>모시조개탕</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1824,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>GELATO (꼬노)</t>
+          <t>차돌박이 (150g)</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1834,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>양평해장국</t>
+          <t>쭈꾸미 2인세트</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1844,8 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>깐풍 가지튀김</t>
+          <t>추천
+눈꽃세트</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1855,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>떡볶이</t>
+          <t>프리미엄 돈카츠 세트</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1865,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>마가리타</t>
+          <t>보리밥</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1875,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>냄비오뎅</t>
+          <t>국내산 특생삼겹살 (200g)</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1885,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>예즈지</t>
+          <t>아구찜 (소)</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1895,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>C.연어.육회 무한 SET</t>
+          <t>채끝등심(200g)</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1905,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>동태전</t>
+          <t>노가리(2마리)</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1915,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>보성녹돈삼겹살</t>
+          <t>반반족발 (뒷다리로 반반)</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1925,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>듀록 냉삼겹 (1인분)</t>
+          <t>춘천닭갈비 (1인분)</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1935,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>광어활어회 한상차림 (대)</t>
+          <t>짬봉탕</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1945,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>백채찌개 1인</t>
+          <t>내장탕</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1955,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>삼겹살</t>
+          <t>광어 (중)</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1965,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>통뼈국물닭발</t>
+          <t>주먹목살(200g)</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1975,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>똥집 오일 파스타</t>
+          <t>순살양념구이치킨</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1985,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>김치전</t>
+          <t>포첸 양지쌀국수</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1995,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>감자전</t>
+          <t>생연어회(소)</t>
         </is>
       </c>
     </row>
@@ -2002,7 +2005,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>쌀국수 (돼지)</t>
+          <t>돼지 김치찜(1인분)</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2015,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>왕갈비탕</t>
+          <t>불고기</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2025,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>부대찌개무한리필(성인)</t>
+          <t>치즈해물떡볶이</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2035,8 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>바지락 수제비</t>
+          <t>추천
+이가초밥</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2046,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>브라운슈가 치즈폼 스무디(L)</t>
+          <t>대구뽈찜 (특)</t>
         </is>
       </c>
     </row>
@@ -2052,8 +2056,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>추천
-삼겹살카레</t>
+          <t>등심돈까스</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2066,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>닭다리살강정(중)</t>
+          <t>모듬A(450g)</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2076,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>콤비네이션 피자(M)</t>
+          <t>페스트리피자</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2086,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>소 불고기 김치전</t>
+          <t>무한리필(1인)</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2096,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>나홀로set</t>
+          <t>닭도리탕</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2106,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>오리장작바베큐</t>
+          <t>특양 (200g)</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2116,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>살시치아 미트볼 스튜</t>
+          <t>해물탕 (소)</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2126,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>곱창모듬 (1인분)</t>
+          <t>기꾸초밥</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2136,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>그린스무디</t>
+          <t>코카콜라500ml</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2146,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>생연어</t>
+          <t>반반섞음</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2157,7 @@
       <c r="B167" t="inlineStr">
         <is>
           <t>추천
-골목한상</t>
+마라테이블 마라탕</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2167,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1미터 무한리필</t>
+          <t>버섯샤브매운탕</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2177,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>숯불구이 족발</t>
+          <t>꽃새우 회(소)</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2187,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>우렁된장쌈밥</t>
+          <t>봉골레 파스타</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2197,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>철판제육볶음</t>
+          <t>바베큐플래터</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2207,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>알탕</t>
+          <t>오일세트</t>
         </is>
       </c>
     </row>
@@ -2214,8 +2217,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>추천
-믹스카츠</t>
+          <t>통뼈불닭발세트</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2227,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>살치살(100g)</t>
+          <t>참스테이크</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2237,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>생연어회(소)</t>
+          <t>바싹불고기 (M)</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2247,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>그린 샐러드</t>
+          <t>런치 오마카세</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2257,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>간비국수</t>
+          <t>감나무 점심특선</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2267,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>감나무 점심특선</t>
+          <t>한마리</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2277,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>안심스테이크</t>
+          <t>순대곱창볶음</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2287,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>나비루회덮밥</t>
+          <t>불고기파전</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2297,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>숯불 소금구이</t>
+          <t>버섯돼지갈비(1인분)</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2307,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>소갈비살</t>
+          <t>샤워텐동</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2317,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>추어탕+돌솥밥</t>
+          <t>토시살 (150g)</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2327,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>돼지막창</t>
+          <t>큐브스테이크덮밥</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2337,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>한우소고기 돌미여국 정찬</t>
+          <t>팟타이</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2347,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>보리밥</t>
+          <t>노미호다이-무한리필(1인당)</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2357,8 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1인 사시미 (20P)</t>
+          <t>추천
+삼겹살카레</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2368,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>돼지갈비 (250g)</t>
+          <t>부라타치즈</t>
         </is>
       </c>
     </row>
@@ -2375,7 +2378,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>A SET</t>
+          <t>잔치국수</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2388,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>싱글</t>
+          <t>불백정식</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2398,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>서울양념통닭</t>
+          <t>의성마늘떡보쌈</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2408,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>홍두깨</t>
+          <t>콜라</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2418,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>훠궈뷔페 (1인)</t>
+          <t>곱창 (2인분)</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2428,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>쉐프추천초밥 (12pcs)</t>
+          <t>은행꼬치</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2438,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>포첸 양지쌀국수</t>
+          <t>나이스 세트 A</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2448,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>순살안동찜닭(소)</t>
+          <t>소갈비살(200g)</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2458,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>부추생삼겁살(국내산)</t>
+          <t>먹장어 짚불구이</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2468,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>두부김치</t>
+          <t>우렁된장쌈밥</t>
         </is>
       </c>
     </row>
@@ -2475,7 +2478,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>아몬드라떼</t>
+          <t>해물순두부찌개</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2488,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>두떡로제떡볶이</t>
+          <t>쉐프추천초밥 (12pcs)</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2498,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>모듬사시미</t>
+          <t>대작 모둠초밥 (11ps)</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2508,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>오리지날 프린스튼 후라이드 치킨</t>
+          <t>레몬에이드</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2518,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>굴비백반</t>
+          <t>소갈비살 (170g)</t>
         </is>
       </c>
     </row>
@@ -2525,8 +2528,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>추천
-수박빙수</t>
+          <t>고기국수</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2538,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>오리지날치킨</t>
+          <t>벌교 참꼬막 데침</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2548,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>강남샤브샤브</t>
+          <t>삼겹살 (150g)</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2558,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>순대국밥</t>
+          <t>오징어덮밥</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2568,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>급냉 삼겹살(170g)</t>
+          <t>베이컨과 카라멜 양파토마토소스 스파게티</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2578,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>얼큰 짬뽕탕</t>
+          <t>간장+정통후라이드</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2588,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>노가리(2마리)</t>
+          <t>훈제족발</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2598,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>생우럭탕(1인)</t>
+          <t>이고집쭈꾸미 (1인분)</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2608,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>고등어구이 정식</t>
+          <t>김치찌개</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2618,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>닭볶음탕(소)</t>
+          <t>유자향 문어 냉채</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2628,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>순살양념구이치킨</t>
+          <t>황금올리브반반+황금알치즈볼</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2638,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>샐러드돈카츠</t>
+          <t>왕돈가스</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2648,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>마왕통구이 (소)</t>
+          <t>곱창모듬 (1인분)</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2658,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>샤오룽바오</t>
+          <t>한우꽃등심(200g)</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2668,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>싱싱해물모듬</t>
+          <t>짜면밥</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2678,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>돈코츠라멘</t>
+          <t>크리스피 텐더와 감자</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2688,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>갈치조림</t>
+          <t>육회(중)</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2698,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>크라운쌀통닭</t>
+          <t>엠브로돈까스</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2708,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>명란로제 파스타</t>
+          <t>아메리카노(HOT)</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2718,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>갈비탕</t>
+          <t>수타짜장</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2728,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>어메이징 크리스피 후라이드 치킨</t>
+          <t>삼족찜(1인분)</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2738,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>온다비어</t>
+          <t>생삼겹살 (200g)</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2748,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>오징어김밥</t>
+          <t>치즈 프라이 L</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2758,8 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>육회와 김부각</t>
+          <t>추천
+순살치킨</t>
         </is>
       </c>
     </row>
@@ -2766,8 +2769,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>추천
-소고기타다끼</t>
+          <t>직화불고기혼밥</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2779,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>옛날돈까스</t>
+          <t>따빠디또 첫 번째 디저트 이야기 '익숙한 그리고 색다른'</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2789,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>대패삼겹살</t>
+          <t>돼지김치구이 (대)</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2799,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>육회</t>
+          <t>달빛반반치킨</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2809,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>짬뽕</t>
+          <t>오리지널치킨</t>
         </is>
       </c>
     </row>
@@ -2817,8 +2819,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>추천
-돼지불백</t>
+          <t>크리스피 치킨</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2829,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>삼계탕</t>
+          <t>치즈김치전</t>
         </is>
       </c>
     </row>
@@ -2838,7 +2839,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>삼족찜(1인분)</t>
+          <t>소 생갈비살 (180g)</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2849,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>콩국수</t>
+          <t>낙지찜 (2인)</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2859,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>도니꾸차슈라</t>
+          <t>황소알곱창 (2인분)</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2869,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>9온즈 버거</t>
+          <t>우삼겹쌈밥</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2879,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>봉천동 나시고랭</t>
+          <t>숯불 흑돼지 퐁듀</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2889,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>모로코 치킨 타진</t>
+          <t>고구마피자(L)</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2899,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>참다랑어 뱃살 (1Pcs)</t>
+          <t>낙곱새</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2909,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>장사장 부타동</t>
+          <t>에스프레소</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2919,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>찐꽈배기</t>
+          <t>깐풍 가지튀김</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2929,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>생연어 유부</t>
+          <t>감자전</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2939,8 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Set A(1인)</t>
+          <t>추천
+돼지불백</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2950,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>냉동삼겹살</t>
+          <t>계란말이김밥</t>
         </is>
       </c>
     </row>
@@ -2958,7 +2960,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>볶음짬뽕</t>
+          <t>부추북어국</t>
         </is>
       </c>
     </row>
@@ -2968,7 +2970,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>천사(기본)김밥</t>
+          <t>온고블렌다드 no.1</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2980,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>크림라떼</t>
+          <t>오리지날 프린스튼 후라이드 치킨</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2990,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>소고기 쌀국수</t>
+          <t>그날 세트</t>
         </is>
       </c>
     </row>
@@ -2998,7 +3000,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>수제 돈까스 카레</t>
+          <t>감자탕(소)</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3010,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>족발</t>
+          <t>부추전</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3020,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>모짜렐라 스팸계란마리</t>
+          <t>모쯔나베</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3030,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>나눔]킹쉬L+리얼순살+양념</t>
+          <t>혼술기본</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3040,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>국물닭발(소)</t>
+          <t>갈치조림</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3050,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>그대와 함께 라면</t>
+          <t>카라멘</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3060,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>바싹불고기 (M)</t>
+          <t>또르띠야 데 빠따따</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3070,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>야채비빔밥</t>
+          <t>달리크림 파스타</t>
         </is>
       </c>
     </row>
@@ -3078,7 +3080,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>당근케이크</t>
+          <t>케이준 치킨 크림파스타</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3090,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>전가복</t>
+          <t>딸기 리코타치즈 샌드</t>
         </is>
       </c>
     </row>
@@ -3098,8 +3100,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>추천
-삼백반고집</t>
+          <t>호가든 생 2잔&amp;나쵸</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3110,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>수입맥주</t>
+          <t>마라탕 (기본)</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3120,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>참다랑어 뱃살모듬</t>
+          <t>등심 돈가스</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3130,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>부타동</t>
+          <t>족발+보쌈 (소)</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3140,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>소등심(150g)</t>
+          <t>별표국수</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3150,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>시래불고기(1인)</t>
+          <t>소막창(200g)</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3160,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>100%수제양념돼지갈비 (250g)</t>
+          <t>소림마라 마라탕</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3170,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>불고기 4DX</t>
+          <t>슈하스코 무한리필 (런치)</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3180,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>갈비살(180g)</t>
+          <t>콜드브루</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3190,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>오일세트</t>
+          <t>통랍스터 오븐구이 세트(페페로니)</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3200,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>짜오판</t>
+          <t>와인숙성 넓적다리 스테이크</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3210,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>미미네 생활 떡볶이</t>
+          <t>복지리탕 (1인)</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3220,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>계란피자</t>
+          <t>냉동삼겹살</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3230,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>광어 사시미 (소)</t>
+          <t>쭈꾸미 (1인분)</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3240,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>낙곱새 (소)</t>
+          <t>전주 콩가 세트</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3250,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>치킨라이스</t>
+          <t>생삼겹갈비</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3260,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>삼겹살(150g)</t>
+          <t>수제비</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3270,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>동태탕</t>
+          <t>제주 흑돼지 오겹(150g)</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3280,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>스타버거</t>
+          <t>바나나쥬스 (M)</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3290,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>다발김치찌개 (대)</t>
+          <t>오리지날 떡볶이</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3300,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>감자탕(소)</t>
+          <t>콤비네이션 피자(M)</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3310,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>돼지왕갈비(250g)</t>
+          <t>주물럭 청국장</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3320,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>전복삼계탕</t>
+          <t>2시간/1인 (기본)</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3330,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>반반족발 (중)</t>
+          <t>삼겹살 (1인분)</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3340,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>백반</t>
+          <t>고등어구이 정식</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3350,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>소곱창 (1인분)</t>
+          <t>양다리(1kg)</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3360,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>양꼬치(1인)</t>
+          <t>삼겹살</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3370,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>소고기 (100g)</t>
+          <t>산꼼장어 (소)</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3380,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>모모초밥(12피스)</t>
+          <t>닭떡볶이(소)</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3390,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>오리로스</t>
+          <t>야채김밥</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3400,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>함흥회냉면</t>
+          <t>닭다리살</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3410,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>로제떡볶이</t>
+          <t>점심특선초밥(10ps)</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3420,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>광릉식불고기 도시락</t>
+          <t>햄치즈</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3430,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>무한차돌부채살말이 (1인)</t>
+          <t>국내산 생 갈매기살</t>
         </is>
       </c>
     </row>
@@ -3439,8 +3440,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>추천
-이젠떡볶이</t>
+          <t>또봉이통닭</t>
         </is>
       </c>
     </row>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>장어구이(중)</t>
+          <t>사케동</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>왕재곱창 (2인분)</t>
+          <t>매직버터치킨세트(보퉁맛)</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>우동정식</t>
+          <t>광어(완도산)</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>레벨업 토스트</t>
+          <t>김치찌개 (1인분)</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>직화불고기피자(2인)</t>
+          <t>돈고츠 라멘</t>
         </is>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>아구찜 (큰소)</t>
+          <t>미미네 생활 떡볶이</t>
         </is>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>숙성회 정식</t>
+          <t>호타루 모듬세트</t>
         </is>
       </c>
     </row>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>구운버섯샐러드</t>
+          <t>단뽀뽀 오므라이스</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>삼 &lt;코스요리&gt;</t>
+          <t>야끼카레</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>비빔냉면</t>
+          <t>클래식치즈버거</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>산더미 후라이드(반마리)</t>
+          <t>레몬간장연어덮밥</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>닭곰탕국수</t>
+          <t>꽃등심(200g)</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3570,8 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>100% 순종 듀록목살</t>
+          <t>추천
+삼백반고집</t>
         </is>
       </c>
     </row>
@@ -3580,7 +3581,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>유린기</t>
+          <t>소고기 쌀국수</t>
         </is>
       </c>
     </row>
@@ -3590,7 +3591,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>사골칼국수</t>
+          <t>광어 우럭 세꼬시 연어 해물 물회</t>
         </is>
       </c>
     </row>
@@ -3600,7 +3601,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>청년국수</t>
+          <t>소등심(150g)</t>
         </is>
       </c>
     </row>
@@ -3610,7 +3611,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>손칼국수</t>
+          <t>토종순대국</t>
         </is>
       </c>
     </row>
@@ -3620,7 +3621,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>콘소메이징</t>
+          <t>도니꾸차슈라</t>
         </is>
       </c>
     </row>
@@ -3630,7 +3631,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>삼겹숙주볶음</t>
+          <t>아메리카노</t>
         </is>
       </c>
     </row>
@@ -3640,7 +3641,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>시즈닝감자치킨</t>
+          <t>바닐라 까눌레</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3651,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>어른(1인분)</t>
+          <t>전가복</t>
         </is>
       </c>
     </row>
@@ -3660,7 +3661,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>돼지곰탕</t>
+          <t>대창 감바스</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3671,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>삼겹살 (180g)</t>
+          <t>너트 티라노 블렌딩</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3681,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>녹차수제돼지갈비</t>
+          <t>아리랑 핫도그</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3691,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>오인자 모듬한상세트 (3~4인)</t>
+          <t>아구찜 (큰소)</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3701,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>냉면</t>
+          <t>공어 (소)</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3711,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>고기밥</t>
+          <t>돼지불백</t>
         </is>
       </c>
     </row>
@@ -3720,7 +3721,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>리춘세트</t>
+          <t>Americano</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3731,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>흑돼지타코</t>
+          <t>숯불구이 족발</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3741,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>등심돈까스</t>
+          <t>우삼겹 국물떡볶이</t>
         </is>
       </c>
     </row>
@@ -3750,7 +3751,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>메기 매운탕(소)</t>
+          <t>오픈샌드위치</t>
         </is>
       </c>
     </row>
@@ -3760,7 +3761,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>참치 스페샬 (1인)</t>
+          <t>마가리타</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3771,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>통큰갈비찜 (1인)</t>
+          <t>퀸즈팩</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3781,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>갈매기살 (1인분)</t>
+          <t>오리지널 함박스테이크</t>
         </is>
       </c>
     </row>
@@ -3790,7 +3791,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>빠레뜨 파스타</t>
+          <t>갈낙탕</t>
         </is>
       </c>
     </row>
@@ -3800,7 +3801,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>꽈배기(2개)</t>
+          <t>고기 왕만두(5개)</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3811,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>인헌김치찌개</t>
+          <t>막회물회</t>
         </is>
       </c>
     </row>
@@ -3820,7 +3821,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>국물닭발</t>
+          <t>깻잎찜닭(2인)</t>
         </is>
       </c>
     </row>
@@ -3830,8 +3831,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>추천
-[매장] 부대찌개 1인분</t>
+          <t>1인보쌈 (S)</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>토마토 그린빈 샐러드</t>
+          <t>소고기 공심채 덮밥</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>코카콜라500ml</t>
+          <t>후라이드 치킨</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>단호박 볼케이노</t>
+          <t>한우곱창(200g)</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>달빛반반치킨</t>
+          <t>불고기낙지죽</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>바베큐플래터</t>
+          <t>홍두깨</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>쭈꾸미(1인)</t>
+          <t>특정식(1인분)</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>1+한우채끝 (150g)</t>
+          <t>레몬 마들렌</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>골드 치킨 텐더 피자</t>
+          <t>크림파스타</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>오돌뼈</t>
+          <t>참치회 미 메뉴</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,8 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>돼지국밥</t>
+          <t>추천
+커티삭 하이볼</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3942,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>청국장</t>
+          <t>라(L)라(L) 피자</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3952,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>모듬구이 (200g)</t>
+          <t>먹태</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3962,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>수프림 타코</t>
+          <t>백순대곱창 볶음 2인</t>
         </is>
       </c>
     </row>
@@ -3971,8 +3972,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>추천
-프레임커피 No.1</t>
+          <t>모듬초밥(10p)</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>전주 콩가 세트</t>
+          <t>슈프림양념치킨</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>왕족방 (소)</t>
+          <t>한우소고기 돌미여국 정찬</t>
         </is>
       </c>
     </row>
@@ -4002,8 +4002,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>추천
-과일 요거트</t>
+          <t>벌떡볶이</t>
         </is>
       </c>
     </row>
@@ -4013,8 +4012,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>추천
-순살치킨</t>
+          <t>삼겹살(150g)</t>
         </is>
       </c>
     </row>
@@ -4024,7 +4022,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>숯불양념바베큐</t>
+          <t>단호박 볼케이노</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4032,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>황소알곱창 (2인분)</t>
+          <t>트리플 현미베이크[TRIPLE SAUCE BROWN RICE BAKE]</t>
         </is>
       </c>
     </row>
@@ -4044,7 +4042,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>트리플치즈 텐더치킨</t>
+          <t>붉은대게장 비빔밥</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4052,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>양념수대곱창(2인분)</t>
+          <t>특명품순두부</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4062,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>반마리 메뉴(음료미포함)</t>
+          <t>격식을 갖춘 한끼</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4072,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>뼈한마리</t>
+          <t>자장면</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4082,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>녹두삼계탕</t>
+          <t>닭똥집</t>
         </is>
       </c>
     </row>
@@ -4094,7 +4092,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>모듬(600g)</t>
+          <t>군만두</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4102,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>페이머스</t>
+          <t>돼지양념곱창</t>
         </is>
       </c>
     </row>
@@ -4114,7 +4112,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>불백정식</t>
+          <t>조기매운탕</t>
         </is>
       </c>
     </row>
@@ -4124,8 +4122,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>추천
-파인돈까스</t>
+          <t>고추장육회</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4132,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>깐쇼새우</t>
+          <t>소왕갈비</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4142,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>깐족보쌈</t>
+          <t>생삼겹살</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4152,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>추어탕</t>
+          <t>클래식 치즈 피자</t>
         </is>
       </c>
     </row>
@@ -4165,7 +4162,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>크림생맥주</t>
+          <t>正熟 돈마호크(210g)</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4172,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>아김밥 세트 1인분</t>
+          <t>마왕통구이 (소)</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4182,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>클럽샌드위치</t>
+          <t>해물탕(소)</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4192,8 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>해물순두부찌개</t>
+          <t>추천
+3인반반</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4203,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>오징어 땅콩</t>
+          <t>목살 스테이크</t>
         </is>
       </c>
     </row>
@@ -4215,7 +4213,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>닭떡볶이(소)</t>
+          <t>소금구이</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4223,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>순대국</t>
+          <t>콩나물국밥</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4233,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>닭강정 (특대) +콜라 (대)</t>
+          <t>이베리코돼지 편백세트 (2인추천)</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4243,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>한우특수부위(150g)</t>
+          <t>대패삼겹살</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4253,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>싸움보쌈(M)</t>
+          <t>차돌 두루치기</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4263,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>들깨 칼국수</t>
+          <t>우동정식</t>
         </is>
       </c>
     </row>
@@ -4275,7 +4273,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>차돌라면</t>
+          <t>한치 땅콩</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4283,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>국물밀떡</t>
+          <t>황소곱창</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4293,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>본래순대국</t>
+          <t>다발김치찌개 (대)</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4303,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>곱창구이 (2인)</t>
+          <t>노스 아일랜드IPA (435ml)</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4313,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>콜라</t>
+          <t>우거지감자탕 (2인)</t>
         </is>
       </c>
     </row>
@@ -4325,7 +4323,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>원조김밥</t>
+          <t>트리플치즈 텐더치킨</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4333,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>물냉면</t>
+          <t>순살치킨(순살,간장,양념,치즈)</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4343,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>골뱅이 + 소면</t>
+          <t>탕수육 (소)</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4353,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>돼지갈비찜</t>
+          <t>메뉴판1</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4363,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>대새피자</t>
+          <t>양지 소고기쌀국수</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4373,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>해물찜</t>
+          <t>수제 돈까스 카레</t>
         </is>
       </c>
     </row>
@@ -4385,7 +4383,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>대감 낙곱새</t>
+          <t>현미바사삭</t>
         </is>
       </c>
     </row>
@@ -4395,7 +4393,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>김치두루치기 정식</t>
+          <t>참홍어 삼합</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4403,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>비빔탄탄멘</t>
+          <t>곱창볶음</t>
         </is>
       </c>
     </row>
@@ -4415,7 +4413,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>후라이드</t>
+          <t>생삼겹살(200g)</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4423,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>한식뷔페</t>
+          <t>돼지김치찌개</t>
         </is>
       </c>
     </row>
@@ -4435,7 +4433,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>무뼈숯불닭발</t>
+          <t>치즈크러스트피자(R)</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4443,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>치즈해물떡볶이</t>
+          <t>갈비살(180g)</t>
         </is>
       </c>
     </row>
@@ -4455,7 +4453,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>갈치구이</t>
+          <t>토마토 모짜렐라 파스타</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4463,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>모듬A(450g)</t>
+          <t>곱밥</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4473,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>마른안주(소),쥐포,노가리</t>
+          <t>동궁황금찜닭 (R)</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4483,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>낙지(볶음)덮밥</t>
+          <t>송이김밥</t>
         </is>
       </c>
     </row>
@@ -4495,7 +4493,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>네코스시</t>
+          <t>모로코 치킨 타진</t>
         </is>
       </c>
     </row>
@@ -4505,7 +4503,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>와인숙성 넓적다리 스테이크</t>
+          <t>양푼 생고기 김치찌개</t>
         </is>
       </c>
     </row>
@@ -4515,7 +4513,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>도야족발_중</t>
+          <t>A스시(10Ps)</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4523,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>광어초밥(10p)</t>
+          <t>사바이소베마끼+우니</t>
         </is>
       </c>
     </row>
@@ -4535,7 +4533,8 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>짜장면</t>
+          <t>추천
+아몬드크림 라떼</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4544,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Hot (매운) 라면</t>
+          <t>구운버섯샐러드</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4554,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>시저샐러드</t>
+          <t>돼지왕갈비(250g)</t>
         </is>
       </c>
     </row>
@@ -4565,7 +4564,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>튀볶이</t>
+          <t>뿌링클</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4574,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>크림양송이 스파게티</t>
+          <t>광어초밥(10p)</t>
         </is>
       </c>
     </row>
@@ -4585,7 +4584,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>칼국수</t>
+          <t>차돌순두부(1인)</t>
         </is>
       </c>
     </row>
@@ -4595,7 +4594,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>레드떡볶이</t>
+          <t>짜장면</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4604,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>이고집쭈꾸미 (1인분)</t>
+          <t>광어활어회 한상차림 (대)</t>
         </is>
       </c>
     </row>
@@ -4615,7 +4614,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>감자튀김 (S)</t>
+          <t>기린소바세트</t>
         </is>
       </c>
     </row>
@@ -4625,7 +4624,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>오픈샌드위치</t>
+          <t>동태전</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4634,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>특정식(1인분)</t>
+          <t>추어탕</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4644,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>생삽겹(180g)</t>
+          <t>함박스테이크</t>
         </is>
       </c>
     </row>
@@ -4655,8 +4654,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>추천
-B세트 (2시간+기본음료)</t>
+          <t>살몬그라브릭스</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4664,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>제육직화</t>
+          <t>카보다로카 비뉴 배르드</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4674,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>차돌박이 대표한상</t>
+          <t>마라룽샤 (소)</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4684,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>참숯닭갈비 (250g)</t>
+          <t>그릴드 목살샐러드 로우</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4694,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>국물닭볶음탕(한마리)</t>
+          <t>조개찜 (소)</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4704,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>오징어덮밥</t>
+          <t>제계치</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4714,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>노스 아일랜드IPA (435ml)</t>
+          <t>광어회 (소)</t>
         </is>
       </c>
     </row>
@@ -4726,7 +4724,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>로스 돈가츠</t>
+          <t>참치마요꽁지</t>
         </is>
       </c>
     </row>
@@ -4736,7 +4734,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>유기농 순두부찌개</t>
+          <t>삼겹살 (200g)</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4744,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>A 돼지갈비 스테이크 무한 (1인)</t>
+          <t>족발 (대)</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4754,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>얼큰버섯칼국수</t>
+          <t>카페라떼</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4764,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>와인 15종</t>
+          <t>광어숙성회(중)</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4774,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>점심특선초밥(10ps)</t>
+          <t>동백</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4784,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>레몬 마들렌</t>
+          <t>코코 후라이드(중)</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4794,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>치킨 오버 라이스</t>
+          <t>추천유부4+음료세트</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4804,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>가정식백반</t>
+          <t>토마토 그린빈 샐러드</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4814,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>육육치킨</t>
+          <t>청년초밥(11p)</t>
         </is>
       </c>
     </row>
@@ -4826,7 +4824,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>돼지오징어타마</t>
+          <t>만나칼국수</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4834,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>순한우동</t>
+          <t>마라탕(100g)</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4844,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>스테이크갈비 무한리필 (1인)</t>
+          <t>차돌박이 김치떡볶이</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4854,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>혼마구로초밥</t>
+          <t>굴라시</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4864,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>반반섞음</t>
+          <t>고기만두(5개)</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4874,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>매운낙지비빔밥</t>
+          <t>쌀국수 (돼지)</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4884,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>탐포탕</t>
+          <t>광어초밥(12p)</t>
         </is>
       </c>
     </row>
@@ -4896,8 +4894,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>추천
-달돈세트</t>
+          <t>아메리카노(Hot)</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4904,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>흑돼지왕소금구이 (700g)</t>
+          <t>가츠동</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4914,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>마그마 오믈렛</t>
+          <t>제육두부김치</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4924,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>꽃등심 (150g)</t>
+          <t>숭어</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4934,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>고기만두(5개)</t>
+          <t>꽈배기(2개)</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4944,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>고급양갈비</t>
+          <t>생삽겹(180g)</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4954,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>순살 치킨 (소)</t>
+          <t>장어소금구이 (1kg)</t>
         </is>
       </c>
     </row>
@@ -4967,7 +4964,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>광어회 (소)</t>
+          <t>HOT 크리스피 베이크</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4974,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>황도</t>
+          <t>아메리카노 (BLACK)</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4984,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>그릴치킨스테끼</t>
+          <t>가브리살 (300g)</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4994,8 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>청춘 세트(580g)</t>
+          <t>추천
+프레임커피 No.1</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5005,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>모듬 오뎅</t>
+          <t>건강한방삼계탕</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5015,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>만조 크림 리조또</t>
+          <t>매운쭈꾸미(1인)</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5025,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>굴국밥</t>
+          <t>보쌈정식</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5035,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>소금구이</t>
+          <t>계란게살탕</t>
         </is>
       </c>
     </row>
@@ -5047,7 +5045,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>통통 삼겹 (150g)</t>
+          <t>참숯닭갈비 (250g)</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5055,8 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>풍부한 단맛 토종양파 삼선짜장면</t>
+          <t>추천
+타키쉬 커피(모래커피)</t>
         </is>
       </c>
     </row>
@@ -5067,7 +5066,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>해장되는대창나베</t>
+          <t>삼백돈 돈가츠</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5076,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>무우전</t>
+          <t>청국장과 보리밥</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5086,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>직화 불막창</t>
+          <t>황궁 쟁반짜장</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5096,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>먹태</t>
+          <t>사골칼국수</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5106,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>왕순대</t>
+          <t>굴국밥</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5116,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>돼지김치찌개</t>
+          <t>순살 치킨 (소)</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5126,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>마라탕 (100g)</t>
+          <t>뒷고기 한판(500g)</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5136,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>오리지널수제버거</t>
+          <t>황제꽃갈비살 (250g)</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5146,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>자장면</t>
+          <t>반반치킨</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5156,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>보달라</t>
+          <t>소라숙회 부추무침</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5166,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>붉은대게장 비빔밥</t>
+          <t>참치 스페샬 (1인)</t>
         </is>
       </c>
     </row>
@@ -5177,7 +5176,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>레드마요치킨</t>
+          <t>과일요거트</t>
         </is>
       </c>
     </row>
@@ -5187,7 +5186,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>은행꼬치</t>
+          <t>까르보나라</t>
         </is>
       </c>
     </row>
@@ -5197,7 +5196,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>호가든 생 2잔&amp;나쵸</t>
+          <t>조개구이 (소)</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5206,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>큐브 파운드 5종</t>
+          <t>풍천민물장어(1인분)</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5216,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>이베리코 한판 (2~3인용)</t>
+          <t>100%수제양념돼지갈비 (250g)</t>
         </is>
       </c>
     </row>
@@ -5227,7 +5226,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>무한리필(14세 이상)</t>
+          <t>백채찌개(돼지or부대)1인분</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5236,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>어멍한판(500g)</t>
+          <t>분짜</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5246,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>영구짜장</t>
+          <t>더바삭치킨 뼈</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5256,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>고구마피자(L)</t>
+          <t>함바그카레라이스</t>
         </is>
       </c>
     </row>
@@ -5267,7 +5266,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>온고블렌다드 no.1</t>
+          <t>기꾸초밥(12pcs)</t>
         </is>
       </c>
     </row>
@@ -5277,8 +5276,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>추천
-나폴리 슈림프 피자</t>
+          <t>크림생맥주</t>
         </is>
       </c>
     </row>
@@ -5288,7 +5286,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>미니족</t>
+          <t>연어 무한리필 (1인)</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5296,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>함바그카레라이스</t>
+          <t>연어 무한리필</t>
         </is>
       </c>
     </row>
@@ -5308,8 +5306,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>추천
-닭도리탕</t>
+          <t>갈비탕</t>
         </is>
       </c>
     </row>
@@ -5319,7 +5316,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>생삼겹살 (200g)</t>
+          <t>소갈비살</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5326,8 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>쭈삼겹살(1인분)</t>
+          <t>추천
+오로히</t>
         </is>
       </c>
     </row>
@@ -5339,7 +5337,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>명품통갈매기살 (200g)</t>
+          <t>우육도삭면</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5347,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>야끼카레</t>
+          <t>짜오판</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5357,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>튀김 (1인분)</t>
+          <t>국물닭볶음탕(한마리)</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5367,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>아구찜 (대)</t>
+          <t>흑염소탕 (100g)</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5377,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>닭똥집</t>
+          <t>A set</t>
         </is>
       </c>
     </row>
@@ -5389,7 +5387,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>연어 무한리필</t>
+          <t>고급양갈비</t>
         </is>
       </c>
     </row>
@@ -5399,7 +5397,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>뽀모도로 파스타</t>
+          <t>도로초밥(10p)</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5407,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>오꼬노미야끼해물</t>
+          <t>곱창볶음 (1인분)</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5417,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>곱창볶음</t>
+          <t>모짜렐라 스팸계란마리</t>
         </is>
       </c>
     </row>
@@ -5429,7 +5427,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>영미김밥</t>
+          <t>뽀모도로 파스타</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5437,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>타코야끼 8알</t>
+          <t>치즈닭갈비</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5447,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>단뽀뽀 오므라이스</t>
+          <t>명품통갈매기살 (200g)</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5457,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>아리랑 핫도그</t>
+          <t>함흥회냉면</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5467,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>복지리탕 (1인)</t>
+          <t>바지락 칼국수</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5477,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>국내산차돌박이(1인분)</t>
+          <t>도란도란</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5487,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>레몬에이드</t>
+          <t>민물장어 큰것 (2마리)</t>
         </is>
       </c>
     </row>
@@ -5499,7 +5497,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>스노우 치즈 돈가스</t>
+          <t>수제 큐브파운드</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5507,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>흑돼지 (180g)</t>
+          <t>닭모래집</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5517,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>특초밥(15pcs)</t>
+          <t>파고 피자</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5527,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>앵그리 버드와 감자</t>
+          <t>리춘세트</t>
         </is>
       </c>
     </row>
@@ -5539,7 +5537,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>크림파스타</t>
+          <t>삼겹숙주볶음</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5547,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>봉골레 파스타</t>
+          <t>떡볶이</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5557,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>야채구이</t>
+          <t>연어사시미</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5567,8 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>야매이카BBQ</t>
+          <t>추천
+1인세트</t>
         </is>
       </c>
     </row>
@@ -5579,8 +5578,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>추천
-똥집 통마늘소금구이</t>
+          <t>흑돼지 (180g)</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5588,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>숯불 흑돼지 퐁듀</t>
+          <t>겉바속촉 두부 샐러드</t>
         </is>
       </c>
     </row>
@@ -5600,7 +5598,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>차돌 두루치기</t>
+          <t>카우키 롤</t>
         </is>
       </c>
     </row>
@@ -5610,7 +5608,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>공어 (소)</t>
+          <t>훠궈뷔페 (1인)</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5618,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>황소곱창(250g)</t>
+          <t>싱글</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5628,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>카우키 롤</t>
+          <t>영구짜장</t>
         </is>
       </c>
     </row>
@@ -5640,7 +5638,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>삼겹살 (1인분)</t>
+          <t>설맥치킨</t>
         </is>
       </c>
     </row>
@@ -5650,7 +5648,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>기본쌀국수</t>
+          <t>갈매기살 (1인분)</t>
         </is>
       </c>
     </row>
@@ -5660,7 +5658,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>쿠바 샌드위치 오리지널</t>
+          <t>당근케이크</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5668,8 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>막회물회</t>
+          <t>추천
+이젠떡볶이</t>
         </is>
       </c>
     </row>
@@ -5680,7 +5679,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>규동</t>
+          <t>해물손칼국수</t>
         </is>
       </c>
     </row>
@@ -5690,7 +5689,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>사시미 플레이트 (2인)</t>
+          <t>피자</t>
         </is>
       </c>
     </row>
@@ -5700,8 +5699,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>추천
-크림치즈볼 로제떡볶이</t>
+          <t>짝태</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5709,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>대구막창(150g)</t>
+          <t>감자튀김</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5719,8 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>족발 (대)</t>
+          <t>추천
+명품도야지항정살묵은지찜</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5730,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>장어탕 (식사)</t>
+          <t>학주쌤 강추 고쉬불패</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5740,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>모듬구이</t>
+          <t>왕순대</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5750,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>모듬전</t>
+          <t>마제소바</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5760,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>김치찌개</t>
+          <t>돼지갈비김치찌개</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5770,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>지중해식 오징어튀김</t>
+          <t>들깨칼제비</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5780,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>살치살스테이크(300g)</t>
+          <t>오늘라면</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5790,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>한치 땅콩</t>
+          <t>왕재곱창 (2인분)</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5800,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>생연어샐러드</t>
+          <t>깐족보쌈</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5810,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>해물탕(중)</t>
+          <t>전주콩나물해장국</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5820,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>통국물닭발 (중)</t>
+          <t>Avocado chili BURRUTO</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5830,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>연어사시미</t>
+          <t>산더미 후라이드(반마리)</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5840,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>벌교 참꼬막 데침</t>
+          <t>부대찌개</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5850,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>사바이소베마끼+우니</t>
+          <t>갈치구이</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5860,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>닥치고 커플SET</t>
+          <t>트윈 세트</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5870,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>세트메뉴</t>
+          <t>부채살 찹스테이크</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5880,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>수제 큐브파운드</t>
+          <t>야매이카BBQ</t>
         </is>
       </c>
     </row>
@@ -5891,7 +5890,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>치슐랭</t>
+          <t>규동</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5900,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Avocado chili BURRUTO</t>
+          <t>칼국수</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5910,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>우삼겹쌈밥</t>
+          <t>콘 에스퀴테스</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5920,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>매운참치김밥</t>
+          <t>초당순두부</t>
         </is>
       </c>
     </row>
@@ -5931,7 +5930,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>콘 에스퀴테스</t>
+          <t>낙곱새 (소)</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5940,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>생연어 사시미</t>
+          <t>치킨샐러드</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5950,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>마라아귀</t>
+          <t>손칼국수 (보)</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5960,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>도란도란</t>
+          <t>와!메리카노 1.5L</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5970,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>타트플람베</t>
+          <t>생고기김치찜(2~3인)</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>마루떡복이</t>
+          <t>통큰갈비찜 (1인)</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5990,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>양아들 후라이드치킨</t>
+          <t>닭매운탕</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6000,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>광어 (중간놈)</t>
+          <t>아웃백 스페셜 갈릭 스테이크</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6010,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>바닐라 까눌레</t>
+          <t>그린스무디</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6020,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>치즈김치전</t>
+          <t>돈코츠라면</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6030,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>연포정식</t>
+          <t>간장치킨</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6040,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>곱창전골</t>
+          <t>머리국밥</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6050,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>소고기쌀국수</t>
+          <t>아구찜(중)</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6060,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>한우꽃등심(150g)</t>
+          <t>부대찌개무한리필(성인)</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6070,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>아마에비동</t>
+          <t>나눠먹는 와츄원</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6080,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>돌솥추어탕</t>
+          <t>오징어 땅콩</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6090,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>치즈크러스트피자(R)</t>
+          <t>양평해장국</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6100,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>에스프레스</t>
+          <t>튀볶이</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6110,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>먹장어 짚불구이</t>
+          <t>대구막창(150g)</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6120,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>꼬막</t>
+          <t>통닭발</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6130,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>볶음밥</t>
+          <t>한방보쌈 (대)</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6140,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>아메리카노(Hot)</t>
+          <t>젠젠 팡케키</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6150,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>순한맛</t>
+          <t>스타버거</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6160,8 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>젠젠 팡케키</t>
+          <t>추천
+[일품] 돼지김치찌개</t>
         </is>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       <c r="B567" t="inlineStr">
         <is>
           <t>추천
-1인세트</t>
+달빛크림라떼</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>김치찜</t>
+          <t>전통주</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>가마도로</t>
+          <t>볶음짬뽕</t>
         </is>
       </c>
     </row>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>특모듬 (중)</t>
+          <t>마른안주</t>
         </is>
       </c>
     </row>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>마늘알마니+단짠감자치즈볼+콜라1.25</t>
+          <t>연어 150g</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>[NEW]두찜 트러플크림찜닭</t>
+          <t>퍼포</t>
         </is>
       </c>
     </row>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>더블치즈 피자 (SLICE)</t>
+          <t>한우곱창 (200g)</t>
         </is>
       </c>
     </row>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>모듬 (500g)</t>
+          <t>생양꼬치</t>
         </is>
       </c>
     </row>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>꽃듬심 (150g)</t>
+          <t>얼큰버섯칼국수</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>꼬마만두</t>
+          <t>고기밥</t>
         </is>
       </c>
     </row>
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>차돌박이 (100g)</t>
+          <t>오리주물럭(900g)</t>
         </is>
       </c>
     </row>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>혼술기본</t>
+          <t>닭백숙</t>
         </is>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>양푼등갈비</t>
+          <t>SET A</t>
         </is>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>마라훠궈전골 (양고기 or 소고기 택1)</t>
+          <t>타트플람베</t>
         </is>
       </c>
     </row>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>육회모듬</t>
+          <t>샤오룽바오</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>꼬막비빔밥</t>
+          <t>페이머스</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>순살치킨(순살,간장,양념,치즈)</t>
+          <t>철판제육볶음</t>
         </is>
       </c>
     </row>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>우거지감자탕 (2인)</t>
+          <t>왕십리야채곱창 (200g)</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>해장라면</t>
+          <t>본김밥</t>
         </is>
       </c>
     </row>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>베지 토마토 파스타</t>
+          <t>옛날돈까스</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>잔치국수</t>
+          <t>Set A(1인)</t>
         </is>
       </c>
     </row>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>까페라떼</t>
+          <t>국물떡볶이</t>
         </is>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>따빠디또 첫 번째 디저트 이야기 '익숙한 그리고 색다른'</t>
+          <t>1미터 무한리필</t>
         </is>
       </c>
     </row>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>소림마라 마라탕</t>
+          <t>텍스멕스 바베큐 버거</t>
         </is>
       </c>
     </row>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>굴라시</t>
+          <t>오겹살 (180g)</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>핀프릭 브런치 플레이트</t>
+          <t>모듬과일</t>
         </is>
       </c>
     </row>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>버섯돼지갈비(1인분)</t>
+          <t>샤브(1인)</t>
         </is>
       </c>
     </row>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>산꼼장어 (소)</t>
+          <t>수제 왕 돼지갈비 (250g)</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>마라탕</t>
+          <t>닭도리탕 (대)</t>
         </is>
       </c>
     </row>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>왕새우구이</t>
+          <t>단호박크림파스타</t>
         </is>
       </c>
     </row>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>산낙지 연포탕</t>
+          <t>아구찜(소)</t>
         </is>
       </c>
     </row>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>한돈목살(150g)</t>
+          <t>모듬곱창(200g)</t>
         </is>
       </c>
     </row>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>부채살 찹스테이크</t>
+          <t>불고기 4DX</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>생오리로스 (3인분)</t>
+          <t>new 깐쇼새우(7미)+짜장1</t>
         </is>
       </c>
     </row>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>치즈닭갈비</t>
+          <t>한우곱창한판(2인분)</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>뼈없는 찜닭 (소)</t>
+          <t>모둠조개구이 (2인)</t>
         </is>
       </c>
     </row>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>소 왕통갈비(1대)</t>
+          <t>콜라겐 무뼈 닭발(소)</t>
         </is>
       </c>
     </row>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>카페라떼</t>
+          <t>매운참치김밥</t>
         </is>
       </c>
     </row>
@@ -6552,7 +6552,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>전주콩나물해장국</t>
+          <t>차돌라면</t>
         </is>
       </c>
     </row>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>도미초밥</t>
+          <t>한우육회</t>
         </is>
       </c>
     </row>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>클로리스가든</t>
+          <t>모듬사시미</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>순대곱창볶음</t>
+          <t>회전초밥</t>
         </is>
       </c>
     </row>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>돼지볶음쌈밥</t>
+          <t>어른(1인분)</t>
         </is>
       </c>
     </row>
@@ -6602,7 +6602,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>야채 김밥</t>
+          <t>보보맘밥상 (여름) (1인)</t>
         </is>
       </c>
     </row>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>주먹목살(200g)</t>
+          <t>우렁쌈장정식</t>
         </is>
       </c>
     </row>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>응set</t>
+          <t>모듬 (500g)</t>
         </is>
       </c>
     </row>
@@ -6632,7 +6632,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>팥칼국수</t>
+          <t>사시미 플레이트 (2인)</t>
         </is>
       </c>
     </row>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2인 세트</t>
+          <t>김치찜</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>소막창(200g)</t>
+          <t>뼈한마리</t>
         </is>
       </c>
     </row>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>김치생오겹살(200g)</t>
+          <t>이레김밥</t>
         </is>
       </c>
     </row>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>기꾸초밥(12pcs)</t>
+          <t>매운낙지비빔밥</t>
         </is>
       </c>
     </row>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>주꾸미</t>
+          <t>수육 (1인분)</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>클래식 치즈 피자</t>
+          <t>청년국수</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>아보명란마요김밥</t>
+          <t>닭한마리 (중)</t>
         </is>
       </c>
     </row>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>참치타다끼</t>
+          <t>간장통닭</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,8 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>전통주</t>
+          <t>추천
+B세트 (2시간+기본음료)</t>
         </is>
       </c>
     </row>
@@ -6732,7 +6733,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>우육도삭면</t>
+          <t>오늘의사시미</t>
         </is>
       </c>
     </row>
@@ -6742,7 +6743,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>한방삼계탕</t>
+          <t>가족세트4~5인용</t>
         </is>
       </c>
     </row>
@@ -6752,7 +6753,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>해물손칼국수</t>
+          <t>흑돼지왕소금구이 (700g)</t>
         </is>
       </c>
     </row>
@@ -6762,7 +6763,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>미친피자 시그니처(M)</t>
+          <t>[NEW]두찜 트러플크림찜닭</t>
         </is>
       </c>
     </row>
@@ -6772,7 +6773,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>돌솥밥 추어탕</t>
+          <t>꽃듬심 (150g)</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6783,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>베이컨과 카라멜 양파토마토소스 스파게티</t>
+          <t>오야꼬동</t>
         </is>
       </c>
     </row>
@@ -6792,8 +6793,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>추천
-누룽지 닭한마리</t>
+          <t>순살안동찜닭(소)</t>
         </is>
       </c>
     </row>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>간장치킨</t>
+          <t>마라훠궈전골 (양고기 or 소고기 택1)</t>
         </is>
       </c>
     </row>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>생삼겹살 (1인분)</t>
+          <t>A코스</t>
         </is>
       </c>
     </row>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>곱창 (2인분)</t>
+          <t>예즈지</t>
         </is>
       </c>
     </row>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>곱밥</t>
+          <t>청국장</t>
         </is>
       </c>
     </row>
@@ -6843,8 +6843,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>추천
-곱창 (200g)</t>
+          <t>야채 김밥</t>
         </is>
       </c>
     </row>
@@ -6854,7 +6853,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>샤브(1인)</t>
+          <t>뚝배기불고기</t>
         </is>
       </c>
     </row>
@@ -6864,7 +6863,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>대패삼겹살 (100g)</t>
+          <t>혼마구로초밥</t>
         </is>
       </c>
     </row>
@@ -6874,7 +6873,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>메뉴판1</t>
+          <t>카페 아메리카노</t>
         </is>
       </c>
     </row>
@@ -6884,7 +6883,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>마른안주</t>
+          <t>돼지 육수 라멘</t>
         </is>
       </c>
     </row>
@@ -6894,7 +6893,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>오늘라면</t>
+          <t>소 불고기 김치전</t>
         </is>
       </c>
     </row>
@@ -6904,7 +6903,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>새우튀김</t>
+          <t>생삼겹살 (1인분)</t>
         </is>
       </c>
     </row>
@@ -6914,7 +6913,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>본김밥</t>
+          <t>물냉면</t>
         </is>
       </c>
     </row>
@@ -6924,7 +6923,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>카라멘</t>
+          <t>도미초밥</t>
         </is>
       </c>
     </row>
@@ -6934,7 +6933,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>들깨칼제비</t>
+          <t>계란찜</t>
         </is>
       </c>
     </row>
@@ -6944,7 +6943,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>낙지정식(1인)</t>
+          <t>활어회(소)</t>
         </is>
       </c>
     </row>
@@ -6954,7 +6953,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>치킨보울(스몰)</t>
+          <t>타코야끼 8알</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6963,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>수제비</t>
+          <t>제육직화</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6973,8 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>족발+보쌈 (소)</t>
+          <t>추천
+크렘 시트론</t>
         </is>
       </c>
     </row>
@@ -6984,7 +6984,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>모시조개탕</t>
+          <t>반반족발 (중)</t>
         </is>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>버섯매운칼국수</t>
+          <t>삼겹살(1인분)</t>
         </is>
       </c>
     </row>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>고묵이</t>
+          <t>광어초밥(10P)</t>
         </is>
       </c>
     </row>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>활어회(소)</t>
+          <t>토코 돈코츠 라멘</t>
         </is>
       </c>
     </row>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>고르곤졸라꿀피자</t>
+          <t>장어덮밥</t>
         </is>
       </c>
     </row>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>돼지갈비김치찌개</t>
+          <t>보성녹돈삼겹살</t>
         </is>
       </c>
     </row>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>소왕갈비</t>
+          <t>냉만두국</t>
         </is>
       </c>
     </row>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>영양탕</t>
+          <t>족발</t>
         </is>
       </c>
     </row>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>설맥치킨</t>
+          <t>교촌허니순살[R]</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>김밥</t>
+          <t>국산 삼합</t>
         </is>
       </c>
     </row>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>클래식치즈버거</t>
+          <t>돈가스</t>
         </is>
       </c>
     </row>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>생삼겹갈비</t>
+          <t>믹스가츠동</t>
         </is>
       </c>
     </row>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>싱글세트A</t>
+          <t>갈매기살 (150g)</t>
         </is>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>계란게살탕</t>
+          <t>광어대파회</t>
         </is>
       </c>
     </row>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>프리미엄 돈카츠 세트</t>
+          <t>엄청 큰 후라이드 치킨</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>등심돈까스 (5장)</t>
+          <t>A 돼지갈비 스테이크 무한 (1인)</t>
         </is>
       </c>
     </row>
@@ -7144,8 +7144,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>추천
-[일품] 돼지김치찌개</t>
+          <t>똥집 오일 파스타</t>
         </is>
       </c>
     </row>
@@ -7155,8 +7154,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>추천
-홍탄</t>
+          <t>야채비빔밥</t>
         </is>
       </c>
     </row>
@@ -7166,7 +7164,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>꽃새우 회(소)</t>
+          <t>김밥</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7174,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>해물파전</t>
+          <t>레드마요치킨</t>
         </is>
       </c>
     </row>
@@ -7186,7 +7184,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>머리국밥</t>
+          <t>농어(소)</t>
         </is>
       </c>
     </row>
@@ -7196,7 +7194,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>도로초밥(10p)</t>
+          <t>가마도로</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7204,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>1인분 식사세트</t>
+          <t>치킨 오버 라이스</t>
         </is>
       </c>
     </row>
@@ -7216,7 +7214,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>목살 스테이크</t>
+          <t>광릉식불고기 도시락</t>
         </is>
       </c>
     </row>
@@ -7226,7 +7224,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>닭발</t>
+          <t>모듬구이 (200g)</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7234,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>나눠먹는 와츄원</t>
+          <t>순대곱창버섯전골(중)</t>
         </is>
       </c>
     </row>
@@ -7246,7 +7244,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>페스트리피자</t>
+          <t>아김밥 세트 1인분</t>
         </is>
       </c>
     </row>
@@ -7256,7 +7254,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>치킨(반마리)</t>
+          <t>오징어김밥</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7264,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>채끝살 스테이크</t>
+          <t>1인 보쌈</t>
         </is>
       </c>
     </row>
@@ -7276,7 +7274,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>과일</t>
+          <t>녹두삼계탕</t>
         </is>
       </c>
     </row>
@@ -7286,8 +7284,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>추천
-통마늘 차돌 알리오 올리오</t>
+          <t>녹차수제돼지갈비</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7294,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>차돌순두부(1인)</t>
+          <t>돼지곰탕</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7304,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>믹스가츠동</t>
+          <t>하루 (옛날돈가스)</t>
         </is>
       </c>
     </row>
@@ -7317,7 +7314,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>A스시(10Ps)</t>
+          <t>모모초밥(12피스)</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7324,8 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>민물장어 큰것 (2마리)</t>
+          <t>추천
+똥집 통마늘소금구이</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7335,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>그날 세트</t>
+          <t>꾸덕 로제떡볶이</t>
         </is>
       </c>
     </row>
@@ -7347,7 +7345,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>장어덮밥</t>
+          <t>채끝살 스테이크</t>
         </is>
       </c>
     </row>
@@ -7357,7 +7355,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>묵은지 닭볶음탕</t>
+          <t>대포찜닭 (2인)</t>
         </is>
       </c>
     </row>
@@ -7367,7 +7365,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>수제 왕 돼지갈비 (250g)</t>
+          <t>낙곱전골(소)</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7375,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>회덮밥</t>
+          <t>김치찌개(보통)</t>
         </is>
       </c>
     </row>
@@ -7387,7 +7385,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>야끼소바</t>
+          <t>프레시버거</t>
         </is>
       </c>
     </row>
@@ -7397,7 +7395,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>한우곱창떡볶이 (S)</t>
+          <t>야채곱창</t>
         </is>
       </c>
     </row>
@@ -7407,7 +7405,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>아메리카노(HOT)</t>
+          <t>영양탕</t>
         </is>
       </c>
     </row>
@@ -7417,7 +7415,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>특설렁탕</t>
+          <t>야끼소바</t>
         </is>
       </c>
     </row>
@@ -7427,7 +7425,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>치즈피자</t>
+          <t>큐브 파운드 5종</t>
         </is>
       </c>
     </row>
@@ -7437,7 +7435,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>더바삭치킨 뼈</t>
+          <t>오리지널수제버거</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7445,8 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>김치찌개(보통)</t>
+          <t>추천
+누룩솔트후라이드 (콘)</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7456,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>양다리(1kg)</t>
+          <t>핫 후라이드</t>
         </is>
       </c>
     </row>
@@ -7467,7 +7466,8 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>광어 (소)</t>
+          <t>추천
+김치볶음밥</t>
         </is>
       </c>
     </row>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>서오릉콤비네이션</t>
+          <t>양념수대곱창(2인분)</t>
         </is>
       </c>
     </row>
@@ -7487,8 +7487,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>추천
-눈꽃세트</t>
+          <t>옛날통닭(1마리)</t>
         </is>
       </c>
     </row>
@@ -7498,7 +7497,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>냉만두국</t>
+          <t>짬뽕</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7507,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>쭈꾸미덮밥</t>
+          <t>마라탕 (육수류) (100g)</t>
         </is>
       </c>
     </row>
@@ -7518,7 +7517,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>돼지불백</t>
+          <t>1+한우채끝 (150g)</t>
         </is>
       </c>
     </row>
@@ -7528,7 +7527,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>직구도시락 (1인)</t>
+          <t>그대와 함께 라면</t>
         </is>
       </c>
     </row>
@@ -7538,7 +7537,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>아구찜(중)</t>
+          <t>해물찜</t>
         </is>
       </c>
     </row>
@@ -7548,7 +7547,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>야채김밥</t>
+          <t>마담떡볶이</t>
         </is>
       </c>
     </row>
@@ -7558,7 +7557,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>고돼지정식</t>
+          <t>녹차 라떼</t>
         </is>
       </c>
     </row>
@@ -7568,7 +7567,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>우삼겹 국물떡볶이</t>
+          <t>안심 (100g)</t>
         </is>
       </c>
     </row>
@@ -7578,7 +7577,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>지코바 소금구이</t>
+          <t>꼬마만두</t>
         </is>
       </c>
     </row>
@@ -7588,7 +7587,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>생과일 샐러드</t>
+          <t>고돼지정식</t>
         </is>
       </c>
     </row>
@@ -7598,7 +7597,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>녹두닭죽</t>
+          <t>산낙지 연포탕</t>
         </is>
       </c>
     </row>
@@ -7608,7 +7607,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>뿌링클</t>
+          <t>미니족</t>
         </is>
       </c>
     </row>
@@ -7618,7 +7617,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>사케동</t>
+          <t>삼겹살구이/고기만</t>
         </is>
       </c>
     </row>
@@ -7628,7 +7627,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>백채찌개(돼지or부대)1인분</t>
+          <t>장미차</t>
         </is>
       </c>
     </row>
@@ -7638,7 +7637,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>해물찜 (소)</t>
+          <t>싸움보쌈(M)</t>
         </is>
       </c>
     </row>
@@ -7648,7 +7647,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>마라탕(100g)</t>
+          <t>모듬</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7657,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>트리플 현미베이크[TRIPLE SAUCE BROWN RICE BAKE]</t>
+          <t>황도</t>
         </is>
       </c>
     </row>
@@ -7668,7 +7667,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>오리지널치킨</t>
+          <t>왕새우구이</t>
         </is>
       </c>
     </row>
@@ -7678,7 +7677,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>우삼겹살 쌈밥(180g)</t>
+          <t>오신매운갈비찜 (1인분)</t>
         </is>
       </c>
     </row>
@@ -7688,7 +7687,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>데미 토마호크 커틀렛</t>
+          <t>세트메뉴</t>
         </is>
       </c>
     </row>
@@ -7698,7 +7697,8 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>하와이언 (R)</t>
+          <t>추천
+마차이짬뽕</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>오겹살 (180g)</t>
+          <t>연인세트A</t>
         </is>
       </c>
     </row>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>조개구이 (소)</t>
+          <t>코다리 조림 (소)</t>
         </is>
       </c>
     </row>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>주물럭 청국장</t>
+          <t>메뉴</t>
         </is>
       </c>
     </row>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>프라임소고기세트</t>
+          <t>광어(2인)</t>
         </is>
       </c>
     </row>
@@ -7748,7 +7748,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>산낙지철판</t>
+          <t>핀프릭 브런치 플레이트</t>
         </is>
       </c>
     </row>
@@ -7758,7 +7758,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>봉스쭈꾸미 (1인분) (저녁메뉴)</t>
+          <t>참다랑어 뱃살모듬</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>동백</t>
+          <t>냉동삼겹(150g)</t>
         </is>
       </c>
     </row>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>장미차</t>
+          <t>쭈삼겹살(1인분)</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>화이트레이니</t>
+          <t>치즈 프레이트</t>
         </is>
       </c>
     </row>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>정든 김밥</t>
+          <t>신선오리주물럭</t>
         </is>
       </c>
     </row>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>민물장어구이 (1인분)</t>
+          <t>치즈범벅치킨 (순살)(작은거)</t>
         </is>
       </c>
     </row>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>광어(완도산)</t>
+          <t>어묵우동</t>
         </is>
       </c>
     </row>
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>돈가스</t>
+          <t>살치살스테이크(300g)</t>
         </is>
       </c>
     </row>
@@ -7838,7 +7838,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>바지락 칼국수</t>
+          <t>레드떡볶이</t>
         </is>
       </c>
     </row>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>엄청 큰 후라이드 치킨</t>
+          <t>얼큰닭도리탕 (대)</t>
         </is>
       </c>
     </row>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>부대찌개</t>
+          <t>에비죠텐동</t>
         </is>
       </c>
     </row>
@@ -7868,7 +7868,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>평일런치 (오후 5시 이전)</t>
+          <t>광어초밥 (2P)</t>
         </is>
       </c>
     </row>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>감자탕 (대)</t>
+          <t>듀록 냉삼겹 (1인분)</t>
         </is>
       </c>
     </row>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>양푼 생고기 김치찌개</t>
+          <t>전주비빔밥</t>
         </is>
       </c>
     </row>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>A코스</t>
+          <t>돼지오징어타마</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>간장통닭</t>
+          <t>오리지널</t>
         </is>
       </c>
     </row>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>케이준 치킨 크림파스타</t>
+          <t>차돌박이 (100g)</t>
         </is>
       </c>
     </row>
@@ -7928,7 +7928,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>모듬구이(600g)</t>
+          <t>쌀똑핫도그</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>아메리카노 (BLACK)</t>
+          <t>김치부대찌개 (3인분)</t>
         </is>
       </c>
     </row>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>소떡</t>
+          <t>간비국수</t>
         </is>
       </c>
     </row>
@@ -7958,7 +7958,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>갈매기살 (150g)</t>
+          <t>국물닭발</t>
         </is>
       </c>
     </row>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>스테이크 덮밥</t>
+          <t>삼겹살 (180g)</t>
         </is>
       </c>
     </row>
@@ -7978,7 +7978,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>통랍스터 오븐구이 세트(페페로니)</t>
+          <t>육회</t>
         </is>
       </c>
     </row>
@@ -7988,7 +7988,8 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>닭백숙</t>
+          <t>추천
+과일 요거트</t>
         </is>
       </c>
     </row>
@@ -7998,7 +7999,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>채끝등심(200g)</t>
+          <t>광어 (중간놈)</t>
         </is>
       </c>
     </row>
@@ -8008,7 +8009,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>국내산 생 갈매기살</t>
+          <t>스테이크 덮밥</t>
         </is>
       </c>
     </row>
@@ -8018,8 +8019,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>추천
-광명종합셋트</t>
+          <t>명란로제 파스타</t>
         </is>
       </c>
     </row>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>제주 흑돼지 오겹(150g)</t>
+          <t>치즈돈까스 모밀세트 1인분</t>
         </is>
       </c>
     </row>
@@ -8039,7 +8039,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>닭한마리 (중)</t>
+          <t>생맥주</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>고기 왕만두(5개)</t>
+          <t>연포정식</t>
         </is>
       </c>
     </row>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>반반족발 (뒷다리로 반반)</t>
+          <t>특모듬 (중)</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>한우곱창(200g)</t>
+          <t>나홀로set</t>
         </is>
       </c>
     </row>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>곱창한판</t>
+          <t>시래기 코다리찜(소소)</t>
         </is>
       </c>
     </row>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>생고기김치찜(2~3인)</t>
+          <t>소곱창</t>
         </is>
       </c>
     </row>
@@ -8099,8 +8099,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>추천
-크렘 시트론</t>
+          <t>삼계탕</t>
         </is>
       </c>
     </row>
@@ -8110,8 +8109,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>추천
-꾸에이띠어우 느아</t>
+          <t>클로리스가든</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8119,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>생삼겹살</t>
+          <t>열탄불고기</t>
         </is>
       </c>
     </row>
@@ -8131,7 +8129,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>낙지찜 (2인)</t>
+          <t>깐쇼새우</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8139,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>파스타+치킨</t>
+          <t>포모도로</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8149,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>등심 돈가스</t>
+          <t>숙성회 정식</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8159,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>달리크림 파스타</t>
+          <t>파절이 생삼겹살(1인분)</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8169,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>매운쭈꾸미(1인)</t>
+          <t>로제떡볶이</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8179,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>조기매운탕</t>
+          <t>치킨가라아게</t>
         </is>
       </c>
     </row>
@@ -8191,7 +8189,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>해봉이밥버거</t>
+          <t>통국물닭발 (중)</t>
         </is>
       </c>
     </row>
@@ -8201,7 +8199,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>광어초밥(10P)</t>
+          <t>국내산차돌박이(1인분)</t>
         </is>
       </c>
     </row>
@@ -8211,7 +8209,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>비빔밥</t>
+          <t>손칼국수</t>
         </is>
       </c>
     </row>
@@ -8221,7 +8219,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>가브리살 (300g)</t>
+          <t>소고기국밥</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8229,8 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>즉석떡볶이(2인)</t>
+          <t>추천
+곱창 (200g)</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8240,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>과일요거트</t>
+          <t>크라운쌀통닭</t>
         </is>
       </c>
     </row>
@@ -8251,7 +8250,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>오신매운갈비찜 (1인분)</t>
+          <t>한우소곱창 (1인분)</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8260,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>짜면밥</t>
+          <t>앵그리 버드와 감자</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8270,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>삼겹살구이/고기만</t>
+          <t>생연어샐러드</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8280,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>치즈돈까스 모밀세트 1인분</t>
+          <t>돼지갈비 (250g)</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8290,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>소곱창 (200g)</t>
+          <t>UV Vodka (1병) + 나쵸 or 황도 + 음료 2 (토닉워터 / 사이다 / 콜라)</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8300,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>텍스멕스 바베큐 버거</t>
+          <t>국물치즈떡닭세트(순살/뼈한마리)</t>
         </is>
       </c>
     </row>
@@ -8311,7 +8310,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>모듬초밥(10p)</t>
+          <t>닭강정 (특대) +콜라 (대)</t>
         </is>
       </c>
     </row>
@@ -8321,7 +8320,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>왕돈가스</t>
+          <t>족발 大(앞다리)</t>
         </is>
       </c>
     </row>
@@ -8331,7 +8330,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>국산 삼합</t>
+          <t>치킨라이스</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8340,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>(New)투움바 파스타 베이컨</t>
+          <t>생우럭탕(1인)</t>
         </is>
       </c>
     </row>
@@ -8351,8 +8350,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>추천
-커티삭 하이볼</t>
+          <t>특수부위모듬(400g)</t>
         </is>
       </c>
     </row>
@@ -8362,7 +8360,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>파고 피자</t>
+          <t>크리스피치킨</t>
         </is>
       </c>
     </row>
@@ -8372,7 +8370,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>함박스테이크</t>
+          <t>도야족발_중</t>
         </is>
       </c>
     </row>
@@ -8382,7 +8380,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>항정 스테이크</t>
+          <t>무뼈숯불닭발</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8390,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>또르띠야 데 빠따따</t>
+          <t>시즈닝감자치킨</t>
         </is>
       </c>
     </row>
@@ -8402,7 +8400,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>학주쌤 강추 고쉬불패</t>
+          <t>돈까스</t>
         </is>
       </c>
     </row>
@@ -8412,7 +8410,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>오늘의초밥</t>
+          <t>레벨업 토스트</t>
         </is>
       </c>
     </row>
@@ -8422,7 +8420,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>순대 곱창 전골 (중)</t>
+          <t>치퐁당 후라이드</t>
         </is>
       </c>
     </row>
@@ -8432,7 +8430,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>통뼈불닭발세트</t>
+          <t>국물닭발(소)</t>
         </is>
       </c>
     </row>
@@ -8442,7 +8440,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>점심특선(장어탕)</t>
+          <t>반마리 메뉴(음료미포함)</t>
         </is>
       </c>
     </row>
@@ -8452,7 +8450,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>낙곱전골(소)</t>
+          <t>오늘의초밥</t>
         </is>
       </c>
     </row>
@@ -8462,7 +8460,8 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>뚝배기 닭볶음탕</t>
+          <t>추천
+달돈세트</t>
         </is>
       </c>
     </row>
@@ -8472,7 +8471,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>황제꽃갈비살 (250g)</t>
+          <t>응set</t>
         </is>
       </c>
     </row>
@@ -8482,7 +8481,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>1인 보쌈</t>
+          <t>1인 사시미 (20P)</t>
         </is>
       </c>
     </row>
@@ -8492,7 +8491,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>감자튀김</t>
+          <t>어멍한판(500g)</t>
         </is>
       </c>
     </row>
@@ -8502,7 +8501,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>치퐁당 후라이드</t>
+          <t>숯불 소금구이</t>
         </is>
       </c>
     </row>
@@ -8512,7 +8511,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>닭다리살</t>
+          <t>카스</t>
         </is>
       </c>
     </row>
@@ -8522,7 +8521,8 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>오야꼬동</t>
+          <t>추천
+나폴리 슈림프 피자</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>팟타이</t>
+          <t>치즈돈까스(2인분)</t>
         </is>
       </c>
     </row>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>아로니아찐빵 (5개)</t>
+          <t>로제삼겹살</t>
         </is>
       </c>
     </row>
@@ -8552,7 +8552,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>차돌박이 (150g)</t>
+          <t>비빔밥</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>타코와사비</t>
+          <t>살시치아 미트볼 스튜</t>
         </is>
       </c>
     </row>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>쭈꾸미 2인세트</t>
+          <t>데미 토마호크 커틀렛</t>
         </is>
       </c>
     </row>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>슈하스코 무한리필 (런치)</t>
+          <t>쭈꾸미(1인)</t>
         </is>
       </c>
     </row>
@@ -8592,7 +8592,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>황금올리브반반+황금알치즈볼</t>
+          <t>꼬막비빔밥</t>
         </is>
       </c>
     </row>
@@ -8602,7 +8602,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>노미호다이-무한리필(1인당)</t>
+          <t>야채구이</t>
         </is>
       </c>
     </row>
@@ -8612,7 +8612,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>무모한메가(32P)</t>
+          <t>육회와 김부각</t>
         </is>
       </c>
     </row>
@@ -8622,7 +8622,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>소고기된장전골</t>
+          <t>빠레뜨 파스타</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>오븐바사삭+티카마살라+콜라1.25L</t>
+          <t>에스프레스</t>
         </is>
       </c>
     </row>
@@ -8642,7 +8642,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>김치찌개 (1인분)</t>
+          <t>한방삼계탕</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>현미바사삭</t>
+          <t>베이컨머쉬룸 파스타</t>
         </is>
       </c>
     </row>
@@ -8662,8 +8662,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>추천
-타키쉬 커피(모래커피)</t>
+          <t>탐포탕</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8672,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>수타짜장</t>
+          <t>석쇠불고기</t>
         </is>
       </c>
     </row>
@@ -8683,7 +8682,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>얼큰모듬짬뽕</t>
+          <t>도토리칼국수</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8692,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>볶음밥(1인분)</t>
+          <t>닭다리살 스테이크</t>
         </is>
       </c>
     </row>
@@ -8703,7 +8702,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>생삼겹살(200g)</t>
+          <t>과일안주</t>
         </is>
       </c>
     </row>
@@ -8713,7 +8712,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>손칼국수 (보)</t>
+          <t>브라운슈가 치즈폼 스무디(L)</t>
         </is>
       </c>
     </row>
@@ -8723,7 +8722,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>청년초밥(11p)</t>
+          <t>비빔탄탄멘</t>
         </is>
       </c>
     </row>
@@ -8733,7 +8732,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>SET A</t>
+          <t>타코와사비</t>
         </is>
       </c>
     </row>
@@ -8743,7 +8742,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>콜라겐 무뼈 닭발(소)</t>
+          <t>소곱창 (1인분)</t>
         </is>
       </c>
     </row>
@@ -8753,7 +8752,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>해물칼국수</t>
+          <t>직화 불막창</t>
         </is>
       </c>
     </row>
@@ -8763,7 +8762,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>짝태</t>
+          <t>기본쌀국수</t>
         </is>
       </c>
     </row>
@@ -8773,7 +8772,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>안심 (100g)</t>
+          <t>돌솥추어탕</t>
         </is>
       </c>
     </row>
@@ -8783,7 +8782,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>국물떡볶이</t>
+          <t>수프림 타코</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8792,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>열탄불고기</t>
+          <t>모듬전</t>
         </is>
       </c>
     </row>
@@ -8803,7 +8802,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>한우소머리곰탕</t>
+          <t>볼 샐러드</t>
         </is>
       </c>
     </row>
@@ -8813,7 +8812,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>군만두</t>
+          <t>백채찌개 1인</t>
         </is>
       </c>
     </row>
@@ -8823,7 +8822,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>에스프레소</t>
+          <t>오꼬노미야끼해물</t>
         </is>
       </c>
     </row>
@@ -8833,7 +8832,8 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>샤워텐동</t>
+          <t>추천
+광명종합셋트</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>신선오리주물럭</t>
+          <t>마늘알마니+단짠감자치즈볼+콜라1.25</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>벌떡볶이</t>
+          <t>스노우 치즈 돈가스</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>크리스피 텐더와 감자</t>
+          <t>싱글세트A</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>간장+정통후라이드</t>
+          <t>옛날통닭(한마리)</t>
         </is>
       </c>
     </row>
@@ -8883,7 +8883,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>우동</t>
+          <t>감자 튀김</t>
         </is>
       </c>
     </row>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>참치회 미 메뉴</t>
+          <t>츠루츠루 라멘</t>
         </is>
       </c>
     </row>
@@ -8903,7 +8903,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>짬봉탕</t>
+          <t>천사(기본)김밥</t>
         </is>
       </c>
     </row>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>해물탕(소)</t>
+          <t>오리지날치킨</t>
         </is>
       </c>
     </row>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>선봉관 곰탕(보통)</t>
+          <t>닥치고 커플SET</t>
         </is>
       </c>
     </row>
@@ -8933,7 +8933,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>곱창소금구이</t>
+          <t>쥐포튀김</t>
         </is>
       </c>
     </row>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>한우육회</t>
+          <t>더블치즈 피자 (SLICE)</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>치즈범벅치킨 (순살)(작은거)</t>
+          <t>광어회</t>
         </is>
       </c>
     </row>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>옛날통닭(1마리)</t>
+          <t>물갈비</t>
         </is>
       </c>
     </row>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>오늘의사시미</t>
+          <t>오리로스</t>
         </is>
       </c>
     </row>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>수제돈까스</t>
+          <t>해물찜 (소)</t>
         </is>
       </c>
     </row>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>단호박크림파스타</t>
+          <t>곱창소금구이</t>
         </is>
       </c>
     </row>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>염소탕</t>
+          <t>칵테일</t>
         </is>
       </c>
     </row>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>토마토 모짜렐라 파스타</t>
+          <t>샤인머스캣 봉봉 스무디 - R/ICE</t>
         </is>
       </c>
     </row>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>특명품순두부</t>
+          <t>육회덮밥</t>
         </is>
       </c>
     </row>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>부추북어국</t>
+          <t>우동</t>
         </is>
       </c>
     </row>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>치즈감자전</t>
+          <t>한우 (150g)</t>
         </is>
       </c>
     </row>
@@ -9053,7 +9053,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>국내산 특생삼겹살 (200g)</t>
+          <t>한사바리해장국+떡갈비</t>
         </is>
       </c>
     </row>
@@ -9063,7 +9063,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>바우네정식</t>
+          <t>계란피자</t>
         </is>
       </c>
     </row>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>닭 한마리탕</t>
+          <t>프라임소고기세트</t>
         </is>
       </c>
     </row>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>가마보꼬(어묵)고로케 (2PCS)</t>
+          <t>무우전</t>
         </is>
       </c>
     </row>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>멸치국수</t>
+          <t>꽃등심 (150g)</t>
         </is>
       </c>
     </row>
@@ -9103,7 +9103,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>비프 타코</t>
+          <t>수제 베이컨 시저 샐러드</t>
         </is>
       </c>
     </row>
@@ -9113,7 +9113,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>기린소바세트</t>
+          <t>C.연어.육회 무한 SET</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>잠봉뵈르</t>
+          <t>장어구이(중)</t>
         </is>
       </c>
     </row>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>숭어</t>
+          <t>두부김치</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>한우곱창한판(2인분)</t>
+          <t>삼겹살(180g)</t>
         </is>
       </c>
     </row>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>반반치킨</t>
+          <t>감튀 (S)</t>
         </is>
       </c>
     </row>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>모둠조개구이 (2인)</t>
+          <t>백반</t>
         </is>
       </c>
     </row>
@@ -9173,7 +9173,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>블랙 러시안</t>
+          <t>소떡</t>
         </is>
       </c>
     </row>
@@ -9183,7 +9183,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>가츠동</t>
+          <t>직화불고기피자(2인)</t>
         </is>
       </c>
     </row>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>핫 후라이드</t>
+          <t>한우특수부위(150g)</t>
         </is>
       </c>
     </row>
@@ -9203,7 +9203,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>고추장육회</t>
+          <t>생오리로스 (3인분)</t>
         </is>
       </c>
     </row>
@@ -9213,8 +9213,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>추천
-오로히</t>
+          <t>한우꽃등심(150g)</t>
         </is>
       </c>
     </row>
@@ -9224,7 +9223,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>단호박죽</t>
+          <t>생연어 유부</t>
         </is>
       </c>
     </row>
@@ -9234,7 +9233,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>쌀똑핫도그</t>
+          <t>마왕통구이</t>
         </is>
       </c>
     </row>
@@ -9244,7 +9243,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>냉동삼겹(150g)</t>
+          <t>광어 (소)</t>
         </is>
       </c>
     </row>
@@ -9254,7 +9253,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>코만도바베큐</t>
+          <t>Hot (매운) 라면</t>
         </is>
       </c>
     </row>
@@ -9264,7 +9263,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>토시살 (150g)</t>
+          <t>닭다리살강정(중)</t>
         </is>
       </c>
     </row>
@@ -9274,7 +9273,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>마라룽샤 (소)</t>
+          <t>한우 깍두기 볶음밥</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9283,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>생삼겹살 (180g)</t>
+          <t>바싹불고기오징어 한상</t>
         </is>
       </c>
     </row>
@@ -9294,7 +9293,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>레몬간장연어덮밥</t>
+          <t>선봉관 곰탕(보통)</t>
         </is>
       </c>
     </row>
@@ -9304,7 +9303,8 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>만나칼국수</t>
+          <t>추천
+국내산 100% 안심스테이크</t>
         </is>
       </c>
     </row>
@@ -9314,7 +9314,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>마라탕 (기본)</t>
+          <t>모다카레+프리미엄소시지</t>
         </is>
       </c>
     </row>
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>닭도리탕 (대)</t>
+          <t>뼈없는 찜닭 (소)</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>고르곤졸라피자</t>
+          <t>인헌김치찌개</t>
         </is>
       </c>
     </row>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>도가니탕</t>
+          <t>동태찌개</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>막창소금(2인)</t>
+          <t>치슐랭</t>
         </is>
       </c>
     </row>
@@ -9364,7 +9364,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>버섯샤브매운탕</t>
+          <t>오븐바사삭+티카마살라+콜라1.25L</t>
         </is>
       </c>
     </row>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>치즈 프라이 L</t>
+          <t>9온즈 버거</t>
         </is>
       </c>
     </row>
@@ -9384,7 +9384,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>연남물갈비(1인분)</t>
+          <t>볏짚산꼼장어 (1인분)</t>
         </is>
       </c>
     </row>
@@ -9394,7 +9394,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>고르곤졸라 피자 (10인치)</t>
+          <t>후라이드치킨</t>
         </is>
       </c>
     </row>
@@ -9404,7 +9404,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>연어구이</t>
+          <t>미스터보쌈2인</t>
         </is>
       </c>
     </row>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>갈낙탕</t>
+          <t>바우네정식</t>
         </is>
       </c>
     </row>
@@ -9424,7 +9424,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>정가스페셜 (3일전 예약)</t>
+          <t>왕갈비탕</t>
         </is>
       </c>
     </row>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>돈고츠 라멘</t>
+          <t>전복삼계탕</t>
         </is>
       </c>
     </row>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>양꼬치</t>
+          <t>정든 김밥</t>
         </is>
       </c>
     </row>
@@ -9454,7 +9454,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>보보맘밥상 (여름) (1인)</t>
+          <t>로스 돈가츠</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>수제본함박 스테이크</t>
+          <t>해물탕(중)</t>
         </is>
       </c>
     </row>
@@ -9474,7 +9474,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>대작 모둠초밥 (11ps)</t>
+          <t>마라아귀</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>삼겹살 (170g)</t>
+          <t>조선의 육개장</t>
         </is>
       </c>
     </row>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>퍼포</t>
+          <t>골드 치킨 텐더 피자</t>
         </is>
       </c>
     </row>
@@ -9505,7 +9505,7 @@
       <c r="B899" t="inlineStr">
         <is>
           <t>추천
-국내산 100% 안심스테이크</t>
+카이센동</t>
         </is>
       </c>
     </row>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>육회덮밥</t>
+          <t>해장라면</t>
         </is>
       </c>
     </row>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>UV Vodka (1병) + 나쵸 or 황도 + 음료 2 (토닉워터 / 사이다 / 콜라)</t>
+          <t>탄탄면</t>
         </is>
       </c>
     </row>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>이레김밥</t>
+          <t>버섯매운칼국수</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>혼네 규카츠</t>
+          <t>삼 &lt;코스요리&gt;</t>
         </is>
       </c>
     </row>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>수제 베이컨 시저 샐러드</t>
+          <t>콩국수</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>正熟 돈마호크(210g)</t>
+          <t>모듬 오뎅</t>
         </is>
       </c>
     </row>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>꽃등심(200g)</t>
+          <t>알탕</t>
         </is>
       </c>
     </row>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>평양냉면</t>
+          <t>육육치킨</t>
         </is>
       </c>
     </row>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>아메리카노</t>
+          <t>양푼등갈비</t>
         </is>
       </c>
     </row>
@@ -9605,7 +9605,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>로제삼겹살</t>
+          <t>도가니탕</t>
         </is>
       </c>
     </row>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>생맥주</t>
+          <t>닭발</t>
         </is>
       </c>
     </row>
@@ -9625,7 +9625,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>얼큰닭도리탕 (대)</t>
+          <t>돼지볶음쌈밥</t>
         </is>
       </c>
     </row>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>바싹불고기오징어 한상</t>
+          <t>프렌치 감자전</t>
         </is>
       </c>
     </row>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>쌀국수</t>
+          <t>무모한메가(32P)</t>
         </is>
       </c>
     </row>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>치즈돈까스(2인분)</t>
+          <t>꼬막</t>
         </is>
       </c>
     </row>
@@ -9665,7 +9665,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>한마리</t>
+          <t>차돌박이 대표한상</t>
         </is>
       </c>
     </row>
@@ -9675,7 +9675,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>곱창볶음 (1인분)</t>
+          <t>장어탕 (식사)</t>
         </is>
       </c>
     </row>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>모듬과일</t>
+          <t>두떡로제떡볶이</t>
         </is>
       </c>
     </row>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>곤드레밥</t>
+          <t>닭 한마리탕</t>
         </is>
       </c>
     </row>
@@ -9705,7 +9705,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>토종순대국</t>
+          <t>즉석떡볶이(2인)</t>
         </is>
       </c>
     </row>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>아이스아메리카노</t>
+          <t>우리보쌈(소)</t>
         </is>
       </c>
     </row>
@@ -9725,8 +9725,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>추천
-3인반반</t>
+          <t>해물칼국수</t>
         </is>
       </c>
     </row>
@@ -9736,7 +9735,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>송이김밥</t>
+          <t>하와이언 (R)</t>
         </is>
       </c>
     </row>
@@ -9746,7 +9745,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>와!메리카노 1.5L</t>
+          <t>무한차돌부채살말이 (1인)</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9755,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>프렌치 감자전</t>
+          <t>민물장어구이 (1인분)</t>
         </is>
       </c>
     </row>
@@ -9766,7 +9765,8 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>버팔로칩</t>
+          <t>추천
+크림치즈볼 로제떡볶이</t>
         </is>
       </c>
     </row>
@@ -9776,8 +9776,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>추천
-김치볶음밥</t>
+          <t>오뎅탕</t>
         </is>
       </c>
     </row>
@@ -9787,7 +9786,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>또봉이통닭</t>
+          <t>영미김밥</t>
         </is>
       </c>
     </row>
@@ -9797,7 +9796,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>황소곱창</t>
+          <t>피자M+사이드 메뉴</t>
         </is>
       </c>
     </row>
@@ -9807,7 +9806,8 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>과일안주</t>
+          <t>추천
+소고기타다끼</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>파절이삼겹살</t>
+          <t>마루떡복이</t>
         </is>
       </c>
     </row>
@@ -9827,8 +9827,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>추천
-족발(국내산)</t>
+          <t>순한우동</t>
         </is>
       </c>
     </row>
@@ -9838,7 +9837,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>낙곱새</t>
+          <t>마제루롤 정식 (저녁)</t>
         </is>
       </c>
     </row>
@@ -9848,7 +9847,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>풍천민물장어(1인분)</t>
+          <t>치즈 플레이트</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9857,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>소라숙회 부추무침</t>
+          <t>들깨칼국수</t>
         </is>
       </c>
     </row>
@@ -9868,7 +9867,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>new 깐쇼새우(7미)+짜장1</t>
+          <t>스윗에그</t>
         </is>
       </c>
     </row>
@@ -9878,7 +9877,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>특수부위모듬(400g)</t>
+          <t>그린 샐러드</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9887,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>크리스피치킨</t>
+          <t>100% 순종 듀록목살</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9897,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>해물탕 (소)</t>
+          <t>연어구이</t>
         </is>
       </c>
     </row>
@@ -9908,7 +9907,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>닭매운탕</t>
+          <t>부타동</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9917,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>대창 감바스</t>
+          <t>특초밥(15pcs)</t>
         </is>
       </c>
     </row>
@@ -9928,7 +9927,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>한우소곱창 (1인분)</t>
+          <t>양아들 후라이드치킨</t>
         </is>
       </c>
     </row>
@@ -9938,7 +9937,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>유자향 문어 냉채</t>
+          <t>강남샤브샤브</t>
         </is>
       </c>
     </row>
@@ -9948,7 +9947,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>오리지널</t>
+          <t>골뱅이 + 소면</t>
         </is>
       </c>
     </row>
@@ -9958,7 +9957,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>별표국수</t>
+          <t>비프 타코</t>
         </is>
       </c>
     </row>
@@ -9968,7 +9967,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>돈코츠 라멘</t>
+          <t>낙지정식(1인)</t>
         </is>
       </c>
     </row>
@@ -9978,7 +9977,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>대구뽈찜 (특)</t>
+          <t>이베리코 한판 (2~3인용)</t>
         </is>
       </c>
     </row>
@@ -9988,8 +9987,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>추천
-미플레이스 라떼</t>
+          <t>가마보꼬(어묵)고로케 (2PCS)</t>
         </is>
       </c>
     </row>
@@ -9999,7 +9997,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>불고기파전</t>
+          <t>소갈비살(700g)</t>
         </is>
       </c>
     </row>
@@ -10009,7 +10007,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>한우꽃등심(200g)</t>
+          <t>주중)어린이 회원가</t>
         </is>
       </c>
     </row>
@@ -10019,7 +10017,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>특양 (200g)</t>
+          <t>1인분 식사세트</t>
         </is>
       </c>
     </row>
@@ -10029,7 +10027,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>돼지 김치찜(1인분)</t>
+          <t>온다비어</t>
         </is>
       </c>
     </row>
@@ -10039,7 +10037,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>무모한 메가초밥세트A(32P)</t>
+          <t>특선활어회초밥(12pcs)</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10047,8 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>아채곱창</t>
+          <t>추천
+남도정식</t>
         </is>
       </c>
     </row>
@@ -10059,7 +10058,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>한우 깍두기 볶음밥</t>
+          <t>국물밀떡</t>
         </is>
       </c>
     </row>
@@ -10069,7 +10068,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>카스</t>
+          <t>(New)투움바 파스타 베이컨</t>
         </is>
       </c>
     </row>
@@ -10079,7 +10078,8 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>어묵우동</t>
+          <t>추천
+족발(국내산)</t>
         </is>
       </c>
     </row>
@@ -10089,7 +10089,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>뒷고기 한판(500g)</t>
+          <t>돌솥밥 추어탕</t>
         </is>
       </c>
     </row>
@@ -10099,7 +10099,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>Americano</t>
+          <t>페퍼로니 피자</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>포모도로</t>
+          <t>쭈꾸미덮밥</t>
         </is>
       </c>
     </row>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>이베리코돼지 편백세트 (2인추천)</t>
+          <t>감자탕 (대)</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>모쯔나베</t>
+          <t>지코바 소금구이</t>
         </is>
       </c>
     </row>
@@ -10139,7 +10139,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>동해 해물파전</t>
+          <t>수제돈까스</t>
         </is>
       </c>
     </row>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>위스키</t>
+          <t>무한리필(14세 이상)</t>
         </is>
       </c>
     </row>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>녹차 라떼</t>
+          <t>살치살(100g)</t>
         </is>
       </c>
     </row>
@@ -10169,7 +10169,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>콜드브루</t>
+          <t>곱창구이 (2인)</t>
         </is>
       </c>
     </row>
@@ -10179,7 +10179,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>계란찜</t>
+          <t>반반감족</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>부라타치즈</t>
+          <t>치킨보울(스몰)</t>
         </is>
       </c>
     </row>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>칵테일</t>
+          <t>스테이크갈비 무한리필 (1인)</t>
         </is>
       </c>
     </row>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>부추전</t>
+          <t>서오릉콤비네이션</t>
         </is>
       </c>
     </row>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>돼지국밥 레드 오리지널</t>
+          <t>참 조기 찌개</t>
         </is>
       </c>
     </row>
@@ -10229,7 +10229,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>한우곱창 (200g)</t>
+          <t>닭볶음탕(소)</t>
         </is>
       </c>
     </row>
@@ -10239,8 +10239,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>추천
-누룩솔트후라이드 (콘)</t>
+          <t>곱창한판</t>
         </is>
       </c>
     </row>
@@ -10250,7 +10249,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>피자M+사이드 메뉴</t>
+          <t>와인 15종</t>
         </is>
       </c>
     </row>
@@ -10260,7 +10259,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>주중)어린이 회원가</t>
+          <t>양꼬치</t>
         </is>
       </c>
     </row>
@@ -10270,7 +10269,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>닭도리탕</t>
+          <t>돼지국밥 레드 오리지널</t>
         </is>
       </c>
     </row>
@@ -10280,7 +10279,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>카보다로카 비뉴 배르드</t>
+          <t>메기 매운탕(소)</t>
         </is>
       </c>
     </row>
@@ -10290,7 +10289,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>참홍어 삼합</t>
+          <t>일미 김밥</t>
         </is>
       </c>
     </row>
@@ -10300,7 +10299,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>카페 아메리카노</t>
+          <t>녹두닭죽</t>
         </is>
       </c>
     </row>
@@ -10310,7 +10309,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>앞족(국내산) 小</t>
+          <t>매드쉬림프 피자(L)</t>
         </is>
       </c>
     </row>
@@ -10320,7 +10319,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>참스테이크</t>
+          <t>참치타다끼</t>
         </is>
       </c>
     </row>
@@ -10330,7 +10329,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>황궁 쟁반짜장</t>
+          <t>수입맥주</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10339,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>후라이드치킨</t>
+          <t>찹쌀탕수육</t>
         </is>
       </c>
     </row>
@@ -10350,7 +10349,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>옛날통닭(한마리)</t>
+          <t>아몬드라떼</t>
         </is>
       </c>
     </row>
@@ -10360,7 +10359,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>치즈 프레이트</t>
+          <t>양꼬치(1인)</t>
         </is>
       </c>
     </row>
@@ -10370,7 +10369,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>삼겹살(180g)</t>
+          <t>평양냉면</t>
         </is>
       </c>
     </row>
@@ -10380,8 +10379,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>추천
-마라테이블 마라탕</t>
+          <t>황소곱창(250g)</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10389,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>찹쌀경성꽈배기(3개)</t>
+          <t>곤드레밥</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10399,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>양지 소고기쌀국수</t>
+          <t>항정 스테이크</t>
         </is>
       </c>
     </row>
@@ -10411,7 +10409,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>연어 무한리필 (1인)</t>
+          <t>해봉이밥버거</t>
         </is>
       </c>
     </row>
@@ -10421,7 +10419,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>초당순두부</t>
+          <t>통/백 반반탕 (2-3인)</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10429,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>라(L)라(L) 피자</t>
+          <t>동태탕</t>
         </is>
       </c>
     </row>
@@ -10441,7 +10439,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>수육 (1인분)</t>
+          <t>가래떡떡볶이</t>
         </is>
       </c>
     </row>
@@ -10451,7 +10449,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>마라탕 (육수류) (100g)</t>
+          <t>생삼겹살 (180g)</t>
         </is>
       </c>
     </row>
@@ -10461,7 +10459,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>삼백돈 돈가츠</t>
+          <t>고추장불고기</t>
         </is>
       </c>
     </row>
@@ -10471,7 +10469,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>알리오 올리오 스파게티</t>
+          <t>부추생삼겁살(국내산)</t>
         </is>
       </c>
     </row>
@@ -10481,7 +10479,8 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>광어회</t>
+          <t>추천
+수박빙수</t>
         </is>
       </c>
     </row>
@@ -10491,7 +10490,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>가족세트4~5인용</t>
+          <t>숯불 소금막창(1인분)</t>
         </is>
       </c>
     </row>
@@ -10501,7 +10500,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>전주비빔밥</t>
+          <t>해장되는대창나베</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10510,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>A set</t>
+          <t>지중해식 오징어튀김</t>
         </is>
       </c>
     </row>
@@ -10521,7 +10520,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>소곱창(180g)</t>
+          <t>순대국</t>
         </is>
       </c>
     </row>
@@ -10531,7 +10530,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>미스터보쌈2인</t>
+          <t>베리버터스콘</t>
         </is>
       </c>
     </row>
@@ -10541,7 +10540,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>샤인머스캣 봉봉 스무디 - R/ICE</t>
+          <t>가득오뎅탕</t>
         </is>
       </c>
     </row>
@@ -10551,8 +10550,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>추천
-카이센동</t>
+          <t>순대국밥</t>
         </is>
       </c>
     </row>
@@ -10562,7 +10560,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>시래기 코다리찜(소소)</t>
+          <t>원조김밥</t>
         </is>
       </c>
     </row>
@@ -10572,8 +10570,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>추천
-명품도야지항정살묵은지찜</t>
+          <t>추어탕+돌솥밥</t>
         </is>
       </c>
     </row>
@@ -10583,7 +10580,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>청국장과 보리밥</t>
+          <t>타이페이 누들킹</t>
         </is>
       </c>
     </row>
@@ -10593,7 +10590,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>그릴드 목살샐러드 로우</t>
+          <t>대패삼겹살 (100g)</t>
         </is>
       </c>
     </row>
@@ -10603,7 +10600,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>국물치즈떡닭세트(순살/뼈한마리)</t>
+          <t>모듬구이(600g)</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10610,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>광어(2인)</t>
+          <t>볶음밥(1인분)</t>
         </is>
       </c>
     </row>
@@ -10623,7 +10620,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>동태찌개</t>
+          <t>아보명란마요김밥</t>
         </is>
       </c>
     </row>
@@ -10633,7 +10630,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>돈코츠라면</t>
+          <t>블랙 러시안</t>
         </is>
       </c>
     </row>
@@ -10643,8 +10640,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>추천
-달빛크림라떼</t>
+          <t>돼지국밥</t>
         </is>
       </c>
     </row>
@@ -10654,7 +10650,8 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>광어 (중)</t>
+          <t>추천
+통마늘 차돌 알리오 올리오</t>
         </is>
       </c>
     </row>
@@ -10664,7 +10661,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>토코 돈코츠 라멘</t>
+          <t>소 왕통갈비(1대)</t>
         </is>
       </c>
     </row>
@@ -10674,7 +10671,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>소갈비살(700g)</t>
+          <t>광어 사시미 (소)</t>
         </is>
       </c>
     </row>
@@ -10684,7 +10681,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>오리지날 떡볶이</t>
+          <t>모듬초밥 (10P)</t>
         </is>
       </c>
     </row>
@@ -10694,7 +10691,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>마제루롤 정식 (저녁)</t>
+          <t>돼지갈비찜</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10701,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>황칠 해신탕 (2인)</t>
+          <t>소스삼겹살(2인~)</t>
         </is>
       </c>
     </row>
@@ -10714,7 +10711,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>소스삼겹살(2인~)</t>
+          <t>나비루회덮밥</t>
         </is>
       </c>
     </row>
@@ -10724,7 +10721,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>해물순두부</t>
+          <t>통뼈닭발 (소)</t>
         </is>
       </c>
     </row>
@@ -10734,7 +10731,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>돼지 육수 라멘</t>
+          <t>차돌숙주라멘</t>
         </is>
       </c>
     </row>
@@ -10744,7 +10741,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>제계치</t>
+          <t>대구뽈조림(소)</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10751,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>돈까스</t>
+          <t>수플레 치즈케이크와 생크림</t>
         </is>
       </c>
     </row>
@@ -10764,7 +10761,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>츠루츠루 라멘</t>
+          <t>순한맛</t>
         </is>
       </c>
     </row>
@@ -10774,7 +10771,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>아웃백 스페셜 갈릭 스테이크</t>
+          <t>풍부한 단맛 토종양파 삼선짜장면</t>
         </is>
       </c>
     </row>
@@ -10784,7 +10781,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>프레시버거</t>
+          <t>묵은지 닭볶음탕</t>
         </is>
       </c>
     </row>
@@ -10794,7 +10791,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>광어(소)</t>
+          <t>고묵이</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10801,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>소곱창</t>
+          <t>GELATO (꼬노)</t>
         </is>
       </c>
     </row>
@@ -10814,7 +10811,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>대포찜닭 (2인)</t>
+          <t>위스키</t>
         </is>
       </c>
     </row>
@@ -10824,7 +10821,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>돼지김치구이 (대)</t>
+          <t>냄비오뎅</t>
         </is>
       </c>
     </row>
@@ -10834,7 +10831,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>광어 우럭 세꼬시 연어 해물 물회</t>
+          <t>앞족(국내산) 小</t>
         </is>
       </c>
     </row>
@@ -10844,7 +10841,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>족발 大(앞다리)</t>
+          <t>등심돈까스 (5장)</t>
         </is>
       </c>
     </row>
@@ -10854,7 +10851,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>수플레 치즈케이크와 생크림</t>
+          <t>얼큰뼈감자탕 (대)</t>
         </is>
       </c>
     </row>
@@ -10864,7 +10861,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>아구찜 (소)</t>
+          <t>쌀떡볶이</t>
         </is>
       </c>
     </row>
@@ -10874,7 +10871,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>겉바속촉 두부 샐러드</t>
+          <t>회덮밥</t>
         </is>
       </c>
     </row>
@@ -10884,7 +10881,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>매드쉬림프 피자(L)</t>
+          <t>쌀국수</t>
         </is>
       </c>
     </row>
@@ -10894,7 +10891,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>고추장불고기</t>
+          <t>참다랑어 뱃살 (1Pcs)</t>
         </is>
       </c>
     </row>
@@ -10904,7 +10901,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>추천유부4+음료세트</t>
+          <t>치킨(반마리)</t>
         </is>
       </c>
     </row>
@@ -10914,7 +10911,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>광어초밥 (2P)</t>
+          <t>장사장 부타동</t>
         </is>
       </c>
     </row>
@@ -10924,7 +10921,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>한방보쌈 (대)</t>
+          <t>대감 낙곱새</t>
         </is>
       </c>
     </row>
@@ -10934,7 +10931,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>농어(소)</t>
+          <t>소고기된장전골</t>
         </is>
       </c>
     </row>
@@ -10944,7 +10941,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>모듬곱창(200g)</t>
+          <t>김치두루치기 정식</t>
         </is>
       </c>
     </row>
@@ -10954,7 +10951,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>엠브로돈까스</t>
+          <t>싱싱해물모듬</t>
         </is>
       </c>
     </row>
@@ -10964,7 +10961,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>불고기낙지죽</t>
+          <t>직구도시락 (1인)</t>
         </is>
       </c>
     </row>
@@ -10974,7 +10971,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>소 생갈비살 (180g)</t>
+          <t>통뼈국물닭발</t>
         </is>
       </c>
     </row>
@@ -10984,7 +10981,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>페퍼로니 피자</t>
+          <t>팥칼국수</t>
         </is>
       </c>
     </row>
@@ -10994,7 +10991,8 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>감튀 (S)</t>
+          <t>추천
+[매장] 부대찌개 1인분</t>
         </is>
       </c>
     </row>
@@ -11004,7 +11002,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>미트볼토마토파스타</t>
+          <t>그릴치킨스테끼</t>
         </is>
       </c>
     </row>
@@ -11014,7 +11012,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>계란말이김밥</t>
+          <t>마녀김밥</t>
         </is>
       </c>
     </row>
@@ -11024,7 +11022,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>분짜</t>
+          <t>한우소머리곰탕</t>
         </is>
       </c>
     </row>
@@ -11034,7 +11032,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>오리주물럭(900g)</t>
+          <t>베지 토마토 파스타</t>
         </is>
       </c>
     </row>
@@ -11044,7 +11042,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>까르보나라</t>
+          <t>아채곱창</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11052,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>슈프림양념치킨</t>
+          <t>소곱창 (200g)</t>
         </is>
       </c>
     </row>
@@ -11064,7 +11062,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>베리버터스콘</t>
+          <t>아마에비동</t>
         </is>
       </c>
     </row>
@@ -11074,7 +11072,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>기꾸초밥</t>
+          <t>시래불고기(1인)</t>
         </is>
       </c>
     </row>
@@ -11084,7 +11082,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>참 조기 찌개</t>
+          <t>청춘 세트(580g)</t>
         </is>
       </c>
     </row>
@@ -11094,7 +11092,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>생감자튀김</t>
+          <t>치즈감자전</t>
         </is>
       </c>
     </row>
@@ -11104,7 +11102,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>메뉴</t>
+          <t>숯불양념바베큐</t>
         </is>
       </c>
     </row>
@@ -11114,7 +11112,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>1인보쌈 (S)</t>
+          <t>콘소메이징</t>
         </is>
       </c>
     </row>
@@ -11124,7 +11122,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>돼지양념곱창</t>
+          <t>모듬구이</t>
         </is>
       </c>
     </row>
@@ -11134,7 +11132,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>비빔국수</t>
+          <t>들깨 칼국수</t>
         </is>
       </c>
     </row>
@@ -11144,7 +11142,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>도토리칼국수</t>
+          <t>염소탕</t>
         </is>
       </c>
     </row>
@@ -11154,7 +11152,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>석쇠불고기</t>
+          <t>마라탕</t>
         </is>
       </c>
     </row>
@@ -11164,7 +11162,8 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>네버슬립스 (R)</t>
+          <t>추천
+누룽지 닭한마리</t>
         </is>
       </c>
     </row>
@@ -11174,7 +11173,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>오뎅탕</t>
+          <t>아귀포</t>
         </is>
       </c>
     </row>
@@ -11184,7 +11183,8 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>제육두부김치</t>
+          <t>추천
+홍탄</t>
         </is>
       </c>
     </row>
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>연어 150g</t>
+          <t>광어(소)</t>
         </is>
       </c>
     </row>
@@ -11204,7 +11204,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>의성마늘떡보쌈</t>
+          <t>멸치국수</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>물갈비</t>
+          <t>화이트레이니</t>
         </is>
       </c>
     </row>
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>뚝배기불고기</t>
+          <t>두마리 같은 한마리 후라이드 치킨</t>
         </is>
       </c>
     </row>
@@ -11234,7 +11234,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>파절이 생삼겹살(1인분)</t>
+          <t>아귀포(2마리)</t>
         </is>
       </c>
     </row>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>감자 튀김</t>
+          <t>파절이삼겹살</t>
         </is>
       </c>
     </row>
@@ -11254,7 +11254,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>양념치킨</t>
+          <t>해물순두부</t>
         </is>
       </c>
     </row>
@@ -11264,7 +11264,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>통/백 반반탕 (2-3인)</t>
+          <t>낙지(볶음)덮밥</t>
         </is>
       </c>
     </row>

--- a/Datasets/menu_data.xlsx
+++ b/Datasets/menu_data.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>찐꽈배기</t>
+          <t>코다리 조림 (소)</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>후라이드</t>
+          <t>후라이드치킨</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>매화(치킨, 연어구이)</t>
+          <t>참 조기 찌개</t>
         </is>
       </c>
     </row>
@@ -528,8 +528,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>추천
-믹스카츠</t>
+          <t>닭매운탕</t>
         </is>
       </c>
     </row>
@@ -539,7 +538,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>봉스쭈꾸미 (1인분) (저녁메뉴)</t>
+          <t>양아들 후라이드치킨</t>
         </is>
       </c>
     </row>
@@ -549,7 +548,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>코만도바베큐</t>
+          <t>특모듬 (중)</t>
         </is>
       </c>
     </row>
@@ -559,7 +558,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>단호박죽</t>
+          <t>달빛반반치킨</t>
         </is>
       </c>
     </row>
@@ -569,7 +568,8 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>오돌뼈</t>
+          <t>추천
+돼지불백</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A SET</t>
+          <t>생연어샐러드</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>양아들치킨</t>
+          <t>두부김치</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>김치전</t>
+          <t>콩나물국밥</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>얼씨구</t>
+          <t>정든 김밥</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>샐러드돈카츠</t>
+          <t>핀프릭 브런치 플레이트</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>바지락 수제비</t>
+          <t>에스프레소</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>아이스아메리카노</t>
+          <t>풍부한 단맛 토종양파 삼선짜장면</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>보쌈</t>
+          <t>찹쌀경성꽈배기(3개)</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>닭떡볶이</t>
+          <t>가득오뎅탕</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>얼큰모듬짬뽕</t>
+          <t>야채곱창</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>치르르블랙라벨치킨 8조각</t>
+          <t>GELATO (꼬노)</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>크림라떼</t>
+          <t>나이스 세트 A</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>크림양송이 스파게티</t>
+          <t>양꼬치(1인)</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2시간</t>
+          <t>족발 (대)</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>안심육즙탕수육 (S)</t>
+          <t>황칠 해신탕 (2인)</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>만조 크림 리조또</t>
+          <t>안심스테이크</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>냉면</t>
+          <t>한마리반 크리스피치킨</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>돈코츠라멘</t>
+          <t>과일요거트</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>소고기쌀국수</t>
+          <t>기꾸초밥(12pcs)</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>특설렁탕</t>
+          <t>과일안주</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>나눔]킹쉬L+리얼순살+양념</t>
+          <t>1인 보쌈</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>앞다리살한마리(2~3인이상)</t>
+          <t>국물닭발(소)</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2인 세트</t>
+          <t>주물럭 청국장</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>육회모듬</t>
+          <t>쭈꾸미 2인세트</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>순대 곱창 전골 (중)</t>
+          <t>또르띠야 데 빠따따</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>잠봉뵈르</t>
+          <t>김치전</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>닭곰탕국수</t>
+          <t>닭모래집</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>돈코츠 라멘</t>
+          <t>크림생맥주</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,8 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>클럽샌드위치</t>
+          <t>추천
+달빛크림라떼</t>
         </is>
       </c>
     </row>
@@ -869,7 +870,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>유린기</t>
+          <t>에비죠텐동</t>
         </is>
       </c>
     </row>
@@ -879,7 +880,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>평일런치 (오후 5시 이전)</t>
+          <t>광어초밥(12p)</t>
         </is>
       </c>
     </row>
@@ -889,8 +890,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>추천
-미플레이스 라떼</t>
+          <t>토마토 그린빈 샐러드</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>수제본함박 스테이크</t>
+          <t>기꾸초밥</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>생감자튀김</t>
+          <t>생삼겹살 (1인분)</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>파스타+치킨</t>
+          <t>황소곱창(250g)</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>치즈피자</t>
+          <t>대구뽈찜 (특)</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>마그마 오믈렛</t>
+          <t>간장통닭</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>왕족방 (소)</t>
+          <t>오리지널치킨</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>광어초밥 (10ps)</t>
+          <t>양념치킨</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>돈파스</t>
+          <t>치르르블랙라벨치킨 8조각</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,8 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>네버슬립스 (R)</t>
+          <t>추천
+마라테이블 마라탕</t>
         </is>
       </c>
     </row>
@@ -990,7 +991,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>까페라떼</t>
+          <t>매직버터치킨세트(보퉁맛)</t>
         </is>
       </c>
     </row>
@@ -1000,8 +1001,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>추천
-골목한상</t>
+          <t>전주 콩가 세트</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>급냉 삼겹살(170g)</t>
+          <t>삼겹살 (200g)</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>연남물갈비(1인분)</t>
+          <t>모짜렐라 스팸계란마리</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,8 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>볶음밥</t>
+          <t>추천
+명품도야지항정살묵은지찜</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1042,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>버팔로칩</t>
+          <t>소 불고기 김치전</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1052,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>모듬(600g)</t>
+          <t>매운쭈꾸미(1인)</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1062,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>생연어</t>
+          <t>블랙 러시안</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1072,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>고르곤졸라피자</t>
+          <t>모듬A(450g)</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1082,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>산낙지철판</t>
+          <t>2인 세트</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1092,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>서울양념통닭</t>
+          <t>크리스피 텐더와 감자</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1102,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>곱창전골</t>
+          <t>오리지널</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1112,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>네코스시</t>
+          <t>연인세트A</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1122,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>정가스페셜 (3일전 예약)</t>
+          <t>전주비빔밥</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1132,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>무모한 메가초밥세트A(32P)</t>
+          <t>서오릉콤비네이션</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1142,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>생과일 샐러드</t>
+          <t>낙지찜 (2인)</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1152,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>한우곱창떡볶이 (S)</t>
+          <t>무한리필(1인)</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1162,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>마라탕 (100g)</t>
+          <t>겉바속촉 두부 샐러드</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1172,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>봉천동 나시고랭</t>
+          <t>돼지김치구이 (대)</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1182,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>가정식백반</t>
+          <t>치슐랭</t>
         </is>
       </c>
     </row>
@@ -1191,8 +1192,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>추천
-파인돈까스</t>
+          <t>어묵우동</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>소곱창(180g)</t>
+          <t>마라아귀</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>돼지막창</t>
+          <t>뽀모도로 파스타</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>대새피자</t>
+          <t>차돌라면</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>감자튀김 (S)</t>
+          <t>해물순두부찌개</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>통통 삼겹 (150g)</t>
+          <t>우렁된장쌈밥</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>햄볶음밥</t>
+          <t>차돌박이 김치떡볶이</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,8 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>오인자 모듬한상세트 (3~4인)</t>
+          <t>추천
+파인돈까스</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1273,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>과일</t>
+          <t>강남샤브샤브</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1283,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>안심스테이크</t>
+          <t>딸기 리코타치즈 샌드</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1293,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>어메이징 크리스피 후라이드 치킨</t>
+          <t>더블치즈 피자 (SLICE)</t>
         </is>
       </c>
     </row>
@@ -1302,8 +1303,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>추천
-꾸에이띠어우 느아</t>
+          <t>평양냉면</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>아구찜 (대)</t>
+          <t>깐족보쌈</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>본래순대국</t>
+          <t>치즈 플레이트</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>족발 (중)</t>
+          <t>멸치국수</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>얼쑤절쑤 불고기 크림파스타</t>
+          <t>불고기낙지죽</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>소세지 플래터</t>
+          <t>퍼포</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>양념치킨</t>
+          <t>연어 무한리필</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>동해 해물파전</t>
+          <t>돼지왕갈비(250g)</t>
         </is>
       </c>
     </row>
@@ -1383,8 +1383,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>추천
-닭도리탕</t>
+          <t>트리플 현미베이크[TRIPLE SAUCE BROWN RICE BAKE]</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1393,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>보달라</t>
+          <t>두마리 같은 한마리 후라이드 치킨</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1403,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>고르곤졸라꿀피자</t>
+          <t>세트메뉴</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1413,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>미트볼토마토파스타</t>
+          <t>통갈매기살(200g)</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1423,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>흑돼지타코</t>
+          <t>주꾸미</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1433,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>황칠 해신탕 (2인)</t>
+          <t>도니꾸차슈라</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1443,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>통갈매기살(200g)</t>
+          <t>풍천민물장어(1인분)</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1453,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>한마리반 크리스피치킨</t>
+          <t>황도</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1463,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>주꾸미</t>
+          <t>까페라떼</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1473,8 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>시저샐러드</t>
+          <t>추천
+프레임커피 No.1</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>알리오 올리오 스파게티</t>
+          <t>숯불 소금막창(1인분)</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>고르곤졸라 피자 (10인치)</t>
+          <t>얼큰버섯칼국수</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>마른안주(소),쥐포,노가리</t>
+          <t>로제삼겹살</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>해물파전</t>
+          <t>차돌박이 (150g)</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>짜장</t>
+          <t>차돌 두루치기</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>차돌배기</t>
+          <t>먹태</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>소고기 (100g)</t>
+          <t>스테이크갈비 무한리필 (1인)</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>새우튀김</t>
+          <t>오일세트</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>한돈목살(150g)</t>
+          <t>꽃새우 회(소)</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>닭껍질튀김</t>
+          <t>공어 (소)</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>경성꽈배기(3개)</t>
+          <t>골드 치킨 텐더 피자</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>뚝배기 닭볶음탕</t>
+          <t>순대국밥</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,8 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>김치생오겹살(200g)</t>
+          <t>추천
+닭도리탕</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1615,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>점심특선(장어탕)</t>
+          <t>굴라시</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1625,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>튀김 (1인분)</t>
+          <t>마라탕 (100g)</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1635,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>생제주오겹살(300g)</t>
+          <t>후라이드</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1645,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>쿠바 샌드위치 오리지널</t>
+          <t>돈코츠라멘</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1655,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>오리장작바베큐</t>
+          <t>동태찌개</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1665,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>삼겹살 (170g)</t>
+          <t>잔치국수</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1675,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>비빔국수</t>
+          <t>무한차돌부채살말이 (1인)</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1685,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>한식뷔페</t>
+          <t>선봉관 곰탕(보통)</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1695,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>비빔냉면</t>
+          <t>짜면밥</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1705,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>찹쌀경성꽈배기(3개)</t>
+          <t>광어 (중간놈)</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1715,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>막창소금(2인)</t>
+          <t>슈하스코 무한리필 (런치)</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1725,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>유기농 순두부찌개</t>
+          <t>우거지감자탕 (2인)</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1735,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>혼네 규카츠</t>
+          <t>나홀로set</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1745,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>생연어 사시미</t>
+          <t>콜라겐 무뼈 닭발(소)</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1755,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>쩡떡볶이</t>
+          <t>매화(치킨, 연어구이)</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1765,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>아로니아찐빵 (5개)</t>
+          <t>계란게살탕</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1775,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>미친피자 시그니처(M)</t>
+          <t>100%수제양념돼지갈비 (250g)</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1785,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>우삼겹살 쌈밥(180g)</t>
+          <t>사골칼국수</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1795,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>굴비백반</t>
+          <t>묵은지 닭볶음탕</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1805,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>얼큰 짬뽕탕</t>
+          <t>크림라떼</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1815,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>모시조개탕</t>
+          <t>벌떡볶이</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1825,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>차돌박이 (150g)</t>
+          <t>모듬곱창(200g)</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1835,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>쭈꾸미 2인세트</t>
+          <t>얼큰 짬뽕탕</t>
         </is>
       </c>
     </row>
@@ -1844,8 +1845,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>추천
-눈꽃세트</t>
+          <t>먹장어 짚불구이</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>프리미엄 돈카츠 세트</t>
+          <t>족발 大(앞다리)</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>보리밥</t>
+          <t>듀록 냉삼겹 (1인분)</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>국내산 특생삼겹살 (200g)</t>
+          <t>조선의 육개장</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,8 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>아구찜 (소)</t>
+          <t>추천
+국내산 100% 안심스테이크</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1896,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>채끝등심(200g)</t>
+          <t>등심돈까스 (5장)</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1906,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>노가리(2마리)</t>
+          <t>육육치킨</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1916,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>반반족발 (뒷다리로 반반)</t>
+          <t>얼큰뼈감자탕 (대)</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1926,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>춘천닭갈비 (1인분)</t>
+          <t>훠궈뷔페 (1인)</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1936,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>짬봉탕</t>
+          <t>베이컨과 카라멜 양파토마토소스 스파게티</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1946,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>내장탕</t>
+          <t>A스시(10Ps)</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1956,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>광어 (중)</t>
+          <t>삼겹살(1인분)</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1966,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>주먹목살(200g)</t>
+          <t>낙지정식(1인)</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1976,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>순살양념구이치킨</t>
+          <t>닥치고 커플SET</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1986,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>포첸 양지쌀국수</t>
+          <t>간비국수</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1996,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>생연어회(소)</t>
+          <t>콤비네이션 피자(M)</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2006,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>돼지 김치찜(1인분)</t>
+          <t>함박스테이크</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2016,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>불고기</t>
+          <t>등심 돈가스</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2026,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>치즈해물떡볶이</t>
+          <t>닭다리살</t>
         </is>
       </c>
     </row>
@@ -2035,8 +2036,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>추천
-이가초밥</t>
+          <t>돈코츠 라멘</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>대구뽈찜 (특)</t>
+          <t>나눔]킹쉬L+리얼순살+양념</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>등심돈까스</t>
+          <t>모듬구이</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>모듬A(450g)</t>
+          <t>통/백 반반탕 (2-3인)</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>페스트리피자</t>
+          <t>참치마요꽁지</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,8 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>무한리필(1인)</t>
+          <t>추천
+[일품] 돼지김치찌개</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2097,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>닭도리탕</t>
+          <t>와!메리카노 1.5L</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>특양 (200g)</t>
+          <t>갈비탕</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2117,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>해물탕 (소)</t>
+          <t>제육직화</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2127,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>기꾸초밥</t>
+          <t>내장탕</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>코카콜라500ml</t>
+          <t>소갈비살(700g)</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2147,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>반반섞음</t>
+          <t>스테이크 덮밥</t>
         </is>
       </c>
     </row>
@@ -2156,8 +2157,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>추천
-마라테이블 마라탕</t>
+          <t>온다비어</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>버섯샤브매운탕</t>
+          <t>김치찌개</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>꽃새우 회(소)</t>
+          <t>고구마피자(L)</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>봉골레 파스타</t>
+          <t>오늘라면</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>바베큐플래터</t>
+          <t>가정식백반</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>오일세트</t>
+          <t>쩡떡볶이</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>통뼈불닭발세트</t>
+          <t>앵그리 버드와 감자</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>참스테이크</t>
+          <t>육회덮밥</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>바싹불고기 (M)</t>
+          <t>생연어회(소)</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>런치 오마카세</t>
+          <t>고기만두(5개)</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>감나무 점심특선</t>
+          <t>포모도로</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>한마리</t>
+          <t>버팔로칩</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>순대곱창볶음</t>
+          <t>돌솥추어탕</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>불고기파전</t>
+          <t>샤인머스캣 봉봉 스무디 - R/ICE</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>버섯돼지갈비(1인분)</t>
+          <t>닭껍질튀김</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>샤워텐동</t>
+          <t>닭도리탕</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>토시살 (150g)</t>
+          <t>클럽샌드위치</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,8 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>큐브스테이크덮밥</t>
+          <t>추천
+누룽지 닭한마리</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2338,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>팟타이</t>
+          <t>급냉 삼겹살(170g)</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2348,8 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>노미호다이-무한리필(1인당)</t>
+          <t>추천
+카이센동</t>
         </is>
       </c>
     </row>
@@ -2357,8 +2359,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>추천
-삼겹살카레</t>
+          <t>볶음짬뽕</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2369,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>부라타치즈</t>
+          <t>가브리살 (300g)</t>
         </is>
       </c>
     </row>
@@ -2378,7 +2379,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>잔치국수</t>
+          <t>메뉴판1</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2389,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>불백정식</t>
+          <t>젠젠 팡케키</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2399,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>의성마늘떡보쌈</t>
+          <t>청년초밥(11p)</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2409,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>콜라</t>
+          <t>베이컨머쉬룸 파스타</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2419,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>곱창 (2인분)</t>
+          <t>김치찜</t>
         </is>
       </c>
     </row>
@@ -2428,7 +2429,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>은행꼬치</t>
+          <t>카스</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2439,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>나이스 세트 A</t>
+          <t>옛날통닭(한마리)</t>
         </is>
       </c>
     </row>
@@ -2448,7 +2449,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>소갈비살(200g)</t>
+          <t>한사바리해장국+떡갈비</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2459,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>먹장어 짚불구이</t>
+          <t>코만도바베큐</t>
         </is>
       </c>
     </row>
@@ -2468,7 +2469,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>우렁된장쌈밥</t>
+          <t>숙성회 정식</t>
         </is>
       </c>
     </row>
@@ -2478,7 +2479,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>해물순두부찌개</t>
+          <t>앞족(국내산) 小</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2489,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>쉐프추천초밥 (12pcs)</t>
+          <t>국물닭발</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2499,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>대작 모둠초밥 (11ps)</t>
+          <t>스타버거</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2509,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>레몬에이드</t>
+          <t>텍스멕스 바베큐 버거</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2519,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>소갈비살 (170g)</t>
+          <t>조개구이 (소)</t>
         </is>
       </c>
     </row>
@@ -2528,7 +2529,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>고기국수</t>
+          <t>곱창소금구이</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2539,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>벌교 참꼬막 데침</t>
+          <t>탕수육 (소)</t>
         </is>
       </c>
     </row>
@@ -2548,7 +2549,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>삼겹살 (150g)</t>
+          <t>감자 튀김</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2559,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>오징어덮밥</t>
+          <t>돈파스</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2569,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>베이컨과 카라멜 양파토마토소스 스파게티</t>
+          <t>손칼국수</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2579,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>간장+정통후라이드</t>
+          <t>삼계탕</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2589,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>훈제족발</t>
+          <t>카페 아메리카노</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2599,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>이고집쭈꾸미 (1인분)</t>
+          <t>광어초밥(10p)</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2609,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>김치찌개</t>
+          <t>수육 (1인분)</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2619,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>유자향 문어 냉채</t>
+          <t>혼네 규카츠</t>
         </is>
       </c>
     </row>
@@ -2628,7 +2629,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>황금올리브반반+황금알치즈볼</t>
+          <t>돼지 육수 라멘</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2639,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>왕돈가스</t>
+          <t>그대와 함께 라면</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2649,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>곱창모듬 (1인분)</t>
+          <t>오뎅탕</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2659,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>한우꽃등심(200g)</t>
+          <t>돈고츠 라멘</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2669,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>짜면밥</t>
+          <t>한치 땅콩</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2679,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>크리스피 텐더와 감자</t>
+          <t>모듬전</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2689,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>육회(중)</t>
+          <t>직화 불막창</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2699,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>엠브로돈까스</t>
+          <t>규동</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2709,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>아메리카노(HOT)</t>
+          <t>볼 샐러드</t>
         </is>
       </c>
     </row>
@@ -2718,7 +2719,8 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>수타짜장</t>
+          <t>추천
+남도정식</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2730,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>삼족찜(1인분)</t>
+          <t>치즈피자</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2740,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>생삼겹살 (200g)</t>
+          <t>갈치구이</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2750,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>치즈 프라이 L</t>
+          <t>믹스가츠동</t>
         </is>
       </c>
     </row>
@@ -2758,8 +2760,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>추천
-순살치킨</t>
+          <t>반반감족</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2770,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>직화불고기혼밥</t>
+          <t>치즈범벅치킨 (순살)(작은거)</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2780,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>따빠디또 첫 번째 디저트 이야기 '익숙한 그리고 색다른'</t>
+          <t>특양 (200g)</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2790,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>돼지김치구이 (대)</t>
+          <t>초당순두부</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2800,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>달빛반반치킨</t>
+          <t>팟타이</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2810,8 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>오리지널치킨</t>
+          <t>추천
+나폴리 슈림프 피자</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2821,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>크리스피 치킨</t>
+          <t>붉은대게장 비빔밥</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2831,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>치즈김치전</t>
+          <t>크리스피치킨</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2841,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>소 생갈비살 (180g)</t>
+          <t>간장치킨</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2851,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>낙지찜 (2인)</t>
+          <t>보쌈정식</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2861,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>황소알곱창 (2인분)</t>
+          <t>전가복</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2871,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>우삼겹쌈밥</t>
+          <t>장어덮밥</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2881,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>숯불 흑돼지 퐁듀</t>
+          <t>해물찜 (소)</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2891,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>고구마피자(L)</t>
+          <t>야채비빔밥</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2901,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>낙곱새</t>
+          <t>순대국</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2911,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>에스프레소</t>
+          <t>삼겹살 (150g)</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2921,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>깐풍 가지튀김</t>
+          <t>왕재곱창 (2인분)</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2931,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>감자전</t>
+          <t>한우소곱창 (1인분)</t>
         </is>
       </c>
     </row>
@@ -2939,8 +2941,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>추천
-돼지불백</t>
+          <t>찹쌀탕수육</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2951,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>계란말이김밥</t>
+          <t>케이준 치킨 크림파스타</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2961,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>부추북어국</t>
+          <t>쭈꾸미(1인)</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2971,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>온고블렌다드 no.1</t>
+          <t>샐러드돈카츠</t>
         </is>
       </c>
     </row>
@@ -2980,7 +2981,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>오리지날 프린스튼 후라이드 치킨</t>
+          <t>소왕갈비</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2991,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>그날 세트</t>
+          <t>해물탕(소)</t>
         </is>
       </c>
     </row>
@@ -3000,7 +3001,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>감자탕(소)</t>
+          <t>고추장육회</t>
         </is>
       </c>
     </row>
@@ -3010,7 +3011,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>부추전</t>
+          <t>무한리필(14세 이상)</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3021,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>모쯔나베</t>
+          <t>A 돼지갈비 스테이크 무한 (1인)</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3031,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>혼술기본</t>
+          <t>점심특선초밥(10ps)</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3041,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>갈치조림</t>
+          <t>한우곱창떡볶이 (S)</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3051,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>카라멘</t>
+          <t>교촌허니순살[R]</t>
         </is>
       </c>
     </row>
@@ -3060,7 +3061,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>또르띠야 데 빠따따</t>
+          <t>꽈배기(2개)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3071,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>달리크림 파스타</t>
+          <t>닭도리탕 (대)</t>
         </is>
       </c>
     </row>
@@ -3080,7 +3081,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>케이준 치킨 크림파스타</t>
+          <t>치퐁당 후라이드</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3091,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>딸기 리코타치즈 샌드</t>
+          <t>갈매기살 (1인분)</t>
         </is>
       </c>
     </row>
@@ -3100,7 +3101,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>호가든 생 2잔&amp;나쵸</t>
+          <t>얼쑤절쑤 불고기 크림파스타</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3111,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>마라탕 (기본)</t>
+          <t>대창 감바스</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3121,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>등심 돈가스</t>
+          <t>쿠바 샌드위치 오리지널</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3131,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>족발+보쌈 (소)</t>
+          <t>활어회(소)</t>
         </is>
       </c>
     </row>
@@ -3140,7 +3141,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>별표국수</t>
+          <t>머리국밥</t>
         </is>
       </c>
     </row>
@@ -3150,7 +3151,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>소막창(200g)</t>
+          <t>경성꽈배기(3개)</t>
         </is>
       </c>
     </row>
@@ -3160,7 +3161,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>소림마라 마라탕</t>
+          <t>육회와 김부각</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3171,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>슈하스코 무한리필 (런치)</t>
+          <t>볏짚산꼼장어 (1인분)</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3181,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>콜드브루</t>
+          <t>아귀포(2마리)</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3191,8 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>통랍스터 오븐구이 세트(페페로니)</t>
+          <t>추천
+광명종합셋트</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3202,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>와인숙성 넓적다리 스테이크</t>
+          <t>염소탕</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3212,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>복지리탕 (1인)</t>
+          <t>생삼겹살 (180g)</t>
         </is>
       </c>
     </row>
@@ -3220,7 +3222,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>냉동삼겹살</t>
+          <t>퀸즈팩</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3232,8 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>쭈꾸미 (1인분)</t>
+          <t>추천
+[매장] 부대찌개 1인분</t>
         </is>
       </c>
     </row>
@@ -3240,7 +3243,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>전주 콩가 세트</t>
+          <t>마왕통구이 (소)</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3253,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>생삼겹갈비</t>
+          <t>고기밥</t>
         </is>
       </c>
     </row>
@@ -3260,7 +3263,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>수제비</t>
+          <t>녹차수제돼지갈비</t>
         </is>
       </c>
     </row>
@@ -3270,7 +3273,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>제주 흑돼지 오겹(150g)</t>
+          <t>돼지막창</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3283,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>바나나쥬스 (M)</t>
+          <t>혼마구로초밥</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3293,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>오리지날 떡볶이</t>
+          <t>크리스피 치킨</t>
         </is>
       </c>
     </row>
@@ -3300,7 +3303,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>콤비네이션 피자(M)</t>
+          <t>광어초밥 (2P)</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3313,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>주물럭 청국장</t>
+          <t>불고기파전</t>
         </is>
       </c>
     </row>
@@ -3320,7 +3323,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2시간/1인 (기본)</t>
+          <t>새우튀김</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3333,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>삼겹살 (1인분)</t>
+          <t>시래불고기(1인)</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3343,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>고등어구이 정식</t>
+          <t>수제비</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3353,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>양다리(1kg)</t>
+          <t>소고기 (100g)</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3363,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>삼겹살</t>
+          <t>차돌숙주라멘</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3373,8 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>산꼼장어 (소)</t>
+          <t>추천
+삼겹살카레</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3384,8 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>닭떡볶이(소)</t>
+          <t>추천
+누룩솔트후라이드 (콘)</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3395,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>야채김밥</t>
+          <t>미미네 생활 떡볶이</t>
         </is>
       </c>
     </row>
@@ -3400,7 +3405,8 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>닭다리살</t>
+          <t>추천
+눈꽃세트</t>
         </is>
       </c>
     </row>
@@ -3410,7 +3416,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>점심특선초밥(10ps)</t>
+          <t>꾸덕 로제떡볶이</t>
         </is>
       </c>
     </row>
@@ -3420,7 +3426,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>햄치즈</t>
+          <t>생삼겹갈비</t>
         </is>
       </c>
     </row>
@@ -3430,7 +3436,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>국내산 생 갈매기살</t>
+          <t>한식뷔페</t>
         </is>
       </c>
     </row>
@@ -3440,7 +3446,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>또봉이통닭</t>
+          <t>의성마늘떡보쌈</t>
         </is>
       </c>
     </row>
@@ -3450,7 +3456,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>사케동</t>
+          <t>모듬 (500g)</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3466,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>매직버터치킨세트(보퉁맛)</t>
+          <t>뚝배기 닭볶음탕</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3476,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>광어(완도산)</t>
+          <t>봉천동 나시고랭</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3486,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>김치찌개 (1인분)</t>
+          <t>순살 치킨 (소)</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3496,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>돈고츠 라멘</t>
+          <t>오리장작바베큐</t>
         </is>
       </c>
     </row>
@@ -3500,7 +3506,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>미미네 생활 떡볶이</t>
+          <t>가마보꼬(어묵)고로케 (2PCS)</t>
         </is>
       </c>
     </row>
@@ -3510,7 +3516,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>호타루 모듬세트</t>
+          <t>김치부대찌개 (3인분)</t>
         </is>
       </c>
     </row>
@@ -3520,7 +3526,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>단뽀뽀 오므라이스</t>
+          <t>계란찜</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3536,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>야끼카레</t>
+          <t>포첸 양지쌀국수</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3546,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>클래식치즈버거</t>
+          <t>소고기쌀국수</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3556,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>레몬간장연어덮밥</t>
+          <t>깐쇼새우</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3566,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>꽃등심(200g)</t>
+          <t>떡볶이</t>
         </is>
       </c>
     </row>
@@ -3570,8 +3576,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>추천
-삼백반고집</t>
+          <t>파스타+치킨</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3586,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>소고기 쌀국수</t>
+          <t>들깨칼국수</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3596,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>광어 우럭 세꼬시 연어 해물 물회</t>
+          <t>국물닭볶음탕(한마리)</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3606,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>소등심(150g)</t>
+          <t>쭈삼겹살(1인분)</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3616,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>토종순대국</t>
+          <t>신선오리주물럭</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3626,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>도니꾸차슈라</t>
+          <t>로제떡볶이</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3636,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>아메리카노</t>
+          <t>Set A(1인)</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3646,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>바닐라 까눌레</t>
+          <t>본김밥</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3656,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>전가복</t>
+          <t>참홍어 삼합</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3666,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>대창 감바스</t>
+          <t>가츠동</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3676,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>너트 티라노 블렌딩</t>
+          <t>아구찜(중)</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3686,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>아리랑 핫도그</t>
+          <t>소세지 플래터</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3696,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>아구찜 (큰소)</t>
+          <t>볶음밥(1인분)</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3706,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>공어 (소)</t>
+          <t>싱글</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3716,8 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>돼지불백</t>
+          <t>추천
+이젠떡볶이</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3727,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Americano</t>
+          <t>흑돼지 (180g)</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3737,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>숯불구이 족발</t>
+          <t>영양탕</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3747,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>우삼겹 국물떡볶이</t>
+          <t>응set</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3757,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>오픈샌드위치</t>
+          <t>삼겹살</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3767,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>마가리타</t>
+          <t>레몬에이드</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3777,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>퀸즈팩</t>
+          <t>샤워텐동</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3787,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>오리지널 함박스테이크</t>
+          <t>돼지갈비김치찌개</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3797,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>갈낙탕</t>
+          <t>야채 김밥</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3807,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>고기 왕만두(5개)</t>
+          <t>에스프레스</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3817,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>막회물회</t>
+          <t>물갈비</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3827,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>깻잎찜닭(2인)</t>
+          <t>제계치</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3837,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>1인보쌈 (S)</t>
+          <t>화이트레이니</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3847,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>소고기 공심채 덮밥</t>
+          <t>토시살 (150g)</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3857,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>후라이드 치킨</t>
+          <t>단호박죽</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3867,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>한우곱창(200g)</t>
+          <t>치킨 오버 라이스</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3877,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>불고기낙지죽</t>
+          <t>돼지국밥</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3887,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>홍두깨</t>
+          <t>매운낙지비빔밥</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3897,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>특정식(1인분)</t>
+          <t>삼겹살 (180g)</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3907,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>레몬 마들렌</t>
+          <t>통닭발</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3917,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>크림파스타</t>
+          <t>아구찜(소)</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3927,8 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>참치회 미 메뉴</t>
+          <t>추천
+곱창 (200g)</t>
         </is>
       </c>
     </row>
@@ -3931,8 +3938,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>추천
-커티삭 하이볼</t>
+          <t>즉석떡볶이(2인)</t>
         </is>
       </c>
     </row>
@@ -3942,7 +3948,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>라(L)라(L) 피자</t>
+          <t>수제 왕 돼지갈비 (250g)</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3958,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>먹태</t>
+          <t>양아들치킨</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3968,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>백순대곱창 볶음 2인</t>
+          <t>탄탄면</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3978,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>모듬초밥(10p)</t>
+          <t>왕갈비탕</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3988,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>슈프림양념치킨</t>
+          <t>노스 아일랜드IPA (435ml)</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3998,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>한우소고기 돌미여국 정찬</t>
+          <t>짜장면</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4008,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>벌떡볶이</t>
+          <t>라(L)라(L) 피자</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4018,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>삼겹살(150g)</t>
+          <t>코코 후라이드(중)</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4028,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>단호박 볼케이노</t>
+          <t>싸움보쌈(M)</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4038,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>트리플 현미베이크[TRIPLE SAUCE BROWN RICE BAKE]</t>
+          <t>노미호다이-무한리필(1인당)</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4048,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>붉은대게장 비빔밥</t>
+          <t>칵테일</t>
         </is>
       </c>
     </row>
@@ -4052,7 +4058,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>특명품순두부</t>
+          <t>리춘세트</t>
         </is>
       </c>
     </row>
@@ -4062,7 +4068,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>격식을 갖춘 한끼</t>
+          <t>콘 에스퀴테스</t>
         </is>
       </c>
     </row>
@@ -4072,7 +4078,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>자장면</t>
+          <t>도란도란</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4088,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>닭똥집</t>
+          <t>아채곱창</t>
         </is>
       </c>
     </row>
@@ -4092,7 +4098,8 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>군만두</t>
+          <t>추천
+타키쉬 커피(모래커피)</t>
         </is>
       </c>
     </row>
@@ -4102,7 +4109,8 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>돼지양념곱창</t>
+          <t>추천
+과일 요거트</t>
         </is>
       </c>
     </row>
@@ -4112,7 +4120,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>조기매운탕</t>
+          <t>돼지김치찌개</t>
         </is>
       </c>
     </row>
@@ -4122,7 +4130,8 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>고추장육회</t>
+          <t>추천
+김치볶음밥</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4141,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>소왕갈비</t>
+          <t>뼈없는 찜닭 (소)</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4151,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>생삼겹살</t>
+          <t>HOT 크리스피 베이크</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4161,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>클래식 치즈 피자</t>
+          <t>삼족찜(1인분)</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4171,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>正熟 돈마호크(210g)</t>
+          <t>감자튀김 (S)</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4181,8 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>마왕통구이 (소)</t>
+          <t>추천
+순살치킨</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4192,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>해물탕(소)</t>
+          <t>감자튀김</t>
         </is>
       </c>
     </row>
@@ -4192,8 +4202,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>추천
-3인반반</t>
+          <t>천사(기본)김밥</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4212,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>목살 스테이크</t>
+          <t>단뽀뽀 오므라이스</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4222,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>소금구이</t>
+          <t>야매이카BBQ</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>콩나물국밥</t>
+          <t>숭어</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4242,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>이베리코돼지 편백세트 (2인추천)</t>
+          <t>얼씨구</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4252,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>대패삼겹살</t>
+          <t>토마토 모짜렐라 파스타</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4262,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>차돌 두루치기</t>
+          <t>클래식치즈버거</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4272,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>우동정식</t>
+          <t>닭강정 (특대) +콜라 (대)</t>
         </is>
       </c>
     </row>
@@ -4273,7 +4282,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>한치 땅콩</t>
+          <t>대작 모둠초밥 (11ps)</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4292,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>황소곱창</t>
+          <t>장어탕 (식사)</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4302,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>다발김치찌개 (대)</t>
+          <t>참다랑어 뱃살모듬</t>
         </is>
       </c>
     </row>
@@ -4303,7 +4312,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>노스 아일랜드IPA (435ml)</t>
+          <t>추천유부4+음료세트</t>
         </is>
       </c>
     </row>
@@ -4313,7 +4322,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>우거지감자탕 (2인)</t>
+          <t>오징어 땅콩</t>
         </is>
       </c>
     </row>
@@ -4323,7 +4332,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>트리플치즈 텐더치킨</t>
+          <t>황금올리브반반+황금알치즈볼</t>
         </is>
       </c>
     </row>
@@ -4333,7 +4342,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>순살치킨(순살,간장,양념,치즈)</t>
+          <t>레벨업 토스트</t>
         </is>
       </c>
     </row>
@@ -4343,7 +4352,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>탕수육 (소)</t>
+          <t>감자탕(소)</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4362,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>메뉴판1</t>
+          <t>레드마요치킨</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4372,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>양지 소고기쌀국수</t>
+          <t>아마에비동</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4382,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>수제 돈까스 카레</t>
+          <t>소갈비살 (170g)</t>
         </is>
       </c>
     </row>
@@ -4383,7 +4392,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>현미바사삭</t>
+          <t>차돌박이 대표한상</t>
         </is>
       </c>
     </row>
@@ -4393,7 +4402,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>참홍어 삼합</t>
+          <t>닭백숙</t>
         </is>
       </c>
     </row>
@@ -4403,7 +4412,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>곱창볶음</t>
+          <t>아이스아메리카노</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4422,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>생삼겹살(200g)</t>
+          <t>베리버터스콘</t>
         </is>
       </c>
     </row>
@@ -4423,7 +4432,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>돼지김치찌개</t>
+          <t>앞다리살한마리(2~3인이상)</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4442,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>치즈크러스트피자(R)</t>
+          <t>평일런치 (오후 5시 이전)</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4452,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>갈비살(180g)</t>
+          <t>항정 스테이크</t>
         </is>
       </c>
     </row>
@@ -4453,7 +4462,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>토마토 모짜렐라 파스타</t>
+          <t>카보다로카 비뉴 배르드</t>
         </is>
       </c>
     </row>
@@ -4463,7 +4472,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>곱밥</t>
+          <t>아리랑 핫도그</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4482,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>동궁황금찜닭 (R)</t>
+          <t>살시치아 미트볼 스튜</t>
         </is>
       </c>
     </row>
@@ -4483,7 +4492,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>송이김밥</t>
+          <t>마가리타</t>
         </is>
       </c>
     </row>
@@ -4493,7 +4502,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>모로코 치킨 타진</t>
+          <t>오리지널 함박스테이크</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4512,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>양푼 생고기 김치찌개</t>
+          <t>왕순대</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4522,8 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>A스시(10Ps)</t>
+          <t>추천
+오로히</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4533,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>사바이소베마끼+우니</t>
+          <t>생우럭탕(1인)</t>
         </is>
       </c>
     </row>
@@ -4533,8 +4543,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>추천
-아몬드크림 라떼</t>
+          <t>마라탕</t>
         </is>
       </c>
     </row>
@@ -4544,7 +4553,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>구운버섯샐러드</t>
+          <t>오늘의초밥</t>
         </is>
       </c>
     </row>
@@ -4554,7 +4563,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>돼지왕갈비(250g)</t>
+          <t>광어(완도산)</t>
         </is>
       </c>
     </row>
@@ -4564,7 +4573,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>뿌링클</t>
+          <t>한마리</t>
         </is>
       </c>
     </row>
@@ -4574,7 +4583,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>광어초밥(10p)</t>
+          <t>한우소머리곰탕</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4593,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>차돌순두부(1인)</t>
+          <t>프리미엄 돈카츠 세트</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4603,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>짜장면</t>
+          <t>곱밥</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4613,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>광어활어회 한상차림 (대)</t>
+          <t>후라이드 치킨</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4623,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>기린소바세트</t>
+          <t>예즈지</t>
         </is>
       </c>
     </row>
@@ -4624,7 +4633,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>동태전</t>
+          <t>유자향 문어 냉채</t>
         </is>
       </c>
     </row>
@@ -4634,7 +4643,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>추어탕</t>
+          <t>모듬초밥 (10P)</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4653,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>함박스테이크</t>
+          <t>슈프림양념치킨</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4663,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>살몬그라브릭스</t>
+          <t>뼈한마리</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4673,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>카보다로카 비뉴 배르드</t>
+          <t>네버슬립스 (R)</t>
         </is>
       </c>
     </row>
@@ -4674,7 +4683,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>마라룽샤 (소)</t>
+          <t>골뱅이 + 소면</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4693,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>그릴드 목살샐러드 로우</t>
+          <t>격식을 갖춘 한끼</t>
         </is>
       </c>
     </row>
@@ -4694,7 +4703,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>조개찜 (소)</t>
+          <t>소떡</t>
         </is>
       </c>
     </row>
@@ -4704,7 +4713,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>제계치</t>
+          <t>한우곱창(200g)</t>
         </is>
       </c>
     </row>
@@ -4714,7 +4723,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>광어회 (소)</t>
+          <t>오리로스</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4733,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>참치마요꽁지</t>
+          <t>아몬드라떼</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4743,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>삼겹살 (200g)</t>
+          <t>무모한 메가초밥세트A(32P)</t>
         </is>
       </c>
     </row>
@@ -4744,7 +4753,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>족발 (대)</t>
+          <t>간장+정통후라이드</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4763,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>카페라떼</t>
+          <t>차돌순두부(1인)</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4773,8 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>광어숙성회(중)</t>
+          <t>추천
+이가초밥</t>
         </is>
       </c>
     </row>
@@ -4774,7 +4784,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>동백</t>
+          <t>제주 흑돼지 오겹(150g)</t>
         </is>
       </c>
     </row>
@@ -4784,7 +4794,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>코코 후라이드(중)</t>
+          <t>훈제족발</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4804,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>추천유부4+음료세트</t>
+          <t>특초밥(15pcs)</t>
         </is>
       </c>
     </row>
@@ -4804,7 +4814,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>토마토 그린빈 샐러드</t>
+          <t>Hot (매운) 라면</t>
         </is>
       </c>
     </row>
@@ -4814,7 +4824,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>청년초밥(11p)</t>
+          <t>소곱창 (200g)</t>
         </is>
       </c>
     </row>
@@ -4824,7 +4834,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>만나칼국수</t>
+          <t>원조김밥</t>
         </is>
       </c>
     </row>
@@ -4834,7 +4844,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>마라탕(100g)</t>
+          <t>단호박크림파스타</t>
         </is>
       </c>
     </row>
@@ -4844,7 +4854,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>차돌박이 김치떡볶이</t>
+          <t>츠루츠루 라멘</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4864,8 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>굴라시</t>
+          <t>추천
+커티삭 하이볼</t>
         </is>
       </c>
     </row>
@@ -4864,7 +4875,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>고기만두(5개)</t>
+          <t>오야꼬동</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4885,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>쌀국수 (돼지)</t>
+          <t>깐풍 가지튀김</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4895,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>광어초밥(12p)</t>
+          <t>곱창모듬 (1인분)</t>
         </is>
       </c>
     </row>
@@ -4894,7 +4905,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>아메리카노(Hot)</t>
+          <t>생삼겹살(200g)</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4915,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>가츠동</t>
+          <t>한우곱창 (200g)</t>
         </is>
       </c>
     </row>
@@ -4914,7 +4925,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>제육두부김치</t>
+          <t>철판제육볶음</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4935,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>숭어</t>
+          <t>소고기 공심채 덮밥</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4945,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>꽈배기(2개)</t>
+          <t>삼 &lt;코스요리&gt;</t>
         </is>
       </c>
     </row>
@@ -4944,7 +4955,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>생삽겹(180g)</t>
+          <t>등심돈까스</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4965,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>장어소금구이 (1kg)</t>
+          <t>파고 피자</t>
         </is>
       </c>
     </row>
@@ -4964,7 +4975,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>HOT 크리스피 베이크</t>
+          <t>야끼소바</t>
         </is>
       </c>
     </row>
@@ -4974,7 +4985,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>아메리카노 (BLACK)</t>
+          <t>비빔국수</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4995,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>가브리살 (300g)</t>
+          <t>고추장불고기</t>
         </is>
       </c>
     </row>
@@ -4994,8 +5005,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>추천
-프레임커피 No.1</t>
+          <t>그린스무디</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5015,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>건강한방삼계탕</t>
+          <t>무뼈숯불닭발</t>
         </is>
       </c>
     </row>
@@ -5015,7 +5025,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>매운쭈꾸미(1인)</t>
+          <t>자장면</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5035,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>보쌈정식</t>
+          <t>옛날통닭(1마리)</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5045,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>계란게살탕</t>
+          <t>돌솥밥 추어탕</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5055,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>참숯닭갈비 (250g)</t>
+          <t>크림양송이 스파게티</t>
         </is>
       </c>
     </row>
@@ -5055,8 +5065,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>추천
-타키쉬 커피(모래커피)</t>
+          <t>튀볶이</t>
         </is>
       </c>
     </row>
@@ -5066,7 +5075,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>삼백돈 돈가츠</t>
+          <t>도미초밥</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5085,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>청국장과 보리밥</t>
+          <t>고르곤졸라피자</t>
         </is>
       </c>
     </row>
@@ -5086,7 +5095,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>황궁 쟁반짜장</t>
+          <t>호타루 모듬세트</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5105,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>사골칼국수</t>
+          <t>만조 크림 리조또</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5115,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>굴국밥</t>
+          <t>연포정식</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5125,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>순살 치킨 (소)</t>
+          <t>치즈돈까스 모밀세트 1인분</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5135,8 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>뒷고기 한판(500g)</t>
+          <t>추천
+달돈세트</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5146,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>황제꽃갈비살 (250g)</t>
+          <t>피자</t>
         </is>
       </c>
     </row>
@@ -5146,7 +5156,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>반반치킨</t>
+          <t>막회물회</t>
         </is>
       </c>
     </row>
@@ -5156,7 +5166,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>소라숙회 부추무침</t>
+          <t>소곱창</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5176,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>참치 스페샬 (1인)</t>
+          <t>하루 (옛날돈가스)</t>
         </is>
       </c>
     </row>
@@ -5176,7 +5186,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>과일요거트</t>
+          <t>조기매운탕</t>
         </is>
       </c>
     </row>
@@ -5186,7 +5196,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>까르보나라</t>
+          <t>뚝배기불고기</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5206,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>조개구이 (소)</t>
+          <t>나눠먹는 와츄원</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5216,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>풍천민물장어(1인분)</t>
+          <t>갈매기살 (150g)</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5226,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>100%수제양념돼지갈비 (250g)</t>
+          <t>감튀 (S)</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5236,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>백채찌개(돼지or부대)1인분</t>
+          <t>광어(소)</t>
         </is>
       </c>
     </row>
@@ -5236,7 +5246,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>분짜</t>
+          <t>아보명란마요김밥</t>
         </is>
       </c>
     </row>
@@ -5246,7 +5256,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>더바삭치킨 뼈</t>
+          <t>아김밥 세트 1인분</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5266,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>함바그카레라이스</t>
+          <t>소 생갈비살 (180g)</t>
         </is>
       </c>
     </row>
@@ -5266,7 +5276,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>기꾸초밥(12pcs)</t>
+          <t>특선활어회초밥(12pcs)</t>
         </is>
       </c>
     </row>
@@ -5276,7 +5286,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>크림생맥주</t>
+          <t>흑염소탕 (100g)</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5296,8 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>연어 무한리필 (1인)</t>
+          <t>추천
+꾸에이띠어우 느아</t>
         </is>
       </c>
     </row>
@@ -5296,7 +5307,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>연어 무한리필</t>
+          <t>광어(2인)</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5317,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>갈비탕</t>
+          <t>잠봉뵈르</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5327,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>소갈비살</t>
+          <t>제육두부김치</t>
         </is>
       </c>
     </row>
@@ -5326,8 +5337,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>추천
-오로히</t>
+          <t>숯불구이 족발</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5347,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>우육도삭면</t>
+          <t>쥐포튀김</t>
         </is>
       </c>
     </row>
@@ -5347,7 +5357,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>짜오판</t>
+          <t>생감자튀김</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5367,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>국물닭볶음탕(한마리)</t>
+          <t>그릴치킨스테끼</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5377,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>흑염소탕 (100g)</t>
+          <t>곱창한판</t>
         </is>
       </c>
     </row>
@@ -5377,7 +5387,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>A set</t>
+          <t>치킨샐러드</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5397,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>고급양갈비</t>
+          <t>황소곱창</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5407,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>도로초밥(10p)</t>
+          <t>동궁황금찜닭 (R)</t>
         </is>
       </c>
     </row>
@@ -5407,7 +5417,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>곱창볶음 (1인분)</t>
+          <t>녹두삼계탕</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5427,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>모짜렐라 스팸계란마리</t>
+          <t>돼지 김치찜(1인분)</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5437,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>뽀모도로 파스타</t>
+          <t>왕새우구이</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5447,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>치즈닭갈비</t>
+          <t>녹두닭죽</t>
         </is>
       </c>
     </row>
@@ -5447,7 +5457,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>명품통갈매기살 (200g)</t>
+          <t>깻잎찜닭(2인)</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5467,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>함흥회냉면</t>
+          <t>모듬과일</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5477,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>바지락 칼국수</t>
+          <t>한우꽃등심(150g)</t>
         </is>
       </c>
     </row>
@@ -5477,7 +5487,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>도란도란</t>
+          <t>1인 사시미 (20P)</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5497,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>민물장어 큰것 (2마리)</t>
+          <t>국물치즈떡닭세트(순살/뼈한마리)</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5507,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>수제 큐브파운드</t>
+          <t>소갈비살(200g)</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5517,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>닭모래집</t>
+          <t>고묵이</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5527,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>파고 피자</t>
+          <t>곱창볶음 (1인분)</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5537,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>리춘세트</t>
+          <t>야끼카레</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5547,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>삼겹숙주볶음</t>
+          <t>빠레뜨 파스타</t>
         </is>
       </c>
     </row>
@@ -5547,7 +5557,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>떡볶이</t>
+          <t>통뼈국물닭발</t>
         </is>
       </c>
     </row>
@@ -5557,7 +5567,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>연어사시미</t>
+          <t>참다랑어 뱃살 (1Pcs)</t>
         </is>
       </c>
     </row>
@@ -5567,8 +5577,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>추천
-1인세트</t>
+          <t>페스트리피자</t>
         </is>
       </c>
     </row>
@@ -5578,7 +5587,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>흑돼지 (180g)</t>
+          <t>소고기된장전골</t>
         </is>
       </c>
     </row>
@@ -5588,7 +5597,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>겉바속촉 두부 샐러드</t>
+          <t>고르곤졸라 피자 (10인치)</t>
         </is>
       </c>
     </row>
@@ -5598,7 +5607,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>카우키 롤</t>
+          <t>마라탕 (육수류) (100g)</t>
         </is>
       </c>
     </row>
@@ -5608,7 +5617,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>훠궈뷔페 (1인)</t>
+          <t>광어회</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5627,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>싱글</t>
+          <t>모로코 치킨 타진</t>
         </is>
       </c>
     </row>
@@ -5628,7 +5637,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>영구짜장</t>
+          <t>옛날돈까스</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5647,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>설맥치킨</t>
+          <t>어멍한판(500g)</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5657,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>갈매기살 (1인분)</t>
+          <t>마른안주(소),쥐포,노가리</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5667,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>당근케이크</t>
+          <t>순살치킨(순살,간장,양념,치즈)</t>
         </is>
       </c>
     </row>
@@ -5668,8 +5677,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>추천
-이젠떡볶이</t>
+          <t>수제돈까스</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5687,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>해물손칼국수</t>
+          <t>프레시버거</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5697,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>피자</t>
+          <t>국내산차돌박이(1인분)</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5707,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>짝태</t>
+          <t>양푼등갈비</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5717,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>감자튀김</t>
+          <t>반반족발 (중)</t>
         </is>
       </c>
     </row>
@@ -5719,8 +5727,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>추천
-명품도야지항정살묵은지찜</t>
+          <t>닭볶음탕(소)</t>
         </is>
       </c>
     </row>
@@ -5730,7 +5737,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>학주쌤 강추 고쉬불패</t>
+          <t>참치회 미 메뉴</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5747,8 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>왕순대</t>
+          <t>추천
+1인세트</t>
         </is>
       </c>
     </row>
@@ -5750,7 +5758,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>마제소바</t>
+          <t>바싹불고기오징어 한상</t>
         </is>
       </c>
     </row>
@@ -5760,7 +5768,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>돼지갈비김치찌개</t>
+          <t>우동</t>
         </is>
       </c>
     </row>
@@ -5770,7 +5778,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>들깨칼제비</t>
+          <t>돈코츠라면</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5788,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>오늘라면</t>
+          <t>황제꽃갈비살 (250g)</t>
         </is>
       </c>
     </row>
@@ -5790,7 +5798,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>왕재곱창 (2인분)</t>
+          <t>육회모듬</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5808,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>깐족보쌈</t>
+          <t>숯불 흑돼지 퐁듀</t>
         </is>
       </c>
     </row>
@@ -5810,7 +5818,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>전주콩나물해장국</t>
+          <t>1+한우채끝 (150g)</t>
         </is>
       </c>
     </row>
@@ -5820,7 +5828,8 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Avocado chili BURRUTO</t>
+          <t>추천
+똥집 통마늘소금구이</t>
         </is>
       </c>
     </row>
@@ -5830,7 +5839,8 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>산더미 후라이드(반마리)</t>
+          <t>추천
+마차이짬뽕</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5850,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>부대찌개</t>
+          <t>싱글세트A</t>
         </is>
       </c>
     </row>
@@ -5850,7 +5860,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>갈치구이</t>
+          <t>소곱창(180g)</t>
         </is>
       </c>
     </row>
@@ -5860,7 +5870,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>트윈 세트</t>
+          <t>가래떡떡볶이</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5880,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>부채살 찹스테이크</t>
+          <t>C.연어.육회 무한 SET</t>
         </is>
       </c>
     </row>
@@ -5880,7 +5890,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>야매이카BBQ</t>
+          <t>또봉이통닭</t>
         </is>
       </c>
     </row>
@@ -5890,7 +5900,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>규동</t>
+          <t>대구뽈조림(소)</t>
         </is>
       </c>
     </row>
@@ -5900,7 +5910,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>칼국수</t>
+          <t>한우소고기 돌미여국 정찬</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5920,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>콘 에스퀴테스</t>
+          <t>얼큰모듬짬뽕</t>
         </is>
       </c>
     </row>
@@ -5920,7 +5930,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>초당순두부</t>
+          <t>돼지국밥 레드 오리지널</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5940,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>낙곱새 (소)</t>
+          <t>1인분 식사세트</t>
         </is>
       </c>
     </row>
@@ -5940,7 +5950,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>치킨샐러드</t>
+          <t>청국장</t>
         </is>
       </c>
     </row>
@@ -5950,7 +5960,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>손칼국수 (보)</t>
+          <t>무우전</t>
         </is>
       </c>
     </row>
@@ -5960,7 +5970,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>와!메리카노 1.5L</t>
+          <t>백채찌개 1인</t>
         </is>
       </c>
     </row>
@@ -5970,7 +5980,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>생고기김치찜(2~3인)</t>
+          <t>호가든 생 2잔&amp;나쵸</t>
         </is>
       </c>
     </row>
@@ -5980,7 +5990,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>통큰갈비찜 (1인)</t>
+          <t>김치찌개 (1인분)</t>
         </is>
       </c>
     </row>
@@ -5990,7 +6000,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>닭매운탕</t>
+          <t>반반족발 (뒷다리로 반반)</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6010,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>아웃백 스페셜 갈릭 스테이크</t>
+          <t>청국장과 보리밥</t>
         </is>
       </c>
     </row>
@@ -6010,7 +6020,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>그린스무디</t>
+          <t>타이페이 누들킹</t>
         </is>
       </c>
     </row>
@@ -6020,7 +6030,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>돈코츠라면</t>
+          <t>(New)투움바 파스타 베이컨</t>
         </is>
       </c>
     </row>
@@ -6030,7 +6040,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>간장치킨</t>
+          <t>별표국수</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6050,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>머리국밥</t>
+          <t>생연어 유부</t>
         </is>
       </c>
     </row>
@@ -6050,7 +6060,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>아구찜(중)</t>
+          <t>우렁쌈장정식</t>
         </is>
       </c>
     </row>
@@ -6060,7 +6070,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>부대찌개무한리필(성인)</t>
+          <t>광어 (중)</t>
         </is>
       </c>
     </row>
@@ -6070,7 +6080,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>나눠먹는 와츄원</t>
+          <t>주중)어린이 회원가</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6090,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>오징어 땅콩</t>
+          <t>달리크림 파스타</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6100,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>양평해장국</t>
+          <t>피자M+사이드 메뉴</t>
         </is>
       </c>
     </row>
@@ -6100,7 +6110,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>튀볶이</t>
+          <t>정가스페셜 (3일전 예약)</t>
         </is>
       </c>
     </row>
@@ -6110,7 +6120,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>대구막창(150g)</t>
+          <t>프렌치 감자전</t>
         </is>
       </c>
     </row>
@@ -6120,7 +6130,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>통닭발</t>
+          <t>양지 소고기쌀국수</t>
         </is>
       </c>
     </row>
@@ -6130,7 +6140,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>한방보쌈 (대)</t>
+          <t>통통 삼겹 (150g)</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6150,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>젠젠 팡케키</t>
+          <t>장미차</t>
         </is>
       </c>
     </row>
@@ -6150,7 +6160,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>스타버거</t>
+          <t>통뼈닭발 (소)</t>
         </is>
       </c>
     </row>
@@ -6160,8 +6170,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>추천
-[일품] 돼지김치찌개</t>
+          <t>광어활어회 한상차림 (대)</t>
         </is>
       </c>
     </row>
@@ -6171,8 +6180,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>추천
-달빛크림라떼</t>
+          <t>하와이언 (R)</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6190,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>전통주</t>
+          <t>육회(중)</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6200,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>볶음짬뽕</t>
+          <t>감자탕 (대)</t>
         </is>
       </c>
     </row>
@@ -6202,7 +6210,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>마른안주</t>
+          <t>비빔탄탄멘</t>
         </is>
       </c>
     </row>
@@ -6212,7 +6220,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>연어 150g</t>
+          <t>아메리카노(HOT)</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6230,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>퍼포</t>
+          <t>양꼬치</t>
         </is>
       </c>
     </row>
@@ -6232,7 +6240,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>한우곱창 (200g)</t>
+          <t>참숯닭갈비 (250g)</t>
         </is>
       </c>
     </row>
@@ -6242,7 +6250,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>생양꼬치</t>
+          <t>모듬(600g)</t>
         </is>
       </c>
     </row>
@@ -6252,7 +6260,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>얼큰버섯칼국수</t>
+          <t>쭈꾸미덮밥</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6270,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>고기밥</t>
+          <t>부대찌개무한리필(성인)</t>
         </is>
       </c>
     </row>
@@ -6272,7 +6280,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>오리주물럭(900g)</t>
+          <t>닭한마리 (중)</t>
         </is>
       </c>
     </row>
@@ -6282,7 +6290,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>닭백숙</t>
+          <t>미트볼토마토파스타</t>
         </is>
       </c>
     </row>
@@ -6292,7 +6300,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>SET A</t>
+          <t>도토리칼국수</t>
         </is>
       </c>
     </row>
@@ -6302,7 +6310,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>타트플람베</t>
+          <t>들깨 칼국수</t>
         </is>
       </c>
     </row>
@@ -6312,7 +6320,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>샤오룽바오</t>
+          <t>콘소메이징</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6330,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>페이머스</t>
+          <t>스윗에그</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6340,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>철판제육볶음</t>
+          <t>삼겹살(180g)</t>
         </is>
       </c>
     </row>
@@ -6342,7 +6350,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>왕십리야채곱창 (200g)</t>
+          <t>불백정식</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6360,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>본김밥</t>
+          <t>통큰갈비찜 (1인)</t>
         </is>
       </c>
     </row>
@@ -6362,7 +6370,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>옛날돈까스</t>
+          <t>냉동삼겹(150g)</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6380,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Set A(1인)</t>
+          <t>버섯매운칼국수</t>
         </is>
       </c>
     </row>
@@ -6382,7 +6390,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>국물떡볶이</t>
+          <t>아웃백 스페셜 갈릭 스테이크</t>
         </is>
       </c>
     </row>
@@ -6392,7 +6400,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>1미터 무한리필</t>
+          <t>카페라떼</t>
         </is>
       </c>
     </row>
@@ -6402,7 +6410,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>텍스멕스 바베큐 버거</t>
+          <t>쌀국수</t>
         </is>
       </c>
     </row>
@@ -6412,7 +6420,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>오겹살 (180g)</t>
+          <t>타코야끼 8알</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6430,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>모듬과일</t>
+          <t>명란로제 파스타</t>
         </is>
       </c>
     </row>
@@ -6432,7 +6440,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>샤브(1인)</t>
+          <t>오꼬노미야끼해물</t>
         </is>
       </c>
     </row>
@@ -6442,7 +6450,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>수제 왕 돼지갈비 (250g)</t>
+          <t>아구찜 (대)</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6460,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>닭도리탕 (대)</t>
+          <t>돼지볶음쌈밥</t>
         </is>
       </c>
     </row>
@@ -6462,7 +6470,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>단호박크림파스타</t>
+          <t>부채살 찹스테이크</t>
         </is>
       </c>
     </row>
@@ -6472,7 +6480,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>아구찜(소)</t>
+          <t>곤드레밥</t>
         </is>
       </c>
     </row>
@@ -6482,7 +6490,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>모듬곱창(200g)</t>
+          <t>채끝등심(200g)</t>
         </is>
       </c>
     </row>
@@ -6492,7 +6500,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>불고기 4DX</t>
+          <t>냉동삼겹살</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6510,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>new 깐쇼새우(7미)+짜장1</t>
+          <t>야채구이</t>
         </is>
       </c>
     </row>
@@ -6512,7 +6520,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>한우곱창한판(2인분)</t>
+          <t>벌교 참꼬막 데침</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6530,8 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>모둠조개구이 (2인)</t>
+          <t>추천
+3인반반</t>
         </is>
       </c>
     </row>
@@ -6532,7 +6541,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>콜라겐 무뼈 닭발(소)</t>
+          <t>new 깐쇼새우(7미)+짜장1</t>
         </is>
       </c>
     </row>
@@ -6542,7 +6551,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>매운참치김밥</t>
+          <t>왕돈가스</t>
         </is>
       </c>
     </row>
@@ -6552,7 +6561,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>차돌라면</t>
+          <t>그날 세트</t>
         </is>
       </c>
     </row>
@@ -6562,7 +6571,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>한우육회</t>
+          <t>와인 15종</t>
         </is>
       </c>
     </row>
@@ -6572,7 +6581,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>모듬사시미</t>
+          <t>순대곱창버섯전골(중)</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6591,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>회전초밥</t>
+          <t>살치살스테이크(300g)</t>
         </is>
       </c>
     </row>
@@ -6592,7 +6601,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>어른(1인분)</t>
+          <t>쭈꾸미 (1인분)</t>
         </is>
       </c>
     </row>
@@ -6602,7 +6611,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>보보맘밥상 (여름) (1인)</t>
+          <t>매드쉬림프 피자(L)</t>
         </is>
       </c>
     </row>
@@ -6612,7 +6621,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>우렁쌈장정식</t>
+          <t>열탄불고기</t>
         </is>
       </c>
     </row>
@@ -6622,7 +6631,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>모듬 (500g)</t>
+          <t>꼬막</t>
         </is>
       </c>
     </row>
@@ -6632,7 +6641,8 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>사시미 플레이트 (2인)</t>
+          <t>추천
+아몬드크림 라떼</t>
         </is>
       </c>
     </row>
@@ -6642,7 +6652,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>김치찜</t>
+          <t>오리지널수제버거</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6662,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>뼈한마리</t>
+          <t>연어 무한리필 (1인)</t>
         </is>
       </c>
     </row>
@@ -6662,7 +6672,8 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>이레김밥</t>
+          <t>추천
+홍탄</t>
         </is>
       </c>
     </row>
@@ -6672,7 +6683,8 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>매운낙지비빔밥</t>
+          <t>추천
+믹스카츠</t>
         </is>
       </c>
     </row>
@@ -6682,7 +6694,8 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>수육 (1인분)</t>
+          <t>추천
+B세트 (2시간+기본음료)</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6705,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>청년국수</t>
+          <t>튀김 (1인분)</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6715,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>닭한마리 (중)</t>
+          <t>아메리카노</t>
         </is>
       </c>
     </row>
@@ -6712,7 +6725,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>간장통닭</t>
+          <t>베지 토마토 파스타</t>
         </is>
       </c>
     </row>
@@ -6722,8 +6735,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>추천
-B세트 (2시간+기본음료)</t>
+          <t>페퍼로니 피자</t>
         </is>
       </c>
     </row>
@@ -6733,7 +6745,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>오늘의사시미</t>
+          <t>동태탕</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6755,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>가족세트4~5인용</t>
+          <t>토종순대국</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6765,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>흑돼지왕소금구이 (700g)</t>
+          <t>엄청 큰 후라이드 치킨</t>
         </is>
       </c>
     </row>
@@ -6763,7 +6775,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>[NEW]두찜 트러플크림찜닭</t>
+          <t>나비루회덮밥</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6785,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>꽃듬심 (150g)</t>
+          <t>짜오판</t>
         </is>
       </c>
     </row>
@@ -6783,7 +6795,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>오야꼬동</t>
+          <t>해물탕(중)</t>
         </is>
       </c>
     </row>
@@ -6793,7 +6805,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>순살안동찜닭(소)</t>
+          <t>부타동</t>
         </is>
       </c>
     </row>
@@ -6803,7 +6815,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>마라훠궈전골 (양고기 or 소고기 택1)</t>
+          <t>현미바사삭</t>
         </is>
       </c>
     </row>
@@ -6813,7 +6825,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>A코스</t>
+          <t>산낙지철판</t>
         </is>
       </c>
     </row>
@@ -6823,7 +6835,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>예즈지</t>
+          <t>야채김밥</t>
         </is>
       </c>
     </row>
@@ -6833,7 +6845,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>청국장</t>
+          <t>치즈김치전</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6855,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>야채 김밥</t>
+          <t>코카콜라500ml</t>
         </is>
       </c>
     </row>
@@ -6853,7 +6865,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>뚝배기불고기</t>
+          <t>아귀포</t>
         </is>
       </c>
     </row>
@@ -6863,7 +6875,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>혼마구로초밥</t>
+          <t>연남물갈비(1인분)</t>
         </is>
       </c>
     </row>
@@ -6873,7 +6885,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>카페 아메리카노</t>
+          <t>더바삭치킨 뼈</t>
         </is>
       </c>
     </row>
@@ -6883,7 +6895,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>돼지 육수 라멘</t>
+          <t>한돈목살(150g)</t>
         </is>
       </c>
     </row>
@@ -6893,7 +6905,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>소 불고기 김치전</t>
+          <t>명품통갈매기살 (200g)</t>
         </is>
       </c>
     </row>
@@ -6903,7 +6915,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>생삼겹살 (1인분)</t>
+          <t>닭곰탕국수</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6925,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>물냉면</t>
+          <t>모시조개탕</t>
         </is>
       </c>
     </row>
@@ -6923,7 +6935,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>도미초밥</t>
+          <t>생오리로스 (3인분)</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6945,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>계란찜</t>
+          <t>양다리(1kg)</t>
         </is>
       </c>
     </row>
@@ -6943,7 +6955,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>활어회(소)</t>
+          <t>쌀떡볶이</t>
         </is>
       </c>
     </row>
@@ -6953,7 +6965,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>타코야끼 8알</t>
+          <t>타트플람베</t>
         </is>
       </c>
     </row>
@@ -6963,7 +6975,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>제육직화</t>
+          <t>왕십리야채곱창 (200g)</t>
         </is>
       </c>
     </row>
@@ -6973,8 +6985,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>추천
-크렘 시트론</t>
+          <t>황소알곱창 (2인분)</t>
         </is>
       </c>
     </row>
@@ -6984,7 +6995,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>반반족발 (중)</t>
+          <t>A SET</t>
         </is>
       </c>
     </row>
@@ -6994,7 +7005,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>삼겹살(1인분)</t>
+          <t>수제 큐브파운드</t>
         </is>
       </c>
     </row>
@@ -7004,7 +7015,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>광어초밥(10P)</t>
+          <t>마왕통구이</t>
         </is>
       </c>
     </row>
@@ -7014,7 +7025,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>토코 돈코츠 라멘</t>
+          <t>도야족발_중</t>
         </is>
       </c>
     </row>
@@ -7024,7 +7035,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>장어덮밥</t>
+          <t>광어초밥 (10ps)</t>
         </is>
       </c>
     </row>
@@ -7034,7 +7045,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>보성녹돈삼겹살</t>
+          <t>마라탕(100g)</t>
         </is>
       </c>
     </row>
@@ -7044,7 +7055,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>냉만두국</t>
+          <t>소고기국밥</t>
         </is>
       </c>
     </row>
@@ -7054,7 +7065,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>족발</t>
+          <t>돈가스</t>
         </is>
       </c>
     </row>
@@ -7064,7 +7075,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>교촌허니순살[R]</t>
+          <t>숯불 소금구이</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7085,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>국산 삼합</t>
+          <t>족발 (중)</t>
         </is>
       </c>
     </row>
@@ -7084,7 +7095,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>돈가스</t>
+          <t>물냉면</t>
         </is>
       </c>
     </row>
@@ -7094,7 +7105,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>믹스가츠동</t>
+          <t>영미김밥</t>
         </is>
       </c>
     </row>
@@ -7104,7 +7115,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>갈매기살 (150g)</t>
+          <t>닭다리살강정(중)</t>
         </is>
       </c>
     </row>
@@ -7114,7 +7125,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>광어대파회</t>
+          <t>흑돼지타코</t>
         </is>
       </c>
     </row>
@@ -7124,7 +7135,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>엄청 큰 후라이드 치킨</t>
+          <t>소곱창 (1인분)</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7145,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>A 돼지갈비 스테이크 무한 (1인)</t>
+          <t>우리보쌈(소)</t>
         </is>
       </c>
     </row>
@@ -7144,7 +7155,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>똥집 오일 파스타</t>
+          <t>냉면</t>
         </is>
       </c>
     </row>
@@ -7154,7 +7165,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>야채비빔밥</t>
+          <t>돈까스</t>
         </is>
       </c>
     </row>
@@ -7164,7 +7175,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>김밥</t>
+          <t>직화불고기혼밥</t>
         </is>
       </c>
     </row>
@@ -7174,7 +7185,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>레드마요치킨</t>
+          <t>오징어김밥</t>
         </is>
       </c>
     </row>
@@ -7184,7 +7195,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>농어(소)</t>
+          <t>수타짜장</t>
         </is>
       </c>
     </row>
@@ -7194,7 +7205,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>가마도로</t>
+          <t>막창소금(2인)</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7215,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>치킨 오버 라이스</t>
+          <t>버섯샤브매운탕</t>
         </is>
       </c>
     </row>
@@ -7214,7 +7225,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>광릉식불고기 도시락</t>
+          <t>마제소바</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7235,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>모듬구이 (200g)</t>
+          <t>소금구이</t>
         </is>
       </c>
     </row>
@@ -7234,7 +7245,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>순대곱창버섯전골(중)</t>
+          <t>민물장어 큰것 (2마리)</t>
         </is>
       </c>
     </row>
@@ -7244,7 +7255,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>아김밥 세트 1인분</t>
+          <t>조개찜 (소)</t>
         </is>
       </c>
     </row>
@@ -7254,7 +7265,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>오징어김밥</t>
+          <t>닭똥집</t>
         </is>
       </c>
     </row>
@@ -7264,7 +7275,8 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>1인 보쌈</t>
+          <t>추천
+족발(국내산)</t>
         </is>
       </c>
     </row>
@@ -7274,7 +7286,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>녹두삼계탕</t>
+          <t>오븐바사삭+티카마살라+콜라1.25L</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7296,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>녹차수제돼지갈비</t>
+          <t>햄치즈</t>
         </is>
       </c>
     </row>
@@ -7294,7 +7306,8 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>돼지곰탕</t>
+          <t>추천
+수박빙수</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7317,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>하루 (옛날돈가스)</t>
+          <t>아메리카노(Hot)</t>
         </is>
       </c>
     </row>
@@ -7314,7 +7327,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>모모초밥(12피스)</t>
+          <t>우육도삭면</t>
         </is>
       </c>
     </row>
@@ -7324,8 +7337,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>추천
-똥집 통마늘소금구이</t>
+          <t>추어탕</t>
         </is>
       </c>
     </row>
@@ -7335,7 +7347,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>꾸덕 로제떡볶이</t>
+          <t>생연어 사시미</t>
         </is>
       </c>
     </row>
@@ -7345,7 +7357,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>채끝살 스테이크</t>
+          <t>치즈돈까스(2인분)</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7367,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>대포찜닭 (2인)</t>
+          <t>해장되는대창나베</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7377,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>낙곱전골(소)</t>
+          <t>미친피자 시그니처(M)</t>
         </is>
       </c>
     </row>
@@ -7375,7 +7387,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>김치찌개(보통)</t>
+          <t>오겹살 (180g)</t>
         </is>
       </c>
     </row>
@@ -7385,7 +7397,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>프레시버거</t>
+          <t>대패삼겹살 (100g)</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7407,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>야채곱창</t>
+          <t>족발</t>
         </is>
       </c>
     </row>
@@ -7405,7 +7417,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>영양탕</t>
+          <t>9온즈 버거</t>
         </is>
       </c>
     </row>
@@ -7415,7 +7427,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>야끼소바</t>
+          <t>참치타다끼</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7437,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>큐브 파운드 5종</t>
+          <t>트리플치즈 텐더치킨</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7447,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>오리지널수제버거</t>
+          <t>광릉식불고기 도시락</t>
         </is>
       </c>
     </row>
@@ -7445,8 +7457,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>추천
-누룩솔트후라이드 (콘)</t>
+          <t>고기 왕만두(5개)</t>
         </is>
       </c>
     </row>
@@ -7456,7 +7467,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>핫 후라이드</t>
+          <t>동해 해물파전</t>
         </is>
       </c>
     </row>
@@ -7466,8 +7477,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>추천
-김치볶음밥</t>
+          <t>부추생삼겁살(국내산)</t>
         </is>
       </c>
     </row>
@@ -7477,7 +7487,8 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>양념수대곱창(2인분)</t>
+          <t>추천
+통마늘 차돌 알리오 올리오</t>
         </is>
       </c>
     </row>
@@ -7487,7 +7498,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>옛날통닭(1마리)</t>
+          <t>서울양념통닭</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7508,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>짬뽕</t>
+          <t>보달라</t>
         </is>
       </c>
     </row>
@@ -7507,7 +7518,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>마라탕 (육수류) (100g)</t>
+          <t>돼지불백</t>
         </is>
       </c>
     </row>
@@ -7517,7 +7528,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>1+한우채끝 (150g)</t>
+          <t>샤오룽바오</t>
         </is>
       </c>
     </row>
@@ -7527,7 +7538,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>그대와 함께 라면</t>
+          <t>엠브로돈까스</t>
         </is>
       </c>
     </row>
@@ -7537,7 +7548,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>해물찜</t>
+          <t>도로초밥(10p)</t>
         </is>
       </c>
     </row>
@@ -7547,7 +7558,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>마담떡볶이</t>
+          <t>낙곱새</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7568,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>녹차 라떼</t>
+          <t>숯불양념바베큐</t>
         </is>
       </c>
     </row>
@@ -7567,7 +7578,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>안심 (100g)</t>
+          <t>치킨라이스</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7588,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>꼬마만두</t>
+          <t>어른(1인분)</t>
         </is>
       </c>
     </row>
@@ -7587,7 +7598,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>고돼지정식</t>
+          <t>지코바 소금구이</t>
         </is>
       </c>
     </row>
@@ -7597,7 +7608,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>산낙지 연포탕</t>
+          <t>소갈비살</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7618,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>미니족</t>
+          <t>UV Vodka (1병) + 나쵸 or 황도 + 음료 2 (토닉워터 / 사이다 / 콜라)</t>
         </is>
       </c>
     </row>
@@ -7617,7 +7628,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>삼겹살구이/고기만</t>
+          <t>페이머스</t>
         </is>
       </c>
     </row>
@@ -7627,7 +7638,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>장미차</t>
+          <t>돼지갈비찜</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7648,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>싸움보쌈(M)</t>
+          <t>[NEW]두찜 트러플크림찜닭</t>
         </is>
       </c>
     </row>
@@ -7647,7 +7658,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>모듬</t>
+          <t>마라룽샤 (소)</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7668,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>황도</t>
+          <t>통국물닭발 (중)</t>
         </is>
       </c>
     </row>
@@ -7667,7 +7678,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>왕새우구이</t>
+          <t>생제주오겹살(300g)</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7688,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>오신매운갈비찜 (1인분)</t>
+          <t>런치 오마카세</t>
         </is>
       </c>
     </row>
@@ -7687,7 +7698,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>세트메뉴</t>
+          <t>소림마라 마라탕</t>
         </is>
       </c>
     </row>
@@ -7697,8 +7708,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>추천
-마차이짬뽕</t>
+          <t>메뉴</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7718,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>연인세트A</t>
+          <t>이베리코돼지 편백세트 (2인추천)</t>
         </is>
       </c>
     </row>
@@ -7718,7 +7728,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>코다리 조림 (소)</t>
+          <t>모모초밥(12피스)</t>
         </is>
       </c>
     </row>
@@ -7728,7 +7738,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>메뉴</t>
+          <t>2시간</t>
         </is>
       </c>
     </row>
@@ -7738,7 +7748,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>광어(2인)</t>
+          <t>한방삼계탕</t>
         </is>
       </c>
     </row>
@@ -7748,7 +7758,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>핀프릭 브런치 플레이트</t>
+          <t>모쯔나베</t>
         </is>
       </c>
     </row>
@@ -7758,7 +7768,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>참다랑어 뱃살모듬</t>
+          <t>꽃등심 (150g)</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7778,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>냉동삼겹(150g)</t>
+          <t>돼지갈비 (250g)</t>
         </is>
       </c>
     </row>
@@ -7778,7 +7788,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>쭈삼겹살(1인분)</t>
+          <t>고급양갈비</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7798,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>치즈 프레이트</t>
+          <t>마제루롤 정식 (저녁)</t>
         </is>
       </c>
     </row>
@@ -7798,7 +7808,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>신선오리주물럭</t>
+          <t>한우꽃등심(200g)</t>
         </is>
       </c>
     </row>
@@ -7808,7 +7818,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>치즈범벅치킨 (순살)(작은거)</t>
+          <t>흑돼지왕소금구이 (700g)</t>
         </is>
       </c>
     </row>
@@ -7818,7 +7828,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>어묵우동</t>
+          <t>꽃듬심 (150g)</t>
         </is>
       </c>
     </row>
@@ -7828,7 +7838,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>살치살스테이크(300g)</t>
+          <t>오돌뼈</t>
         </is>
       </c>
     </row>
@@ -7838,7 +7848,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>레드떡볶이</t>
+          <t>수플레 치즈케이크와 생크림</t>
         </is>
       </c>
     </row>
@@ -7848,7 +7858,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>얼큰닭도리탕 (대)</t>
+          <t>우삼겹쌈밥</t>
         </is>
       </c>
     </row>
@@ -7858,7 +7868,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>에비죠텐동</t>
+          <t>치킨(반마리)</t>
         </is>
       </c>
     </row>
@@ -7868,7 +7878,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>광어초밥 (2P)</t>
+          <t>생맥주</t>
         </is>
       </c>
     </row>
@@ -7878,7 +7888,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>듀록 냉삼겹 (1인분)</t>
+          <t>부추북어국</t>
         </is>
       </c>
     </row>
@@ -7888,7 +7898,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>전주비빔밥</t>
+          <t>순살양념구이치킨</t>
         </is>
       </c>
     </row>
@@ -7898,7 +7908,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>돼지오징어타마</t>
+          <t>비빔냉면</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7918,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>오리지널</t>
+          <t>탐포탕</t>
         </is>
       </c>
     </row>
@@ -7918,7 +7928,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>차돌박이 (100g)</t>
+          <t>채끝살 스테이크</t>
         </is>
       </c>
     </row>
@@ -7928,7 +7938,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>쌀똑핫도그</t>
+          <t>대구막창(150g)</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7948,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>김치부대찌개 (3인분)</t>
+          <t>한방보쌈 (대)</t>
         </is>
       </c>
     </row>
@@ -7948,7 +7958,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>간비국수</t>
+          <t>굴비백반</t>
         </is>
       </c>
     </row>
@@ -7958,7 +7968,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>국물닭발</t>
+          <t>양푼 생고기 김치찌개</t>
         </is>
       </c>
     </row>
@@ -7968,7 +7978,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>삼겹살 (180g)</t>
+          <t>반마리 메뉴(음료미포함)</t>
         </is>
       </c>
     </row>
@@ -7978,7 +7988,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>육회</t>
+          <t>함흥회냉면</t>
         </is>
       </c>
     </row>
@@ -7988,8 +7998,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>추천
-과일 요거트</t>
+          <t>치즈해물떡볶이</t>
         </is>
       </c>
     </row>
@@ -7999,7 +8008,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>광어 (중간놈)</t>
+          <t>석쇠불고기</t>
         </is>
       </c>
     </row>
@@ -8009,7 +8018,8 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>스테이크 덮밥</t>
+          <t>추천
+크림치즈볼 로제떡볶이</t>
         </is>
       </c>
     </row>
@@ -8019,7 +8029,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>명란로제 파스타</t>
+          <t>돼지곰탕</t>
         </is>
       </c>
     </row>
@@ -8029,7 +8039,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>치즈돈까스 모밀세트 1인분</t>
+          <t>우동정식</t>
         </is>
       </c>
     </row>
@@ -8039,7 +8049,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>생맥주</t>
+          <t>영구짜장</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8059,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>연포정식</t>
+          <t>산낙지 연포탕</t>
         </is>
       </c>
     </row>
@@ -8059,7 +8069,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>특모듬 (중)</t>
+          <t>한우특수부위(150g)</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8079,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>나홀로set</t>
+          <t>연어구이</t>
         </is>
       </c>
     </row>
@@ -8079,7 +8089,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>시래기 코다리찜(소소)</t>
+          <t>분짜</t>
         </is>
       </c>
     </row>
@@ -8089,7 +8099,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>소곱창</t>
+          <t>곱창볶음</t>
         </is>
       </c>
     </row>
@@ -8099,7 +8109,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>삼계탕</t>
+          <t>전주콩나물해장국</t>
         </is>
       </c>
     </row>
@@ -8109,7 +8119,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>클로리스가든</t>
+          <t>한우육회</t>
         </is>
       </c>
     </row>
@@ -8119,7 +8129,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>열탄불고기</t>
+          <t>봉스쭈꾸미 (1인분) (저녁메뉴)</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8139,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>깐쇼새우</t>
+          <t>김치생오겹살(200g)</t>
         </is>
       </c>
     </row>
@@ -8139,7 +8149,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>포모도로</t>
+          <t>사시미 플레이트 (2인)</t>
         </is>
       </c>
     </row>
@@ -8149,7 +8159,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>숙성회 정식</t>
+          <t>낙지(볶음)덮밥</t>
         </is>
       </c>
     </row>
@@ -8159,7 +8169,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>파절이 생삼겹살(1인분)</t>
+          <t>장사장 부타동</t>
         </is>
       </c>
     </row>
@@ -8169,7 +8179,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>로제떡볶이</t>
+          <t>춘천닭갈비 (1인분)</t>
         </is>
       </c>
     </row>
@@ -8179,7 +8189,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>치킨가라아게</t>
+          <t>바나나쥬스 (M)</t>
         </is>
       </c>
     </row>
@@ -8189,7 +8199,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>통국물닭발 (중)</t>
+          <t>일미 김밥</t>
         </is>
       </c>
     </row>
@@ -8199,7 +8209,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>국내산차돌박이(1인분)</t>
+          <t>소막창(200g)</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8219,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>손칼국수</t>
+          <t>연어사시미</t>
         </is>
       </c>
     </row>
@@ -8219,7 +8229,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>소고기국밥</t>
+          <t>목살 스테이크</t>
         </is>
       </c>
     </row>
@@ -8229,8 +8239,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>추천
-곱창 (200g)</t>
+          <t>사케동</t>
         </is>
       </c>
     </row>
@@ -8240,7 +8249,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>크라운쌀통닭</t>
+          <t>유린기</t>
         </is>
       </c>
     </row>
@@ -8250,7 +8259,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>한우소곱창 (1인분)</t>
+          <t>해장라면</t>
         </is>
       </c>
     </row>
@@ -8260,7 +8269,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>앵그리 버드와 감자</t>
+          <t>갈치조림</t>
         </is>
       </c>
     </row>
@@ -8270,7 +8279,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>생연어샐러드</t>
+          <t>직구도시락 (1인)</t>
         </is>
       </c>
     </row>
@@ -8280,7 +8289,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>돼지갈비 (250g)</t>
+          <t>봉골레 파스타</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8299,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>UV Vodka (1병) + 나쵸 or 황도 + 음료 2 (토닉워터 / 사이다 / 콜라)</t>
+          <t>계란피자</t>
         </is>
       </c>
     </row>
@@ -8300,7 +8309,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>국물치즈떡닭세트(순살/뼈한마리)</t>
+          <t>산꼼장어 (소)</t>
         </is>
       </c>
     </row>
@@ -8310,7 +8319,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>닭강정 (특대) +콜라 (대)</t>
+          <t>까르보나라</t>
         </is>
       </c>
     </row>
@@ -8320,7 +8329,8 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>족발 大(앞다리)</t>
+          <t>추천
+미플레이스 라떼</t>
         </is>
       </c>
     </row>
@@ -8330,7 +8340,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>치킨라이스</t>
+          <t>해물순두부</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8350,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>생우럭탕(1인)</t>
+          <t>건강한방삼계탕</t>
         </is>
       </c>
     </row>
@@ -8350,7 +8360,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>특수부위모듬(400g)</t>
+          <t>마루떡복이</t>
         </is>
       </c>
     </row>
@@ -8360,7 +8370,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>크리스피치킨</t>
+          <t>생양꼬치</t>
         </is>
       </c>
     </row>
@@ -8370,7 +8380,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>도야족발_중</t>
+          <t>브라운슈가 치즈폼 스무디(L)</t>
         </is>
       </c>
     </row>
@@ -8380,7 +8390,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>무뼈숯불닭발</t>
+          <t>타코와사비</t>
         </is>
       </c>
     </row>
@@ -8390,7 +8400,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>시즈닝감자치킨</t>
+          <t>생삼겹살 (200g)</t>
         </is>
       </c>
     </row>
@@ -8400,7 +8410,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>돈까스</t>
+          <t>돼지양념곱창</t>
         </is>
       </c>
     </row>
@@ -8410,7 +8420,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>레벨업 토스트</t>
+          <t>온고블렌다드 no.1</t>
         </is>
       </c>
     </row>
@@ -8420,7 +8430,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>치퐁당 후라이드</t>
+          <t>꼬막비빔밥</t>
         </is>
       </c>
     </row>
@@ -8430,7 +8440,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>국물닭발(소)</t>
+          <t>살치살(100g)</t>
         </is>
       </c>
     </row>
@@ -8440,7 +8450,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>반마리 메뉴(음료미포함)</t>
+          <t>모다카레+프리미엄소시지</t>
         </is>
       </c>
     </row>
@@ -8450,7 +8460,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>오늘의초밥</t>
+          <t>마녀김밥</t>
         </is>
       </c>
     </row>
@@ -8460,8 +8470,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>추천
-달돈세트</t>
+          <t>유기농 순두부찌개</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8480,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>응set</t>
+          <t>장어소금구이 (1kg)</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8490,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>1인 사시미 (20P)</t>
+          <t>전복삼계탕</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8500,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>어멍한판(500g)</t>
+          <t>함바그카레라이스</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8510,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>숯불 소금구이</t>
+          <t>토코 돈코츠 라멘</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8520,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>카스</t>
+          <t>보보맘밥상 (여름) (1인)</t>
         </is>
       </c>
     </row>
@@ -8521,8 +8530,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>추천
-나폴리 슈림프 피자</t>
+          <t>갈비살(180g)</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8540,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>치즈돈까스(2인분)</t>
+          <t>광어초밥(10P)</t>
         </is>
       </c>
     </row>
@@ -8542,7 +8550,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>로제삼겹살</t>
+          <t>뒷고기 한판(500g)</t>
         </is>
       </c>
     </row>
@@ -8552,7 +8560,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>비빔밥</t>
+          <t>바지락 수제비</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8570,8 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>살시치아 미트볼 스튜</t>
+          <t>추천
+크렘 시트론</t>
         </is>
       </c>
     </row>
@@ -8572,7 +8581,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>데미 토마호크 커틀렛</t>
+          <t>1미터 무한리필</t>
         </is>
       </c>
     </row>
@@ -8582,7 +8591,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>쭈꾸미(1인)</t>
+          <t>반반섞음</t>
         </is>
       </c>
     </row>
@@ -8592,7 +8601,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>꼬막비빔밥</t>
+          <t>고등어구이 정식</t>
         </is>
       </c>
     </row>
@@ -8602,7 +8611,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>야채구이</t>
+          <t>삼백돈 돈가츠</t>
         </is>
       </c>
     </row>
@@ -8612,7 +8621,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>육회와 김부각</t>
+          <t>꽃등심(200g)</t>
         </is>
       </c>
     </row>
@@ -8622,7 +8631,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>빠레뜨 파스타</t>
+          <t>로스 돈가츠</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8641,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>에스프레스</t>
+          <t>큐브스테이크덮밥</t>
         </is>
       </c>
     </row>
@@ -8642,7 +8651,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>한방삼계탕</t>
+          <t>칼국수</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8661,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>베이컨머쉬룸 파스타</t>
+          <t>통뼈불닭발세트</t>
         </is>
       </c>
     </row>
@@ -8662,7 +8671,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>탐포탕</t>
+          <t>크림파스타</t>
         </is>
       </c>
     </row>
@@ -8672,7 +8681,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>석쇠불고기</t>
+          <t>시래기 코다리찜(소소)</t>
         </is>
       </c>
     </row>
@@ -8682,7 +8691,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>도토리칼국수</t>
+          <t>마그마 오믈렛</t>
         </is>
       </c>
     </row>
@@ -8692,7 +8701,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>닭다리살 스테이크</t>
+          <t>바우네정식</t>
         </is>
       </c>
     </row>
@@ -8702,7 +8711,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>과일안주</t>
+          <t>카라멘</t>
         </is>
       </c>
     </row>
@@ -8712,7 +8721,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>브라운슈가 치즈폼 스무디(L)</t>
+          <t>트윈 세트</t>
         </is>
       </c>
     </row>
@@ -8722,7 +8731,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>비빔탄탄멘</t>
+          <t>치즈닭갈비</t>
         </is>
       </c>
     </row>
@@ -8732,7 +8741,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>타코와사비</t>
+          <t>추어탕+돌솥밥</t>
         </is>
       </c>
     </row>
@@ -8742,7 +8751,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>소곱창 (1인분)</t>
+          <t>닭다리살 스테이크</t>
         </is>
       </c>
     </row>
@@ -8752,7 +8761,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>직화 불막창</t>
+          <t>짬뽕</t>
         </is>
       </c>
     </row>
@@ -8762,7 +8771,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>기본쌀국수</t>
+          <t>장어구이(중)</t>
         </is>
       </c>
     </row>
@@ -8772,7 +8781,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>돌솥추어탕</t>
+          <t>생고기김치찜(2~3인)</t>
         </is>
       </c>
     </row>
@@ -8782,7 +8791,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>수프림 타코</t>
+          <t>데미 토마호크 커틀렛</t>
         </is>
       </c>
     </row>
@@ -8792,7 +8801,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>모듬전</t>
+          <t>손칼국수 (보)</t>
         </is>
       </c>
     </row>
@@ -8802,7 +8811,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>볼 샐러드</t>
+          <t>순한맛</t>
         </is>
       </c>
     </row>
@@ -8812,7 +8821,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>백채찌개 1인</t>
+          <t>순살안동찜닭(소)</t>
         </is>
       </c>
     </row>
@@ -8822,7 +8831,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>오꼬노미야끼해물</t>
+          <t>곱창전골</t>
         </is>
       </c>
     </row>
@@ -8832,8 +8841,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>추천
-광명종합셋트</t>
+          <t>오리지날 떡볶이</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8851,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>마늘알마니+단짠감자치즈볼+콜라1.25</t>
+          <t>이레김밥</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8861,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>스노우 치즈 돈가스</t>
+          <t>싱싱해물모듬</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8871,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>싱글세트A</t>
+          <t>생삽겹(180g)</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8881,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>옛날통닭(한마리)</t>
+          <t>왕족방 (소)</t>
         </is>
       </c>
     </row>
@@ -8883,7 +8891,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>감자 튀김</t>
+          <t>닭발</t>
         </is>
       </c>
     </row>
@@ -8893,7 +8901,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>츠루츠루 라멘</t>
+          <t>콜드브루</t>
         </is>
       </c>
     </row>
@@ -8903,7 +8911,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>천사(기본)김밥</t>
+          <t>치즈 프레이트</t>
         </is>
       </c>
     </row>
@@ -8913,7 +8921,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>오리지날치킨</t>
+          <t>곱창 (2인분)</t>
         </is>
       </c>
     </row>
@@ -8923,7 +8931,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>닥치고 커플SET</t>
+          <t>통랍스터 오븐구이 세트(페페로니)</t>
         </is>
       </c>
     </row>
@@ -8933,7 +8941,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>쥐포튀김</t>
+          <t>황궁 쟁반짜장</t>
         </is>
       </c>
     </row>
@@ -8943,7 +8951,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>더블치즈 피자 (SLICE)</t>
+          <t>위스키</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8961,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>광어회</t>
+          <t>복지리탕 (1인)</t>
         </is>
       </c>
     </row>
@@ -8963,7 +8971,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>물갈비</t>
+          <t>팥칼국수</t>
         </is>
       </c>
     </row>
@@ -8973,7 +8981,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>오리로스</t>
+          <t>오리지날치킨</t>
         </is>
       </c>
     </row>
@@ -8983,7 +8991,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>해물찜 (소)</t>
+          <t>알탕</t>
         </is>
       </c>
     </row>
@@ -8993,7 +9001,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>곱창소금구이</t>
+          <t>삼겹살 (170g)</t>
         </is>
       </c>
     </row>
@@ -9003,7 +9011,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>칵테일</t>
+          <t>기본쌀국수</t>
         </is>
       </c>
     </row>
@@ -9013,7 +9021,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>샤인머스캣 봉봉 스무디 - R/ICE</t>
+          <t>보리밥</t>
         </is>
       </c>
     </row>
@@ -9023,7 +9031,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>육회덮밥</t>
+          <t>보쌈</t>
         </is>
       </c>
     </row>
@@ -9033,7 +9041,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>우동</t>
+          <t>클로리스가든</t>
         </is>
       </c>
     </row>
@@ -9043,7 +9051,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>한우 (150g)</t>
+          <t>모듬사시미</t>
         </is>
       </c>
     </row>
@@ -9053,7 +9061,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>한사바리해장국+떡갈비</t>
+          <t>과일</t>
         </is>
       </c>
     </row>
@@ -9063,7 +9071,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>계란피자</t>
+          <t>만나칼국수</t>
         </is>
       </c>
     </row>
@@ -9073,7 +9081,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>프라임소고기세트</t>
+          <t>해물손칼국수</t>
         </is>
       </c>
     </row>
@@ -9083,7 +9091,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>무우전</t>
+          <t>부라타치즈</t>
         </is>
       </c>
     </row>
@@ -9093,7 +9101,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>꽃등심 (150g)</t>
+          <t>동태전</t>
         </is>
       </c>
     </row>
@@ -9103,7 +9111,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>수제 베이컨 시저 샐러드</t>
+          <t>차돌박이 (100g)</t>
         </is>
       </c>
     </row>
@@ -9113,7 +9121,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>C.연어.육회 무한 SET</t>
+          <t>도가니탕</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9131,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>장어구이(중)</t>
+          <t>양평해장국</t>
         </is>
       </c>
     </row>
@@ -9133,7 +9141,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>두부김치</t>
+          <t>동백</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9151,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>삼겹살(180g)</t>
+          <t>청춘 세트(580g)</t>
         </is>
       </c>
     </row>
@@ -9153,7 +9161,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>감튀 (S)</t>
+          <t>해물찜</t>
         </is>
       </c>
     </row>
@@ -9163,7 +9171,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>백반</t>
+          <t>큐브 파운드 5종</t>
         </is>
       </c>
     </row>
@@ -9173,7 +9181,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>소떡</t>
+          <t>핫 후라이드</t>
         </is>
       </c>
     </row>
@@ -9183,7 +9191,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>직화불고기피자(2인)</t>
+          <t>우삼겹 국물떡볶이</t>
         </is>
       </c>
     </row>
@@ -9193,7 +9201,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>한우특수부위(150g)</t>
+          <t>산더미 후라이드(반마리)</t>
         </is>
       </c>
     </row>
@@ -9203,7 +9211,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>생오리로스 (3인분)</t>
+          <t>들깨칼제비</t>
         </is>
       </c>
     </row>
@@ -9213,7 +9221,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>한우꽃등심(150g)</t>
+          <t>본래순대국</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9231,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>생연어 유부</t>
+          <t>Americano</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9241,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>마왕통구이</t>
+          <t>갈낙탕</t>
         </is>
       </c>
     </row>
@@ -9243,7 +9251,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>광어 (소)</t>
+          <t>쌀똑핫도그</t>
         </is>
       </c>
     </row>
@@ -9253,7 +9261,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>Hot (매운) 라면</t>
+          <t>100% 순종 듀록목살</t>
         </is>
       </c>
     </row>
@@ -9263,7 +9271,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>닭다리살강정(중)</t>
+          <t>해물파전</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9281,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>한우 깍두기 볶음밥</t>
+          <t>소등심(150g)</t>
         </is>
       </c>
     </row>
@@ -9283,7 +9291,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>바싹불고기오징어 한상</t>
+          <t>한우 깍두기 볶음밥</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9301,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>선봉관 곰탕(보통)</t>
+          <t>특수부위모듬(400g)</t>
         </is>
       </c>
     </row>
@@ -9303,8 +9311,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>추천
-국내산 100% 안심스테이크</t>
+          <t>양념수대곱창(2인분)</t>
         </is>
       </c>
     </row>
@@ -9314,7 +9321,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>모다카레+프리미엄소시지</t>
+          <t>미니족</t>
         </is>
       </c>
     </row>
@@ -9324,7 +9331,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>뼈없는 찜닭 (소)</t>
+          <t>육회</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9341,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>인헌김치찌개</t>
+          <t>모듬</t>
         </is>
       </c>
     </row>
@@ -9344,7 +9351,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>동태찌개</t>
+          <t>국산 삼합</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9361,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>치슐랭</t>
+          <t>샤브(1인)</t>
         </is>
       </c>
     </row>
@@ -9364,7 +9371,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>오븐바사삭+티카마살라+콜라1.25L</t>
+          <t>꼬마만두</t>
         </is>
       </c>
     </row>
@@ -9374,7 +9381,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>9온즈 버거</t>
+          <t>군만두</t>
         </is>
       </c>
     </row>
@@ -9384,7 +9391,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>볏짚산꼼장어 (1인분)</t>
+          <t>부대찌개</t>
         </is>
       </c>
     </row>
@@ -9394,7 +9401,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>후라이드치킨</t>
+          <t>正熟 돈마호크(210g)</t>
         </is>
       </c>
     </row>
@@ -9404,7 +9411,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>미스터보쌈2인</t>
+          <t>회덮밥</t>
         </is>
       </c>
     </row>
@@ -9414,7 +9421,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>바우네정식</t>
+          <t>따빠디또 첫 번째 디저트 이야기 '익숙한 그리고 색다른'</t>
         </is>
       </c>
     </row>
@@ -9424,7 +9431,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>왕갈비탕</t>
+          <t>계란말이김밥</t>
         </is>
       </c>
     </row>
@@ -9434,7 +9441,8 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>전복삼계탕</t>
+          <t>추천
+골목한상</t>
         </is>
       </c>
     </row>
@@ -9444,7 +9452,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>정든 김밥</t>
+          <t>국물떡볶이</t>
         </is>
       </c>
     </row>
@@ -9454,7 +9462,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>로스 돈가츠</t>
+          <t>볶음밥</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9472,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>해물탕(중)</t>
+          <t>마담떡볶이</t>
         </is>
       </c>
     </row>
@@ -9474,7 +9482,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>마라아귀</t>
+          <t>생과일 샐러드</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9492,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>조선의 육개장</t>
+          <t>SET A</t>
         </is>
       </c>
     </row>
@@ -9494,7 +9502,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>골드 치킨 텐더 피자</t>
+          <t>특정식(1인분)</t>
         </is>
       </c>
     </row>
@@ -9504,8 +9512,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>추천
-카이센동</t>
+          <t>한우곱창한판(2인분)</t>
         </is>
       </c>
     </row>
@@ -9515,7 +9522,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>해장라면</t>
+          <t>은행꼬치</t>
         </is>
       </c>
     </row>
@@ -9525,7 +9532,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>탄탄면</t>
+          <t>바닐라 까눌레</t>
         </is>
       </c>
     </row>
@@ -9535,7 +9542,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>버섯매운칼국수</t>
+          <t>시즈닝감자치킨</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9552,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>삼 &lt;코스요리&gt;</t>
+          <t>낙곱전골(소)</t>
         </is>
       </c>
     </row>
@@ -9555,7 +9562,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>콩국수</t>
+          <t>레몬 마들렌</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9572,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>모듬 오뎅</t>
+          <t>순대 곱창 전골 (중)</t>
         </is>
       </c>
     </row>
@@ -9575,7 +9582,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>알탕</t>
+          <t>학주쌤 강추 고쉬불패</t>
         </is>
       </c>
     </row>
@@ -9585,7 +9592,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>육육치킨</t>
+          <t>아로니아찐빵 (5개)</t>
         </is>
       </c>
     </row>
@@ -9595,7 +9602,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>양푼등갈비</t>
+          <t>똥집 오일 파스타</t>
         </is>
       </c>
     </row>
@@ -9605,7 +9612,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>도가니탕</t>
+          <t>스노우 치즈 돈가스</t>
         </is>
       </c>
     </row>
@@ -9615,7 +9622,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>닭발</t>
+          <t>대포찜닭 (2인)</t>
         </is>
       </c>
     </row>
@@ -9625,7 +9632,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>돼지볶음쌈밥</t>
+          <t>뿌링클</t>
         </is>
       </c>
     </row>
@@ -9635,7 +9642,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>프렌치 감자전</t>
+          <t>매운참치김밥</t>
         </is>
       </c>
     </row>
@@ -9645,7 +9652,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>무모한메가(32P)</t>
+          <t>안심육즙탕수육 (S)</t>
         </is>
       </c>
     </row>
@@ -9655,7 +9662,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>꼬막</t>
+          <t>참스테이크</t>
         </is>
       </c>
     </row>
@@ -9665,7 +9672,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>차돌박이 대표한상</t>
+          <t>오신매운갈비찜 (1인분)</t>
         </is>
       </c>
     </row>
@@ -9675,7 +9682,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>장어탕 (식사)</t>
+          <t>냄비오뎅</t>
         </is>
       </c>
     </row>
@@ -9685,7 +9692,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>두떡로제떡볶이</t>
+          <t>찐꽈배기</t>
         </is>
       </c>
     </row>
@@ -9695,7 +9702,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>닭 한마리탕</t>
+          <t>국물밀떡</t>
         </is>
       </c>
     </row>
@@ -9705,7 +9712,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>즉석떡볶이(2인)</t>
+          <t>레몬간장연어덮밥</t>
         </is>
       </c>
     </row>
@@ -9715,7 +9722,8 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>우리보쌈(소)</t>
+          <t>추천
+삼백반고집</t>
         </is>
       </c>
     </row>
@@ -9725,7 +9733,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>해물칼국수</t>
+          <t>김치찌개(보통)</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9743,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>하와이언 (R)</t>
+          <t>모듬 오뎅</t>
         </is>
       </c>
     </row>
@@ -9745,7 +9753,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>무한차돌부채살말이 (1인)</t>
+          <t>전통주</t>
         </is>
       </c>
     </row>
@@ -9755,7 +9763,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>민물장어구이 (1인분)</t>
+          <t>국내산 특생삼겹살 (200g)</t>
         </is>
       </c>
     </row>
@@ -9765,8 +9773,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>추천
-크림치즈볼 로제떡볶이</t>
+          <t>부추전</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9783,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>오뎅탕</t>
+          <t>불고기</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9793,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>영미김밥</t>
+          <t>클래식 치즈 피자</t>
         </is>
       </c>
     </row>
@@ -9796,7 +9803,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>피자M+사이드 메뉴</t>
+          <t>크라운쌀통닭</t>
         </is>
       </c>
     </row>
@@ -9806,8 +9813,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>추천
-소고기타다끼</t>
+          <t>해봉이밥버거</t>
         </is>
       </c>
     </row>
@@ -9817,7 +9823,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>마루떡복이</t>
+          <t>무모한메가(32P)</t>
         </is>
       </c>
     </row>
@@ -9827,7 +9833,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>순한우동</t>
+          <t>2시간/1인 (기본)</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9843,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>마제루롤 정식 (저녁)</t>
+          <t>지중해식 오징어튀김</t>
         </is>
       </c>
     </row>
@@ -9847,7 +9853,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>치즈 플레이트</t>
+          <t>모듬구이(600g)</t>
         </is>
       </c>
     </row>
@@ -9857,7 +9863,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>들깨칼국수</t>
+          <t>우삼겹살 쌈밥(180g)</t>
         </is>
       </c>
     </row>
@@ -9867,7 +9873,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>스윗에그</t>
+          <t>고돼지정식</t>
         </is>
       </c>
     </row>
@@ -9877,7 +9883,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>그린 샐러드</t>
+          <t>백반</t>
         </is>
       </c>
     </row>
@@ -9887,7 +9893,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>100% 순종 듀록목살</t>
+          <t>대새피자</t>
         </is>
       </c>
     </row>
@@ -9897,7 +9903,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>연어구이</t>
+          <t>연어 150g</t>
         </is>
       </c>
     </row>
@@ -9907,7 +9913,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>부타동</t>
+          <t>노가리(2마리)</t>
         </is>
       </c>
     </row>
@@ -9917,7 +9923,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>특초밥(15pcs)</t>
+          <t>김치두루치기 정식</t>
         </is>
       </c>
     </row>
@@ -9927,7 +9933,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>양아들 후라이드치킨</t>
+          <t>녹차 라떼</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9943,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>강남샤브샤브</t>
+          <t>수프림 타코</t>
         </is>
       </c>
     </row>
@@ -9947,7 +9953,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>골뱅이 + 소면</t>
+          <t>곱창구이 (2인)</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9963,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>비프 타코</t>
+          <t>아구찜 (소)</t>
         </is>
       </c>
     </row>
@@ -9967,7 +9973,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>낙지정식(1인)</t>
+          <t>치킨가라아게</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9983,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>이베리코 한판 (2~3인용)</t>
+          <t>바지락 칼국수</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9993,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>가마보꼬(어묵)고로케 (2PCS)</t>
+          <t>가마도로</t>
         </is>
       </c>
     </row>
@@ -9997,7 +10003,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>소갈비살(700g)</t>
+          <t>두떡로제떡볶이</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10013,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>주중)어린이 회원가</t>
+          <t>가족세트4~5인용</t>
         </is>
       </c>
     </row>
@@ -10017,7 +10023,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>1인분 식사세트</t>
+          <t>이베리코 한판 (2~3인용)</t>
         </is>
       </c>
     </row>
@@ -10027,7 +10033,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>온다비어</t>
+          <t>혼술기본</t>
         </is>
       </c>
     </row>
@@ -10037,7 +10043,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>특선활어회초밥(12pcs)</t>
+          <t>메기 매운탕(소)</t>
         </is>
       </c>
     </row>
@@ -10047,8 +10053,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>추천
-남도정식</t>
+          <t>감자전</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10063,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>국물밀떡</t>
+          <t>고르곤졸라꿀피자</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10073,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>(New)투움바 파스타 베이컨</t>
+          <t>아메리카노 (BLACK)</t>
         </is>
       </c>
     </row>
@@ -10078,8 +10083,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>추천
-족발(국내산)</t>
+          <t>청년국수</t>
         </is>
       </c>
     </row>
@@ -10089,7 +10093,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>돌솥밥 추어탕</t>
+          <t>A코스</t>
         </is>
       </c>
     </row>
@@ -10099,7 +10103,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>페퍼로니 피자</t>
+          <t>햄볶음밥</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10113,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>쭈꾸미덮밥</t>
+          <t>오픈샌드위치</t>
         </is>
       </c>
     </row>
@@ -10119,7 +10123,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>감자탕 (대)</t>
+          <t>모듬초밥(10p)</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10133,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>지코바 소금구이</t>
+          <t>생삼겹살</t>
         </is>
       </c>
     </row>
@@ -10139,7 +10143,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>수제돈까스</t>
+          <t>마른안주</t>
         </is>
       </c>
     </row>
@@ -10149,7 +10153,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>무한리필(14세 이상)</t>
+          <t>순대곱창볶음</t>
         </is>
       </c>
     </row>
@@ -10159,7 +10163,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>살치살(100g)</t>
+          <t>얼큰닭도리탕 (대)</t>
         </is>
       </c>
     </row>
@@ -10169,7 +10173,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>곱창구이 (2인)</t>
+          <t>소스삼겹살(2인~)</t>
         </is>
       </c>
     </row>
@@ -10179,7 +10183,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>반반감족</t>
+          <t>쌀국수 (돼지)</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10193,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>치킨보울(스몰)</t>
+          <t>불고기 4DX</t>
         </is>
       </c>
     </row>
@@ -10199,7 +10203,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>스테이크갈비 무한리필 (1인)</t>
+          <t>족발+보쌈 (소)</t>
         </is>
       </c>
     </row>
@@ -10209,7 +10213,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>서오릉콤비네이션</t>
+          <t>쉐프추천초밥 (12pcs)</t>
         </is>
       </c>
     </row>
@@ -10219,7 +10223,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>참 조기 찌개</t>
+          <t>구운버섯샐러드</t>
         </is>
       </c>
     </row>
@@ -10229,7 +10233,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>닭볶음탕(소)</t>
+          <t>광어 우럭 세꼬시 연어 해물 물회</t>
         </is>
       </c>
     </row>
@@ -10239,7 +10243,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>곱창한판</t>
+          <t>비빔밥</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10253,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>와인 15종</t>
+          <t>치즈크러스트피자(R)</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10263,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>양꼬치</t>
+          <t>프라임소고기세트</t>
         </is>
       </c>
     </row>
@@ -10269,7 +10273,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>돼지국밥 레드 오리지널</t>
+          <t>짬봉탕</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10283,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>메기 매운탕(소)</t>
+          <t>순한우동</t>
         </is>
       </c>
     </row>
@@ -10289,7 +10293,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>일미 김밥</t>
+          <t>모둠조개구이 (2인)</t>
         </is>
       </c>
     </row>
@@ -10299,7 +10303,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>녹두닭죽</t>
+          <t>송이김밥</t>
         </is>
       </c>
     </row>
@@ -10309,7 +10313,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>매드쉬림프 피자(L)</t>
+          <t>사바이소베마끼+우니</t>
         </is>
       </c>
     </row>
@@ -10319,7 +10323,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>참치타다끼</t>
+          <t>삼겹숙주볶음</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10333,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>수입맥주</t>
+          <t>단호박 볼케이노</t>
         </is>
       </c>
     </row>
@@ -10339,7 +10343,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>찹쌀탕수육</t>
+          <t>광어회 (소)</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10353,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>아몬드라떼</t>
+          <t>점심특선(장어탕)</t>
         </is>
       </c>
     </row>
@@ -10359,7 +10363,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>양꼬치(1인)</t>
+          <t>치즈감자전</t>
         </is>
       </c>
     </row>
@@ -10369,7 +10373,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>평양냉면</t>
+          <t>닭떡볶이</t>
         </is>
       </c>
     </row>
@@ -10379,7 +10383,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>황소곱창(250g)</t>
+          <t>소라숙회 부추무침</t>
         </is>
       </c>
     </row>
@@ -10389,7 +10393,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>곤드레밥</t>
+          <t>백순대곱창 볶음 2인</t>
         </is>
       </c>
     </row>
@@ -10399,7 +10403,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>항정 스테이크</t>
+          <t>광어 (소)</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10413,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>해봉이밥버거</t>
+          <t>당근케이크</t>
         </is>
       </c>
     </row>
@@ -10419,7 +10423,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>통/백 반반탕 (2-3인)</t>
+          <t>광어숙성회(중)</t>
         </is>
       </c>
     </row>
@@ -10429,7 +10433,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>동태탕</t>
+          <t>대패삼겹살</t>
         </is>
       </c>
     </row>
@@ -10439,7 +10443,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>가래떡떡볶이</t>
+          <t>오늘의사시미</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10453,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>생삼겹살 (180g)</t>
+          <t>소고기 쌀국수</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10463,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>고추장불고기</t>
+          <t>어메이징 크리스피 후라이드 치킨</t>
         </is>
       </c>
     </row>
@@ -10469,7 +10473,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>부추생삼겁살(국내산)</t>
+          <t>살몬그라브릭스</t>
         </is>
       </c>
     </row>
@@ -10479,8 +10483,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>추천
-수박빙수</t>
+          <t>그린 샐러드</t>
         </is>
       </c>
     </row>
@@ -10490,7 +10493,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>숯불 소금막창(1인분)</t>
+          <t>그릴드 목살샐러드 로우</t>
         </is>
       </c>
     </row>
@@ -10500,7 +10503,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>해장되는대창나베</t>
+          <t>네코스시</t>
         </is>
       </c>
     </row>
@@ -10510,7 +10513,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>지중해식 오징어튀김</t>
+          <t>기린소바세트</t>
         </is>
       </c>
     </row>
@@ -10520,7 +10523,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>순대국</t>
+          <t>직화불고기피자(2인)</t>
         </is>
       </c>
     </row>
@@ -10530,7 +10533,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>베리버터스콘</t>
+          <t>굴국밥</t>
         </is>
       </c>
     </row>
@@ -10540,7 +10543,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>가득오뎅탕</t>
+          <t>레드떡볶이</t>
         </is>
       </c>
     </row>
@@ -10550,7 +10553,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>순대국밥</t>
+          <t>마라탕 (기본)</t>
         </is>
       </c>
     </row>
@@ -10560,7 +10563,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>원조김밥</t>
+          <t>대감 낙곱새</t>
         </is>
       </c>
     </row>
@@ -10570,7 +10573,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>추어탕+돌솥밥</t>
+          <t>차돌배기</t>
         </is>
       </c>
     </row>
@@ -10580,7 +10583,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>타이페이 누들킹</t>
+          <t>생연어</t>
         </is>
       </c>
     </row>
@@ -10590,7 +10593,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>대패삼겹살 (100g)</t>
+          <t>콜라</t>
         </is>
       </c>
     </row>
@@ -10600,7 +10603,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>모듬구이(600g)</t>
+          <t>민물장어구이 (1인분)</t>
         </is>
       </c>
     </row>
@@ -10610,7 +10613,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>볶음밥(1인분)</t>
+          <t>삼겹살 (1인분)</t>
         </is>
       </c>
     </row>
@@ -10620,7 +10623,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>아보명란마요김밥</t>
+          <t>바베큐플래터</t>
         </is>
       </c>
     </row>
@@ -10630,7 +10633,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>블랙 러시안</t>
+          <t>설맥치킨</t>
         </is>
       </c>
     </row>
@@ -10640,7 +10643,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>돼지국밥</t>
+          <t>닭떡볶이(소)</t>
         </is>
       </c>
     </row>
@@ -10650,8 +10653,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>추천
-통마늘 차돌 알리오 올리오</t>
+          <t>회전초밥</t>
         </is>
       </c>
     </row>
@@ -10661,7 +10663,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>소 왕통갈비(1대)</t>
+          <t>광어대파회</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10673,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>광어 사시미 (소)</t>
+          <t>모듬구이 (200g)</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10683,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>모듬초밥 (10P)</t>
+          <t>고기국수</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10693,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>돼지갈비찜</t>
+          <t>수제본함박 스테이크</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10703,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>소스삼겹살(2인~)</t>
+          <t>농어(소)</t>
         </is>
       </c>
     </row>
@@ -10711,7 +10713,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>나비루회덮밥</t>
+          <t>참치 스페샬 (1인)</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10723,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>통뼈닭발 (소)</t>
+          <t>버섯돼지갈비(1인분)</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10733,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>차돌숙주라멘</t>
+          <t>냉만두국</t>
         </is>
       </c>
     </row>
@@ -10741,7 +10743,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>대구뽈조림(소)</t>
+          <t>치킨보울(스몰)</t>
         </is>
       </c>
     </row>
@@ -10751,7 +10753,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>수플레 치즈케이크와 생크림</t>
+          <t>김밥</t>
         </is>
       </c>
     </row>
@@ -10761,7 +10763,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>순한맛</t>
+          <t>와인숙성 넓적다리 스테이크</t>
         </is>
       </c>
     </row>
@@ -10771,7 +10773,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>풍부한 단맛 토종양파 삼선짜장면</t>
+          <t>짜장</t>
         </is>
       </c>
     </row>
@@ -10781,7 +10783,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>묵은지 닭볶음탕</t>
+          <t>너트 티라노 블렌딩</t>
         </is>
       </c>
     </row>
@@ -10791,7 +10793,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>고묵이</t>
+          <t>한우 (150g)</t>
         </is>
       </c>
     </row>
@@ -10801,7 +10803,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>GELATO (꼬노)</t>
+          <t>특설렁탕</t>
         </is>
       </c>
     </row>
@@ -10811,7 +10813,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>위스키</t>
+          <t>이고집쭈꾸미 (1인분)</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10823,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>냄비오뎅</t>
+          <t>알리오 올리오 스파게티</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10833,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>앞족(국내산) 小</t>
+          <t>마늘알마니+단짠감자치즈볼+콜라1.25</t>
         </is>
       </c>
     </row>
@@ -10841,7 +10843,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>등심돈까스 (5장)</t>
+          <t>바싹불고기 (M)</t>
         </is>
       </c>
     </row>
@@ -10851,7 +10853,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>얼큰뼈감자탕 (대)</t>
+          <t>안심 (100g)</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10863,8 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>쌀떡볶이</t>
+          <t>추천
+소고기타다끼</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10874,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>회덮밥</t>
+          <t>미스터보쌈2인</t>
         </is>
       </c>
     </row>
@@ -10881,7 +10884,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>쌀국수</t>
+          <t>반반치킨</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10894,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>참다랑어 뱃살 (1Pcs)</t>
+          <t>인헌김치찌개</t>
         </is>
       </c>
     </row>
@@ -10901,7 +10904,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>치킨(반마리)</t>
+          <t>돼지오징어타마</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10914,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>장사장 부타동</t>
+          <t>해물칼국수</t>
         </is>
       </c>
     </row>
@@ -10921,7 +10924,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>대감 낙곱새</t>
+          <t>1인보쌈 (S)</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10934,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>소고기된장전골</t>
+          <t>A set</t>
         </is>
       </c>
     </row>
@@ -10941,7 +10944,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>김치두루치기 정식</t>
+          <t>콩국수</t>
         </is>
       </c>
     </row>
@@ -10951,7 +10954,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>싱싱해물모듬</t>
+          <t>국내산 생 갈매기살</t>
         </is>
       </c>
     </row>
@@ -10961,7 +10964,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>직구도시락 (1인)</t>
+          <t>소 왕통갈비(1대)</t>
         </is>
       </c>
     </row>
@@ -10971,7 +10974,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>통뼈국물닭발</t>
+          <t>닭 한마리탕</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10984,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>팥칼국수</t>
+          <t>마라훠궈전골 (양고기 or 소고기 택1)</t>
         </is>
       </c>
     </row>
@@ -10991,8 +10994,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>추천
-[매장] 부대찌개 1인분</t>
+          <t>오리지날 프린스튼 후라이드 치킨</t>
         </is>
       </c>
     </row>
@@ -11002,7 +11004,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>그릴치킨스테끼</t>
+          <t>치즈 프라이 L</t>
         </is>
       </c>
     </row>
@@ -11012,7 +11014,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>마녀김밥</t>
+          <t>광어 사시미 (소)</t>
         </is>
       </c>
     </row>
@@ -11022,7 +11024,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>한우소머리곰탕</t>
+          <t>오징어덮밥</t>
         </is>
       </c>
     </row>
@@ -11032,7 +11034,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>베지 토마토 파스타</t>
+          <t>비프 타코</t>
         </is>
       </c>
     </row>
@@ -11042,7 +11044,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>아채곱창</t>
+          <t>파절이 생삼겹살(1인분)</t>
         </is>
       </c>
     </row>
@@ -11052,7 +11054,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>소곱창 (200g)</t>
+          <t>낙곱새 (소)</t>
         </is>
       </c>
     </row>
@@ -11062,7 +11064,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>아마에비동</t>
+          <t>주먹목살(200g)</t>
         </is>
       </c>
     </row>
@@ -11072,7 +11074,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>시래불고기(1인)</t>
+          <t>오인자 모듬한상세트 (3~4인)</t>
         </is>
       </c>
     </row>
@@ -11082,7 +11084,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>청춘 세트(580g)</t>
+          <t>홍두깨</t>
         </is>
       </c>
     </row>
@@ -11092,7 +11094,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>치즈감자전</t>
+          <t>Avocado chili BURRUTO</t>
         </is>
       </c>
     </row>
@@ -11102,7 +11104,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>숯불양념바베큐</t>
+          <t>카우키 롤</t>
         </is>
       </c>
     </row>
@@ -11112,7 +11114,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>콘소메이징</t>
+          <t>보성녹돈삼겹살</t>
         </is>
       </c>
     </row>
@@ -11122,7 +11124,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>모듬구이</t>
+          <t>특명품순두부</t>
         </is>
       </c>
     </row>
@@ -11132,7 +11134,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>들깨 칼국수</t>
+          <t>시저샐러드</t>
         </is>
       </c>
     </row>
@@ -11142,7 +11144,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>염소탕</t>
+          <t>오리주물럭(900g)</t>
         </is>
       </c>
     </row>
@@ -11152,7 +11154,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>마라탕</t>
+          <t>삼겹살(150g)</t>
         </is>
       </c>
     </row>
@@ -11162,8 +11164,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>추천
-누룽지 닭한마리</t>
+          <t>아구찜 (큰소)</t>
         </is>
       </c>
     </row>
@@ -11173,7 +11174,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>아귀포</t>
+          <t>삼겹살구이/고기만</t>
         </is>
       </c>
     </row>
@@ -11183,8 +11184,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>추천
-홍탄</t>
+          <t>해물탕 (소)</t>
         </is>
       </c>
     </row>
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>광어(소)</t>
+          <t>짝태</t>
         </is>
       </c>
     </row>
@@ -11204,7 +11204,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>멸치국수</t>
+          <t>감나무 점심특선</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>화이트레이니</t>
+          <t>수제 베이컨 시저 샐러드</t>
         </is>
       </c>
     </row>
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>두마리 같은 한마리 후라이드 치킨</t>
+          <t>백채찌개(돼지or부대)1인분</t>
         </is>
       </c>
     </row>
@@ -11234,7 +11234,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>아귀포(2마리)</t>
+          <t>파절이삼겹살</t>
         </is>
       </c>
     </row>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>파절이삼겹살</t>
+          <t>다발김치찌개 (대)</t>
         </is>
       </c>
     </row>
@@ -11254,7 +11254,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>해물순두부</t>
+          <t>수제 돈까스 카레</t>
         </is>
       </c>
     </row>
@@ -11264,7 +11264,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>낙지(볶음)덮밥</t>
+          <t>수입맥주</t>
         </is>
       </c>
     </row>
